--- a/OkxData20250220.xlsx
+++ b/OkxData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>244290270</v>
+        <v>244766215</v>
       </c>
       <c r="E2" t="n">
-        <v>1531909946</v>
+        <v>1534894531</v>
       </c>
       <c r="F2" t="n">
-        <v>176426.9873435103</v>
+        <v>176358.4917616446</v>
       </c>
       <c r="G2" t="n">
-        <v>202990.4580557504</v>
+        <v>197381.5617861134</v>
       </c>
       <c r="H2" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>15351522</v>
+        <v>15624851</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>140461600</v>
+        <v>141076399</v>
       </c>
       <c r="E3" t="n">
-        <v>155653888</v>
+        <v>156335183</v>
       </c>
       <c r="F3" t="n">
-        <v>62610.59092714474</v>
+        <v>63784.49847875652</v>
       </c>
       <c r="G3" t="n">
-        <v>184933.6655030058</v>
+        <v>174931.2532095774</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>30849387</v>
+        <v>31833663</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>547569377</v>
+        <v>547316631</v>
       </c>
       <c r="E4" t="n">
-        <v>684927907</v>
+        <v>684611760</v>
       </c>
       <c r="F4" t="n">
-        <v>112807.2867514044</v>
+        <v>119689.9190832246</v>
       </c>
       <c r="G4" t="n">
-        <v>150899.7212578098</v>
+        <v>131533.4132937152</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>60334372</v>
+        <v>61071332</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>135495306</v>
+        <v>134958656</v>
       </c>
       <c r="E5" t="n">
-        <v>135495306</v>
+        <v>134958656</v>
       </c>
       <c r="F5" t="n">
-        <v>71591.00806096916</v>
+        <v>86207.84515716648</v>
       </c>
       <c r="G5" t="n">
-        <v>116572.3240874872</v>
+        <v>111683.0438239359</v>
       </c>
       <c r="H5" t="n">
         <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>64282934</v>
+        <v>66639666</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>253545515</v>
+        <v>253058906</v>
       </c>
       <c r="E6" t="n">
-        <v>253545515</v>
+        <v>253058906</v>
       </c>
       <c r="F6" t="n">
-        <v>63820.16563338071</v>
+        <v>53696.6635244512</v>
       </c>
       <c r="G6" t="n">
-        <v>92337.38185876871</v>
+        <v>113713.4433641695</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>14126869</v>
+        <v>14365570</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>100687036</v>
+        <v>100251296</v>
       </c>
       <c r="E7" t="n">
-        <v>125544931</v>
+        <v>125001615</v>
       </c>
       <c r="F7" t="n">
-        <v>10425.41984129446</v>
+        <v>15093.55560529462</v>
       </c>
       <c r="G7" t="n">
-        <v>47245.09000472893</v>
+        <v>48551.73019954711</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>12582328</v>
+        <v>12363024</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>72171917</v>
+        <v>72321520</v>
       </c>
       <c r="E8" t="n">
-        <v>150515098</v>
+        <v>150827095</v>
       </c>
       <c r="F8" t="n">
-        <v>42351.89684501351</v>
+        <v>40223.19095892734</v>
       </c>
       <c r="G8" t="n">
-        <v>47856.09321880975</v>
+        <v>56645.37833207667</v>
       </c>
       <c r="H8" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>13834530</v>
+        <v>14117744</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>144422735</v>
+        <v>144454443</v>
       </c>
       <c r="E9" t="n">
-        <v>144461719</v>
+        <v>144494648</v>
       </c>
       <c r="F9" t="n">
-        <v>7476.012703310194</v>
+        <v>8608.08059056946</v>
       </c>
       <c r="G9" t="n">
-        <v>18143.47844395896</v>
+        <v>16462.08199294709</v>
       </c>
       <c r="H9" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I9" t="n">
-        <v>3178108</v>
+        <v>3125668</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>627205622</v>
+        <v>622838797</v>
       </c>
       <c r="E10" t="n">
-        <v>627205622</v>
+        <v>622838797</v>
       </c>
       <c r="F10" t="n">
-        <v>398246.2811442438</v>
+        <v>404560.6875341309</v>
       </c>
       <c r="G10" t="n">
-        <v>523073.7944789767</v>
+        <v>570120.6214401752</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>229268573</v>
+        <v>244393124</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71844448</v>
+        <v>72837892</v>
       </c>
       <c r="E11" t="n">
-        <v>82432353</v>
+        <v>83572203</v>
       </c>
       <c r="F11" t="n">
-        <v>6404.172890506934</v>
+        <v>3676.192996732994</v>
       </c>
       <c r="G11" t="n">
-        <v>1797.94285414253</v>
+        <v>4546.532955853682</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.26</v>
       </c>
       <c r="I11" t="n">
-        <v>1144045</v>
+        <v>1188723</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>273035714</v>
+        <v>269121544</v>
       </c>
       <c r="E12" t="n">
-        <v>1178573715</v>
+        <v>1161677985</v>
       </c>
       <c r="F12" t="n">
-        <v>382479.9505660497</v>
+        <v>345071.0141707007</v>
       </c>
       <c r="G12" t="n">
-        <v>386648.417727788</v>
+        <v>364258.4093989098</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>110028881</v>
+        <v>111185437</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>113457537</v>
+        <v>113381098</v>
       </c>
       <c r="E13" t="n">
-        <v>113457537</v>
+        <v>113381098</v>
       </c>
       <c r="F13" t="n">
-        <v>5755.036595746385</v>
+        <v>5512.189161429299</v>
       </c>
       <c r="G13" t="n">
-        <v>3018.936393199569</v>
+        <v>3832.797699724315</v>
       </c>
       <c r="H13" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>5954614</v>
+        <v>6009755</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21493126</v>
+        <v>21609321</v>
       </c>
       <c r="E14" t="n">
-        <v>53732816</v>
+        <v>54023303</v>
       </c>
       <c r="F14" t="n">
-        <v>14032.79568965018</v>
+        <v>7265.172697025204</v>
       </c>
       <c r="G14" t="n">
-        <v>13138.66474516321</v>
+        <v>12161.88180167122</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="I14" t="n">
-        <v>2062565</v>
+        <v>2062729</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11719266</v>
+        <v>11769458</v>
       </c>
       <c r="E15" t="n">
-        <v>17232960</v>
+        <v>17306766</v>
       </c>
       <c r="F15" t="n">
-        <v>3484.463938652196</v>
+        <v>2027.64424044349</v>
       </c>
       <c r="G15" t="n">
-        <v>11863.01179730666</v>
+        <v>7393.664885469013</v>
       </c>
       <c r="H15" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I15" t="n">
-        <v>1075300</v>
+        <v>908102</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>32502481</v>
+        <v>31592745</v>
       </c>
       <c r="E16" t="n">
-        <v>101202299</v>
+        <v>98369670</v>
       </c>
       <c r="F16" t="n">
-        <v>16307.30894530103</v>
+        <v>11445.93845267093</v>
       </c>
       <c r="G16" t="n">
-        <v>21775.07918745415</v>
+        <v>23036.14136589708</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I16" t="n">
-        <v>12229912</v>
+        <v>12227077</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>334942843</v>
+        <v>335810645</v>
       </c>
       <c r="E17" t="n">
-        <v>3013353507</v>
+        <v>3021160791</v>
       </c>
       <c r="F17" t="n">
-        <v>1029511.147424982</v>
+        <v>1008891.515403451</v>
       </c>
       <c r="G17" t="n">
-        <v>1092062.614702502</v>
+        <v>1085003.337872291</v>
       </c>
       <c r="H17" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>37460623</v>
+        <v>37624188</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15276602</v>
+        <v>15202339</v>
       </c>
       <c r="E18" t="n">
-        <v>93635318</v>
+        <v>93180137</v>
       </c>
       <c r="F18" t="n">
-        <v>31413.61676966561</v>
+        <v>38510.92424908124</v>
       </c>
       <c r="G18" t="n">
-        <v>40304.23590131131</v>
+        <v>35160.07691262649</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>11649108</v>
+        <v>11311993</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46282645</v>
+        <v>46352652</v>
       </c>
       <c r="E19" t="n">
-        <v>199380576</v>
+        <v>199682158</v>
       </c>
       <c r="F19" t="n">
-        <v>52125.06105359368</v>
+        <v>46601.50225533129</v>
       </c>
       <c r="G19" t="n">
-        <v>58174.30889493065</v>
+        <v>69757.85825020158</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I19" t="n">
-        <v>8541652</v>
+        <v>8579808</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>300003147</v>
+        <v>300429577</v>
       </c>
       <c r="E20" t="n">
-        <v>300003147</v>
+        <v>300429577</v>
       </c>
       <c r="F20" t="n">
-        <v>90780.23520431471</v>
+        <v>65347.60803314185</v>
       </c>
       <c r="G20" t="n">
-        <v>123770.3827537478</v>
+        <v>120053.4334417769</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>52868679</v>
+        <v>52559928</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30270269</v>
+        <v>30321297</v>
       </c>
       <c r="E21" t="n">
-        <v>135532410</v>
+        <v>135760884</v>
       </c>
       <c r="F21" t="n">
-        <v>42656.53111217373</v>
+        <v>50630.03761033406</v>
       </c>
       <c r="G21" t="n">
-        <v>69593.81375832351</v>
+        <v>71525.53821156482</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>10084918</v>
+        <v>9885217</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47585442</v>
+        <v>47505742</v>
       </c>
       <c r="E22" t="n">
-        <v>308578930</v>
+        <v>308062096</v>
       </c>
       <c r="F22" t="n">
-        <v>8512.820932667526</v>
+        <v>8323.760688217859</v>
       </c>
       <c r="G22" t="n">
-        <v>96188.88651385948</v>
+        <v>91427.84896152209</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>16496338</v>
+        <v>17240756</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125052203</v>
+        <v>125133430</v>
       </c>
       <c r="E23" t="n">
-        <v>2070966901</v>
+        <v>2072312095</v>
       </c>
       <c r="F23" t="n">
-        <v>342402.2515192076</v>
+        <v>340674.0953596285</v>
       </c>
       <c r="G23" t="n">
-        <v>342592.8469770564</v>
+        <v>353866.8714834091</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>5466225</v>
+        <v>5170618</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6735417</v>
+        <v>6828123</v>
       </c>
       <c r="E24" t="n">
-        <v>34651675</v>
+        <v>35128616</v>
       </c>
       <c r="F24" t="n">
-        <v>872.3961461110413</v>
+        <v>2319.56037607855</v>
       </c>
       <c r="G24" t="n">
-        <v>3124.26772416163</v>
+        <v>2776.588657970161</v>
       </c>
       <c r="H24" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="I24" t="n">
-        <v>894909</v>
+        <v>915148</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23091782</v>
+        <v>23338607</v>
       </c>
       <c r="E25" t="n">
-        <v>23091782</v>
+        <v>23338607</v>
       </c>
       <c r="F25" t="n">
-        <v>2258.424571339645</v>
+        <v>3778.70562301177</v>
       </c>
       <c r="G25" t="n">
-        <v>12834.4207800664</v>
+        <v>14647.6772974838</v>
       </c>
       <c r="H25" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I25" t="n">
-        <v>1793477</v>
+        <v>1878169</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>314165480</v>
+        <v>314232155</v>
       </c>
       <c r="E27" t="n">
-        <v>581277782</v>
+        <v>581401147</v>
       </c>
       <c r="F27" t="n">
-        <v>121360.8477360594</v>
+        <v>132091.9696713175</v>
       </c>
       <c r="G27" t="n">
-        <v>126958.2189878474</v>
+        <v>139687.795076455</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>12943177</v>
+        <v>12126436</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44608663</v>
+        <v>44643372</v>
       </c>
       <c r="E28" t="n">
-        <v>44608663</v>
+        <v>44643372</v>
       </c>
       <c r="F28" t="n">
-        <v>25960.21251854575</v>
+        <v>21678.20056857069</v>
       </c>
       <c r="G28" t="n">
-        <v>47630.29307118637</v>
+        <v>43311.86466494254</v>
       </c>
       <c r="H28" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>7692497</v>
+        <v>7694214</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>596818814</v>
+        <v>596642092</v>
       </c>
       <c r="E29" t="n">
-        <v>2311391210</v>
+        <v>2310706795</v>
       </c>
       <c r="F29" t="n">
-        <v>57418.48995752588</v>
+        <v>59186.39664754939</v>
       </c>
       <c r="G29" t="n">
-        <v>254574.859017013</v>
+        <v>217926.7059106332</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>28690677</v>
+        <v>30473254</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>111399615</v>
+        <v>107788602</v>
       </c>
       <c r="E30" t="n">
-        <v>427346855</v>
+        <v>413494426</v>
       </c>
       <c r="F30" t="n">
-        <v>171561.4407503022</v>
+        <v>142416.908066558</v>
       </c>
       <c r="G30" t="n">
-        <v>178044.3092665733</v>
+        <v>173973.0155690351</v>
       </c>
       <c r="H30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>18067488</v>
+        <v>18592927</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>31302512</v>
+        <v>30529610</v>
       </c>
       <c r="F31" t="n">
-        <v>16787.30008070796</v>
+        <v>23929.99735030997</v>
       </c>
       <c r="G31" t="n">
-        <v>21120.24876915495</v>
+        <v>19199.20484217919</v>
       </c>
       <c r="H31" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>7354580</v>
+        <v>6326349</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>86939181</v>
+        <v>87498576</v>
       </c>
       <c r="E32" t="n">
-        <v>321397653</v>
+        <v>323462824</v>
       </c>
       <c r="F32" t="n">
-        <v>9396.138282127216</v>
+        <v>9755.796172077888</v>
       </c>
       <c r="G32" t="n">
-        <v>10424.53076074119</v>
+        <v>12446.19519742577</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I32" t="n">
-        <v>435843</v>
+        <v>396304</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>485446550</v>
+        <v>483771555</v>
       </c>
       <c r="E33" t="n">
-        <v>1690656341</v>
+        <v>1684822865</v>
       </c>
       <c r="F33" t="n">
-        <v>231223.4873443064</v>
+        <v>228583.8710554755</v>
       </c>
       <c r="G33" t="n">
-        <v>277880.7765064985</v>
+        <v>267391.7546168984</v>
       </c>
       <c r="H33" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>30421688</v>
+        <v>30903699</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>102784418</v>
+        <v>102600705</v>
       </c>
       <c r="E34" t="n">
-        <v>155730269</v>
+        <v>155451922</v>
       </c>
       <c r="F34" t="n">
-        <v>54185.31416739612</v>
+        <v>39123.74326899347</v>
       </c>
       <c r="G34" t="n">
-        <v>53323.93820689853</v>
+        <v>67410.4458602088</v>
       </c>
       <c r="H34" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I34" t="n">
-        <v>3261613</v>
+        <v>7030636</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2664377</v>
+        <v>2652416</v>
       </c>
       <c r="E35" t="n">
-        <v>10657508</v>
+        <v>10609664</v>
       </c>
       <c r="F35" t="n">
-        <v>84909.32254770062</v>
+        <v>54578.21148563282</v>
       </c>
       <c r="G35" t="n">
-        <v>87967.1105759503</v>
+        <v>63274.37138164776</v>
       </c>
       <c r="H35" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="I35" t="n">
-        <v>5064214</v>
+        <v>4929103</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>212485057</v>
+        <v>212664519</v>
       </c>
       <c r="E36" t="n">
-        <v>653311588</v>
+        <v>653863366</v>
       </c>
       <c r="F36" t="n">
-        <v>152824.5695653928</v>
+        <v>150918.8003378796</v>
       </c>
       <c r="G36" t="n">
-        <v>233682.4315415317</v>
+        <v>232633.6636662893</v>
       </c>
       <c r="H36" t="n">
         <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>10973254</v>
+        <v>10192922</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>149624430</v>
+        <v>149385438</v>
       </c>
       <c r="E37" t="n">
-        <v>390889675</v>
+        <v>390265313</v>
       </c>
       <c r="F37" t="n">
-        <v>52804.50022385881</v>
+        <v>53037.63853923956</v>
       </c>
       <c r="G37" t="n">
-        <v>47805.70938249191</v>
+        <v>45021.07089103472</v>
       </c>
       <c r="H37" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I37" t="n">
-        <v>7468797</v>
+        <v>7096015</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>401689300</v>
+        <v>403476083</v>
       </c>
       <c r="E38" t="n">
-        <v>2295367431</v>
+        <v>2305577619</v>
       </c>
       <c r="F38" t="n">
-        <v>37275.05126333884</v>
+        <v>40905.72218062217</v>
       </c>
       <c r="G38" t="n">
-        <v>89347.34919269285</v>
+        <v>93627.78570068064</v>
       </c>
       <c r="H38" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>38989363</v>
+        <v>37967099</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250220.xlsx
+++ b/OkxData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>244766215</v>
+        <v>245833117</v>
       </c>
       <c r="E2" t="n">
-        <v>1534894531</v>
+        <v>1541584925</v>
       </c>
       <c r="F2" t="n">
-        <v>176358.4917616446</v>
+        <v>178925.3379766485</v>
       </c>
       <c r="G2" t="n">
-        <v>197381.5617861134</v>
+        <v>195969.2362275329</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>15624851</v>
+        <v>15673537</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>141076399</v>
+        <v>141231693</v>
       </c>
       <c r="E3" t="n">
-        <v>156335183</v>
+        <v>156507274</v>
       </c>
       <c r="F3" t="n">
-        <v>63784.49847875652</v>
+        <v>67608.12244281475</v>
       </c>
       <c r="G3" t="n">
-        <v>174931.2532095774</v>
+        <v>177875.21433573</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>31833663</v>
+        <v>31839344</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>547316631</v>
+        <v>549413772</v>
       </c>
       <c r="E4" t="n">
-        <v>684611760</v>
+        <v>687234971</v>
       </c>
       <c r="F4" t="n">
-        <v>119689.9190832246</v>
+        <v>112562.4531303488</v>
       </c>
       <c r="G4" t="n">
-        <v>131533.4132937152</v>
+        <v>146159.7218074761</v>
       </c>
       <c r="H4" t="n">
         <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>61071332</v>
+        <v>58308492</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>134958656</v>
+        <v>135274235</v>
       </c>
       <c r="E5" t="n">
-        <v>134958656</v>
+        <v>135274235</v>
       </c>
       <c r="F5" t="n">
-        <v>86207.84515716648</v>
+        <v>75767.4589702362</v>
       </c>
       <c r="G5" t="n">
-        <v>111683.0438239359</v>
+        <v>107574.0515000357</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>66639666</v>
+        <v>67115495</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>253058906</v>
+        <v>254187643</v>
       </c>
       <c r="E6" t="n">
-        <v>253058906</v>
+        <v>254187643</v>
       </c>
       <c r="F6" t="n">
-        <v>53696.6635244512</v>
+        <v>64054.22310608615</v>
       </c>
       <c r="G6" t="n">
-        <v>113713.4433641695</v>
+        <v>108395.4638070003</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>14365570</v>
+        <v>14326417</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>100251296</v>
+        <v>100655048</v>
       </c>
       <c r="E7" t="n">
-        <v>125001615</v>
+        <v>125505046</v>
       </c>
       <c r="F7" t="n">
-        <v>15093.55560529462</v>
+        <v>16591.26232890516</v>
       </c>
       <c r="G7" t="n">
-        <v>48551.73019954711</v>
+        <v>46931.33894416835</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>12363024</v>
+        <v>12378228</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>72321520</v>
+        <v>72632668</v>
       </c>
       <c r="E8" t="n">
-        <v>150827095</v>
+        <v>151475998</v>
       </c>
       <c r="F8" t="n">
-        <v>40223.19095892734</v>
+        <v>43562.35390138744</v>
       </c>
       <c r="G8" t="n">
-        <v>56645.37833207667</v>
+        <v>44647.57652629801</v>
       </c>
       <c r="H8" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>14117744</v>
+        <v>13971846</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>144454443</v>
+        <v>144568683</v>
       </c>
       <c r="E9" t="n">
-        <v>144494648</v>
+        <v>144609567</v>
       </c>
       <c r="F9" t="n">
-        <v>8608.08059056946</v>
+        <v>6842.413235454907</v>
       </c>
       <c r="G9" t="n">
-        <v>16462.08199294709</v>
+        <v>15038.64271828643</v>
       </c>
       <c r="H9" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I9" t="n">
-        <v>3125668</v>
+        <v>3126586</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>622838797</v>
+        <v>625840920</v>
       </c>
       <c r="E10" t="n">
-        <v>622838797</v>
+        <v>625840920</v>
       </c>
       <c r="F10" t="n">
-        <v>404560.6875341309</v>
+        <v>404233.2365005478</v>
       </c>
       <c r="G10" t="n">
-        <v>570120.6214401752</v>
+        <v>595426.2107813804</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>244393124</v>
+        <v>234876611</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72837892</v>
+        <v>73168988</v>
       </c>
       <c r="E11" t="n">
-        <v>83572203</v>
+        <v>83952094</v>
       </c>
       <c r="F11" t="n">
-        <v>3676.192996732994</v>
+        <v>10411.03640582915</v>
       </c>
       <c r="G11" t="n">
-        <v>4546.532955853682</v>
+        <v>5240.163910565571</v>
       </c>
       <c r="H11" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="I11" t="n">
-        <v>1188723</v>
+        <v>1078857</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>269121544</v>
+        <v>270689128</v>
       </c>
       <c r="E12" t="n">
-        <v>1161677985</v>
+        <v>1168444545</v>
       </c>
       <c r="F12" t="n">
-        <v>345071.0141707007</v>
+        <v>352160.1071507363</v>
       </c>
       <c r="G12" t="n">
-        <v>364258.4093989098</v>
+        <v>375465.5147622185</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>111185437</v>
+        <v>111764464</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>113381098</v>
+        <v>113576396</v>
       </c>
       <c r="E13" t="n">
-        <v>113381098</v>
+        <v>113576396</v>
       </c>
       <c r="F13" t="n">
-        <v>5512.189161429299</v>
+        <v>5783.816376637142</v>
       </c>
       <c r="G13" t="n">
-        <v>3832.797699724315</v>
+        <v>2876.867293346073</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="I13" t="n">
-        <v>6009755</v>
+        <v>6018000</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21609321</v>
+        <v>21629378</v>
       </c>
       <c r="E14" t="n">
-        <v>54023303</v>
+        <v>54073444</v>
       </c>
       <c r="F14" t="n">
-        <v>7265.172697025204</v>
+        <v>8129.780674625777</v>
       </c>
       <c r="G14" t="n">
-        <v>12161.88180167122</v>
+        <v>11731.40248597652</v>
       </c>
       <c r="H14" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I14" t="n">
-        <v>2062729</v>
+        <v>2201188</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11769458</v>
+        <v>11711648</v>
       </c>
       <c r="E15" t="n">
-        <v>17306766</v>
+        <v>17221757</v>
       </c>
       <c r="F15" t="n">
-        <v>2027.64424044349</v>
+        <v>1821.392351593491</v>
       </c>
       <c r="G15" t="n">
-        <v>7393.664885469013</v>
+        <v>4786.690307087016</v>
       </c>
       <c r="H15" t="n">
         <v>0.17</v>
       </c>
       <c r="I15" t="n">
-        <v>908102</v>
+        <v>936375</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31592745</v>
+        <v>31872493</v>
       </c>
       <c r="E16" t="n">
-        <v>98369670</v>
+        <v>99240718</v>
       </c>
       <c r="F16" t="n">
-        <v>11445.93845267093</v>
+        <v>11608.3601190075</v>
       </c>
       <c r="G16" t="n">
-        <v>23036.14136589708</v>
+        <v>22253.57636678141</v>
       </c>
       <c r="H16" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I16" t="n">
-        <v>12227077</v>
+        <v>10695679</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>335810645</v>
+        <v>337316918</v>
       </c>
       <c r="E17" t="n">
-        <v>3021160791</v>
+        <v>3034712158</v>
       </c>
       <c r="F17" t="n">
-        <v>1008891.515403451</v>
+        <v>999512.1304095899</v>
       </c>
       <c r="G17" t="n">
-        <v>1085003.337872291</v>
+        <v>1094342.437565319</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>37624188</v>
+        <v>38105714</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15202339</v>
+        <v>15302336</v>
       </c>
       <c r="E18" t="n">
-        <v>93180137</v>
+        <v>93793049</v>
       </c>
       <c r="F18" t="n">
-        <v>38510.92424908124</v>
+        <v>26974.40419053114</v>
       </c>
       <c r="G18" t="n">
-        <v>35160.07691262649</v>
+        <v>33508.75411034752</v>
       </c>
       <c r="H18" t="n">
         <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>11311993</v>
+        <v>11639617</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46352652</v>
+        <v>46169358</v>
       </c>
       <c r="E19" t="n">
-        <v>199682158</v>
+        <v>198892547</v>
       </c>
       <c r="F19" t="n">
-        <v>46601.50225533129</v>
+        <v>48830.07976389536</v>
       </c>
       <c r="G19" t="n">
-        <v>69757.85825020158</v>
+        <v>67069.10151112116</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>8579808</v>
+        <v>8292630</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>300429577</v>
+        <v>300642893</v>
       </c>
       <c r="E20" t="n">
-        <v>300429577</v>
+        <v>300642893</v>
       </c>
       <c r="F20" t="n">
-        <v>65347.60803314185</v>
+        <v>66002.58515009955</v>
       </c>
       <c r="G20" t="n">
-        <v>120053.4334417769</v>
+        <v>124953.981975868</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>52559928</v>
+        <v>51870028</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30321297</v>
+        <v>30357644</v>
       </c>
       <c r="E21" t="n">
-        <v>135760884</v>
+        <v>135923628</v>
       </c>
       <c r="F21" t="n">
-        <v>50630.03761033406</v>
+        <v>48127.39726935371</v>
       </c>
       <c r="G21" t="n">
-        <v>71525.53821156482</v>
+        <v>70664.88649442629</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>9885217</v>
+        <v>9426973</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47505742</v>
+        <v>47662382</v>
       </c>
       <c r="E22" t="n">
-        <v>308062096</v>
+        <v>309077860</v>
       </c>
       <c r="F22" t="n">
-        <v>8323.760688217859</v>
+        <v>11487.87985023949</v>
       </c>
       <c r="G22" t="n">
-        <v>91427.84896152209</v>
+        <v>97406.32711302827</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I22" t="n">
-        <v>17240756</v>
+        <v>16849906</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125133430</v>
+        <v>125444964</v>
       </c>
       <c r="E23" t="n">
-        <v>2072312095</v>
+        <v>2077471354</v>
       </c>
       <c r="F23" t="n">
-        <v>340674.0953596285</v>
+        <v>339393.3566538099</v>
       </c>
       <c r="G23" t="n">
-        <v>353866.8714834091</v>
+        <v>347583.8388881139</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>5170618</v>
+        <v>5100346</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6828123</v>
+        <v>6924259</v>
       </c>
       <c r="E24" t="n">
-        <v>35128616</v>
+        <v>35623208</v>
       </c>
       <c r="F24" t="n">
-        <v>2319.56037607855</v>
+        <v>2610.520782799491</v>
       </c>
       <c r="G24" t="n">
-        <v>2776.588657970161</v>
+        <v>1817.009014765209</v>
       </c>
       <c r="H24" t="n">
-        <v>0.14</v>
+        <v>0.36</v>
       </c>
       <c r="I24" t="n">
-        <v>915148</v>
+        <v>913323</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23338607</v>
+        <v>23388321</v>
       </c>
       <c r="E25" t="n">
-        <v>23338607</v>
+        <v>23388646</v>
       </c>
       <c r="F25" t="n">
-        <v>3778.70562301177</v>
+        <v>6554.535291692336</v>
       </c>
       <c r="G25" t="n">
-        <v>14647.6772974838</v>
+        <v>21427.88817647512</v>
       </c>
       <c r="H25" t="n">
         <v>0.14</v>
       </c>
       <c r="I25" t="n">
-        <v>1878169</v>
+        <v>1851499</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>314232155</v>
+        <v>313218423</v>
       </c>
       <c r="E27" t="n">
-        <v>581401147</v>
+        <v>579525511</v>
       </c>
       <c r="F27" t="n">
-        <v>132091.9696713175</v>
+        <v>122050.158597418</v>
       </c>
       <c r="G27" t="n">
-        <v>139687.795076455</v>
+        <v>127232.7648402304</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I27" t="n">
-        <v>12126436</v>
+        <v>12186849</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44643372</v>
+        <v>44789011</v>
       </c>
       <c r="E28" t="n">
-        <v>44643372</v>
+        <v>44789011</v>
       </c>
       <c r="F28" t="n">
-        <v>21678.20056857069</v>
+        <v>25146.37760286552</v>
       </c>
       <c r="G28" t="n">
-        <v>43311.86466494254</v>
+        <v>48184.44338978552</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>7694214</v>
+        <v>7880820</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>596642092</v>
+        <v>598683648</v>
       </c>
       <c r="E29" t="n">
-        <v>2310706795</v>
+        <v>2318613438</v>
       </c>
       <c r="F29" t="n">
-        <v>59186.39664754939</v>
+        <v>68988.45970104147</v>
       </c>
       <c r="G29" t="n">
-        <v>217926.7059106332</v>
+        <v>238021.3430094442</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>30473254</v>
+        <v>30593969</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>107788602</v>
+        <v>108358185</v>
       </c>
       <c r="E30" t="n">
-        <v>413494426</v>
+        <v>415679437</v>
       </c>
       <c r="F30" t="n">
-        <v>142416.908066558</v>
+        <v>142540.1893823064</v>
       </c>
       <c r="G30" t="n">
-        <v>173973.0155690351</v>
+        <v>181479.3544268213</v>
       </c>
       <c r="H30" t="n">
         <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>18592927</v>
+        <v>18914132</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>30529610</v>
+        <v>31212178</v>
       </c>
       <c r="F31" t="n">
-        <v>23929.99735030997</v>
+        <v>13140.14136806466</v>
       </c>
       <c r="G31" t="n">
-        <v>19199.20484217919</v>
+        <v>20411.56751384126</v>
       </c>
       <c r="H31" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>6326349</v>
+        <v>6109349</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>87498576</v>
+        <v>87362233</v>
       </c>
       <c r="E32" t="n">
-        <v>323462824</v>
+        <v>322958449</v>
       </c>
       <c r="F32" t="n">
-        <v>9755.796172077888</v>
+        <v>10004.98367724286</v>
       </c>
       <c r="G32" t="n">
-        <v>12446.19519742577</v>
+        <v>3969.104142849208</v>
       </c>
       <c r="H32" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I32" t="n">
-        <v>396304</v>
+        <v>367928</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>483771555</v>
+        <v>487923003</v>
       </c>
       <c r="E33" t="n">
-        <v>1684822865</v>
+        <v>1699281039</v>
       </c>
       <c r="F33" t="n">
-        <v>228583.8710554755</v>
+        <v>222428.3480035822</v>
       </c>
       <c r="G33" t="n">
-        <v>267391.7546168984</v>
+        <v>268185.2215992303</v>
       </c>
       <c r="H33" t="n">
         <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>30903699</v>
+        <v>31012554</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>102600705</v>
+        <v>103185346</v>
       </c>
       <c r="E34" t="n">
-        <v>155451922</v>
+        <v>156337721</v>
       </c>
       <c r="F34" t="n">
-        <v>39123.74326899347</v>
+        <v>47829.72248685476</v>
       </c>
       <c r="G34" t="n">
-        <v>67410.4458602088</v>
+        <v>65371.35978184995</v>
       </c>
       <c r="H34" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I34" t="n">
-        <v>7030636</v>
+        <v>6987862</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2652416</v>
+        <v>2655841</v>
       </c>
       <c r="E35" t="n">
-        <v>10609664</v>
+        <v>10623365</v>
       </c>
       <c r="F35" t="n">
-        <v>54578.21148563282</v>
+        <v>86706.34823719971</v>
       </c>
       <c r="G35" t="n">
-        <v>63274.37138164776</v>
+        <v>35477.89500399781</v>
       </c>
       <c r="H35" t="n">
         <v>0.19</v>
       </c>
       <c r="I35" t="n">
-        <v>4929103</v>
+        <v>4951304</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>212664519</v>
+        <v>213027434</v>
       </c>
       <c r="E36" t="n">
-        <v>653863366</v>
+        <v>654979193</v>
       </c>
       <c r="F36" t="n">
-        <v>150918.8003378796</v>
+        <v>150297.2422949362</v>
       </c>
       <c r="G36" t="n">
-        <v>232633.6636662893</v>
+        <v>233326.7764857926</v>
       </c>
       <c r="H36" t="n">
         <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>10192922</v>
+        <v>11105179</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>149385438</v>
+        <v>151153086</v>
       </c>
       <c r="E37" t="n">
-        <v>390265313</v>
+        <v>394883246</v>
       </c>
       <c r="F37" t="n">
-        <v>53037.63853923956</v>
+        <v>57164.75142768397</v>
       </c>
       <c r="G37" t="n">
-        <v>45021.07089103472</v>
+        <v>51338.58946928861</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="I37" t="n">
-        <v>7096015</v>
+        <v>7016890</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>403476083</v>
+        <v>405223467</v>
       </c>
       <c r="E38" t="n">
-        <v>2305577619</v>
+        <v>2315562668</v>
       </c>
       <c r="F38" t="n">
-        <v>40905.72218062217</v>
+        <v>36744.60142852903</v>
       </c>
       <c r="G38" t="n">
-        <v>93627.78570068064</v>
+        <v>95014.18393707683</v>
       </c>
       <c r="H38" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I38" t="n">
-        <v>37967099</v>
+        <v>36710387</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250220.xlsx
+++ b/OkxData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>245833117</v>
+        <v>242679822</v>
       </c>
       <c r="E2" t="n">
-        <v>1541584925</v>
+        <v>1521811054</v>
       </c>
       <c r="F2" t="n">
-        <v>178925.3379766485</v>
+        <v>176768.8881757572</v>
       </c>
       <c r="G2" t="n">
-        <v>195969.2362275329</v>
+        <v>204891.6583576059</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>15673537</v>
+        <v>15491763</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>141231693</v>
+        <v>138501612</v>
       </c>
       <c r="E3" t="n">
-        <v>156507274</v>
+        <v>153481908</v>
       </c>
       <c r="F3" t="n">
-        <v>67608.12244281475</v>
+        <v>71020.41515971361</v>
       </c>
       <c r="G3" t="n">
-        <v>177875.21433573</v>
+        <v>158431.9439834733</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>31839344</v>
+        <v>31884711</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>549413772</v>
+        <v>540323532</v>
       </c>
       <c r="E4" t="n">
-        <v>687234971</v>
+        <v>675864432</v>
       </c>
       <c r="F4" t="n">
-        <v>112562.4531303488</v>
+        <v>121752.5205913776</v>
       </c>
       <c r="G4" t="n">
-        <v>146159.7218074761</v>
+        <v>135454.4570791841</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>58308492</v>
+        <v>54560107</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>135274235</v>
+        <v>132773144</v>
       </c>
       <c r="E5" t="n">
-        <v>135274235</v>
+        <v>132773144</v>
       </c>
       <c r="F5" t="n">
-        <v>75767.4589702362</v>
+        <v>75025.05313080947</v>
       </c>
       <c r="G5" t="n">
-        <v>107574.0515000357</v>
+        <v>101160.0253447551</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>67115495</v>
+        <v>63072154</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>254187643</v>
+        <v>249129910</v>
       </c>
       <c r="E6" t="n">
-        <v>254187643</v>
+        <v>249129910</v>
       </c>
       <c r="F6" t="n">
-        <v>64054.22310608615</v>
+        <v>69383.53249277317</v>
       </c>
       <c r="G6" t="n">
-        <v>108395.4638070003</v>
+        <v>98119.35659394762</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>14326417</v>
+        <v>14556392</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>100655048</v>
+        <v>99199481</v>
       </c>
       <c r="E7" t="n">
-        <v>125505046</v>
+        <v>123690124</v>
       </c>
       <c r="F7" t="n">
-        <v>16591.26232890516</v>
+        <v>14032.31058235197</v>
       </c>
       <c r="G7" t="n">
-        <v>46931.33894416835</v>
+        <v>34924.52576952886</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>12378228</v>
+        <v>12086310</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>72632668</v>
+        <v>71041395</v>
       </c>
       <c r="E8" t="n">
-        <v>151475998</v>
+        <v>148157386</v>
       </c>
       <c r="F8" t="n">
-        <v>43562.35390138744</v>
+        <v>42457.25069587117</v>
       </c>
       <c r="G8" t="n">
-        <v>44647.57652629801</v>
+        <v>43803.58886249121</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I8" t="n">
-        <v>13971846</v>
+        <v>13521812</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>144568683</v>
+        <v>142237937</v>
       </c>
       <c r="E9" t="n">
-        <v>144609567</v>
+        <v>142278751</v>
       </c>
       <c r="F9" t="n">
-        <v>6842.413235454907</v>
+        <v>9861.788178613926</v>
       </c>
       <c r="G9" t="n">
-        <v>15038.64271828643</v>
+        <v>12485.84802617597</v>
       </c>
       <c r="H9" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I9" t="n">
-        <v>3126586</v>
+        <v>2911254</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>625840920</v>
+        <v>606697468</v>
       </c>
       <c r="E10" t="n">
-        <v>625840920</v>
+        <v>606697468</v>
       </c>
       <c r="F10" t="n">
-        <v>404233.2365005478</v>
+        <v>466865.3544459029</v>
       </c>
       <c r="G10" t="n">
-        <v>595426.2107813804</v>
+        <v>503064.4120562488</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I10" t="n">
-        <v>234876611</v>
+        <v>249959821</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73168988</v>
+        <v>73210616</v>
       </c>
       <c r="E11" t="n">
-        <v>83952094</v>
+        <v>83999857</v>
       </c>
       <c r="F11" t="n">
-        <v>10411.03640582915</v>
+        <v>2091.210961265946</v>
       </c>
       <c r="G11" t="n">
-        <v>5240.163910565571</v>
+        <v>3124.087984112857</v>
       </c>
       <c r="H11" t="n">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>1078857</v>
+        <v>1193574</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>270689128</v>
+        <v>265620078</v>
       </c>
       <c r="E12" t="n">
-        <v>1168444545</v>
+        <v>1146563715</v>
       </c>
       <c r="F12" t="n">
-        <v>352160.1071507363</v>
+        <v>370562.653553243</v>
       </c>
       <c r="G12" t="n">
-        <v>375465.5147622185</v>
+        <v>386864.8933300078</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>111764464</v>
+        <v>110971739</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>113576396</v>
+        <v>112523023</v>
       </c>
       <c r="E13" t="n">
-        <v>113576396</v>
+        <v>112523023</v>
       </c>
       <c r="F13" t="n">
-        <v>5783.816376637142</v>
+        <v>5858.178346024324</v>
       </c>
       <c r="G13" t="n">
-        <v>2876.867293346073</v>
+        <v>4573.001170762966</v>
       </c>
       <c r="H13" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="I13" t="n">
-        <v>6018000</v>
+        <v>5871097</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21629378</v>
+        <v>21238948</v>
       </c>
       <c r="E14" t="n">
-        <v>54073444</v>
+        <v>53097370</v>
       </c>
       <c r="F14" t="n">
-        <v>8129.780674625777</v>
+        <v>8608.389817133175</v>
       </c>
       <c r="G14" t="n">
-        <v>11731.40248597652</v>
+        <v>7665.247690390145</v>
       </c>
       <c r="H14" t="n">
         <v>0.12</v>
       </c>
       <c r="I14" t="n">
-        <v>2201188</v>
+        <v>2158788</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11711648</v>
+        <v>11763568</v>
       </c>
       <c r="E15" t="n">
-        <v>17221757</v>
+        <v>17298105</v>
       </c>
       <c r="F15" t="n">
-        <v>1821.392351593491</v>
+        <v>1101.534675865557</v>
       </c>
       <c r="G15" t="n">
-        <v>4786.690307087016</v>
+        <v>6261.988691391361</v>
       </c>
       <c r="H15" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="I15" t="n">
-        <v>936375</v>
+        <v>1021296</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31872493</v>
+        <v>31565521</v>
       </c>
       <c r="E16" t="n">
-        <v>99240718</v>
+        <v>98284905</v>
       </c>
       <c r="F16" t="n">
-        <v>11608.3601190075</v>
+        <v>16631.40840675788</v>
       </c>
       <c r="G16" t="n">
-        <v>22253.57636678141</v>
+        <v>22261.70257127893</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I16" t="n">
-        <v>10695679</v>
+        <v>12100559</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>337316918</v>
+        <v>329969349</v>
       </c>
       <c r="E17" t="n">
-        <v>3034712158</v>
+        <v>2968608868</v>
       </c>
       <c r="F17" t="n">
-        <v>999512.1304095899</v>
+        <v>991356.30420901</v>
       </c>
       <c r="G17" t="n">
-        <v>1094342.437565319</v>
+        <v>1105132.327035871</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>38105714</v>
+        <v>37137582</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15302336</v>
+        <v>15050408</v>
       </c>
       <c r="E18" t="n">
-        <v>93793049</v>
+        <v>92248901</v>
       </c>
       <c r="F18" t="n">
-        <v>26974.40419053114</v>
+        <v>32361.58587309242</v>
       </c>
       <c r="G18" t="n">
-        <v>33508.75411034752</v>
+        <v>32912.44228468144</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>11639617</v>
+        <v>11789627</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46169358</v>
+        <v>45701428</v>
       </c>
       <c r="E19" t="n">
-        <v>198892547</v>
+        <v>196876756</v>
       </c>
       <c r="F19" t="n">
-        <v>48830.07976389536</v>
+        <v>53462.50486123768</v>
       </c>
       <c r="G19" t="n">
-        <v>67069.10151112116</v>
+        <v>63491.30493439468</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I19" t="n">
-        <v>8292630</v>
+        <v>8327690</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>300642893</v>
+        <v>296864630</v>
       </c>
       <c r="E20" t="n">
-        <v>300642893</v>
+        <v>296864630</v>
       </c>
       <c r="F20" t="n">
-        <v>66002.58515009955</v>
+        <v>64539.92861547214</v>
       </c>
       <c r="G20" t="n">
-        <v>124953.981975868</v>
+        <v>120562.5758565714</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>51870028</v>
+        <v>50513322</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30357644</v>
+        <v>29826013</v>
       </c>
       <c r="E21" t="n">
-        <v>135923628</v>
+        <v>133543297</v>
       </c>
       <c r="F21" t="n">
-        <v>48127.39726935371</v>
+        <v>55741.11299393981</v>
       </c>
       <c r="G21" t="n">
-        <v>70664.88649442629</v>
+        <v>72726.26539979369</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>9426973</v>
+        <v>8983929</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47662382</v>
+        <v>46527702</v>
       </c>
       <c r="E22" t="n">
-        <v>309077860</v>
+        <v>301719764</v>
       </c>
       <c r="F22" t="n">
-        <v>11487.87985023949</v>
+        <v>6899.434539263551</v>
       </c>
       <c r="G22" t="n">
-        <v>97406.32711302827</v>
+        <v>10379.32621509625</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>16849906</v>
+        <v>17316326</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125444964</v>
+        <v>125203673</v>
       </c>
       <c r="E23" t="n">
-        <v>2077471354</v>
+        <v>2073475374</v>
       </c>
       <c r="F23" t="n">
-        <v>339393.3566538099</v>
+        <v>334427.9319551797</v>
       </c>
       <c r="G23" t="n">
-        <v>347583.8388881139</v>
+        <v>335344.412018473</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>5100346</v>
+        <v>5059072</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6924259</v>
+        <v>6921776</v>
       </c>
       <c r="E24" t="n">
-        <v>35623208</v>
+        <v>35610436</v>
       </c>
       <c r="F24" t="n">
-        <v>2610.520782799491</v>
+        <v>2767.194566204789</v>
       </c>
       <c r="G24" t="n">
-        <v>1817.009014765209</v>
+        <v>1576.348110635223</v>
       </c>
       <c r="H24" t="n">
-        <v>0.36</v>
+        <v>0.22</v>
       </c>
       <c r="I24" t="n">
-        <v>913323</v>
+        <v>911844</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23388321</v>
+        <v>23281756</v>
       </c>
       <c r="E25" t="n">
-        <v>23388646</v>
+        <v>23281756</v>
       </c>
       <c r="F25" t="n">
-        <v>6554.535291692336</v>
+        <v>4238.798849416946</v>
       </c>
       <c r="G25" t="n">
-        <v>21427.88817647512</v>
+        <v>12980.720742717</v>
       </c>
       <c r="H25" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I25" t="n">
-        <v>1851499</v>
+        <v>1817308</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>313218423</v>
+        <v>308623474</v>
       </c>
       <c r="E27" t="n">
-        <v>579525511</v>
+        <v>571023808</v>
       </c>
       <c r="F27" t="n">
-        <v>122050.158597418</v>
+        <v>122387.8820010737</v>
       </c>
       <c r="G27" t="n">
-        <v>127232.7648402304</v>
+        <v>123228.4393006048</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>12186849</v>
+        <v>12353468</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44789011</v>
+        <v>43937467</v>
       </c>
       <c r="E28" t="n">
-        <v>44789011</v>
+        <v>43937467</v>
       </c>
       <c r="F28" t="n">
-        <v>25146.37760286552</v>
+        <v>30880.40828477537</v>
       </c>
       <c r="G28" t="n">
-        <v>48184.44338978552</v>
+        <v>41187.27242459782</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>7880820</v>
+        <v>8854625</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>598683648</v>
+        <v>590292532</v>
       </c>
       <c r="E29" t="n">
-        <v>2318613438</v>
+        <v>2286115886</v>
       </c>
       <c r="F29" t="n">
-        <v>68988.45970104147</v>
+        <v>78484.73181911629</v>
       </c>
       <c r="G29" t="n">
-        <v>238021.3430094442</v>
+        <v>229387.7719792177</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>30593969</v>
+        <v>29745038</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>108358185</v>
+        <v>106778504</v>
       </c>
       <c r="E30" t="n">
-        <v>415679437</v>
+        <v>409619528</v>
       </c>
       <c r="F30" t="n">
-        <v>142540.1893823064</v>
+        <v>142403.1429732904</v>
       </c>
       <c r="G30" t="n">
-        <v>181479.3544268213</v>
+        <v>171315.3199205269</v>
       </c>
       <c r="H30" t="n">
         <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>18914132</v>
+        <v>18618613</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>31212178</v>
+        <v>30950474</v>
       </c>
       <c r="F31" t="n">
-        <v>13140.14136806466</v>
+        <v>14505.65166920736</v>
       </c>
       <c r="G31" t="n">
-        <v>20411.56751384126</v>
+        <v>76460.94907544069</v>
       </c>
       <c r="H31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I31" t="n">
-        <v>6109349</v>
+        <v>6009314</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>87362233</v>
+        <v>87483142</v>
       </c>
       <c r="E32" t="n">
-        <v>322958449</v>
+        <v>323403917</v>
       </c>
       <c r="F32" t="n">
-        <v>10004.98367724286</v>
+        <v>9557.17058955872</v>
       </c>
       <c r="G32" t="n">
-        <v>3969.104142849208</v>
+        <v>12264.1675295527</v>
       </c>
       <c r="H32" t="n">
         <v>0.13</v>
       </c>
       <c r="I32" t="n">
-        <v>367928</v>
+        <v>369772</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>487923003</v>
+        <v>480158609</v>
       </c>
       <c r="E33" t="n">
-        <v>1699281039</v>
+        <v>1672240118</v>
       </c>
       <c r="F33" t="n">
-        <v>222428.3480035822</v>
+        <v>232511.1022365602</v>
       </c>
       <c r="G33" t="n">
-        <v>268185.2215992303</v>
+        <v>273735.7903127062</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>31012554</v>
+        <v>30510948</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>103185346</v>
+        <v>102175883</v>
       </c>
       <c r="E34" t="n">
-        <v>156337721</v>
+        <v>154808269</v>
       </c>
       <c r="F34" t="n">
-        <v>47829.72248685476</v>
+        <v>41843.96366958328</v>
       </c>
       <c r="G34" t="n">
-        <v>65371.35978184995</v>
+        <v>60366.34799340857</v>
       </c>
       <c r="H34" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="I34" t="n">
-        <v>6987862</v>
+        <v>7228469</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2655841</v>
+        <v>2660014</v>
       </c>
       <c r="E35" t="n">
-        <v>10623365</v>
+        <v>10640056</v>
       </c>
       <c r="F35" t="n">
-        <v>86706.34823719971</v>
+        <v>71406.83073699509</v>
       </c>
       <c r="G35" t="n">
-        <v>35477.89500399781</v>
+        <v>63850.18125601315</v>
       </c>
       <c r="H35" t="n">
         <v>0.19</v>
       </c>
       <c r="I35" t="n">
-        <v>4951304</v>
+        <v>4986301</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>213027434</v>
+        <v>210725146</v>
       </c>
       <c r="E36" t="n">
-        <v>654979193</v>
+        <v>647900522</v>
       </c>
       <c r="F36" t="n">
-        <v>150297.2422949362</v>
+        <v>153309.0503347416</v>
       </c>
       <c r="G36" t="n">
-        <v>233326.7764857926</v>
+        <v>226174.0950400292</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I36" t="n">
-        <v>11105179</v>
+        <v>11246831</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>151153086</v>
+        <v>146465115</v>
       </c>
       <c r="E37" t="n">
-        <v>394883246</v>
+        <v>382636051</v>
       </c>
       <c r="F37" t="n">
-        <v>57164.75142768397</v>
+        <v>53359.88669507566</v>
       </c>
       <c r="G37" t="n">
-        <v>51338.58946928861</v>
+        <v>48808.72844926009</v>
       </c>
       <c r="H37" t="n">
-        <v>0.35</v>
+        <v>0.16</v>
       </c>
       <c r="I37" t="n">
-        <v>7016890</v>
+        <v>6924731</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>405223467</v>
+        <v>397147936</v>
       </c>
       <c r="E38" t="n">
-        <v>2315562668</v>
+        <v>2269416775</v>
       </c>
       <c r="F38" t="n">
-        <v>36744.60142852903</v>
+        <v>39577.67013897961</v>
       </c>
       <c r="G38" t="n">
-        <v>95014.18393707683</v>
+        <v>92696.65973270455</v>
       </c>
       <c r="H38" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>36710387</v>
+        <v>36209941</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250220.xlsx
+++ b/OkxData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>242679822</v>
+        <v>243447042</v>
       </c>
       <c r="E2" t="n">
-        <v>1521811054</v>
+        <v>1526622181</v>
       </c>
       <c r="F2" t="n">
-        <v>176768.8881757572</v>
+        <v>186971.1756005191</v>
       </c>
       <c r="G2" t="n">
-        <v>204891.6583576059</v>
+        <v>206834.8835167473</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>15491763</v>
+        <v>15386731</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>138501612</v>
+        <v>139124601</v>
       </c>
       <c r="E3" t="n">
-        <v>153481908</v>
+        <v>154172280</v>
       </c>
       <c r="F3" t="n">
-        <v>71020.41515971361</v>
+        <v>65224.02120024564</v>
       </c>
       <c r="G3" t="n">
-        <v>158431.9439834733</v>
+        <v>165564.8291919758</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>31884711</v>
+        <v>32813468</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>540323532</v>
+        <v>542405278</v>
       </c>
       <c r="E4" t="n">
-        <v>675864432</v>
+        <v>678468387</v>
       </c>
       <c r="F4" t="n">
-        <v>121752.5205913776</v>
+        <v>122162.2418061054</v>
       </c>
       <c r="G4" t="n">
-        <v>135454.4570791841</v>
+        <v>131871.898929086</v>
       </c>
       <c r="H4" t="n">
         <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>54560107</v>
+        <v>54858056</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>132773144</v>
+        <v>133389187</v>
       </c>
       <c r="E5" t="n">
-        <v>132773144</v>
+        <v>133389187</v>
       </c>
       <c r="F5" t="n">
-        <v>75025.05313080947</v>
+        <v>67900.20643360884</v>
       </c>
       <c r="G5" t="n">
-        <v>101160.0253447551</v>
+        <v>106326.1970168236</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>63072154</v>
+        <v>63138538</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>249129910</v>
+        <v>248581980</v>
       </c>
       <c r="E6" t="n">
-        <v>249129910</v>
+        <v>248581980</v>
       </c>
       <c r="F6" t="n">
-        <v>69383.53249277317</v>
+        <v>60739.38083310101</v>
       </c>
       <c r="G6" t="n">
-        <v>98119.35659394762</v>
+        <v>96652.20988609659</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>14556392</v>
+        <v>14677283</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99199481</v>
+        <v>99010224</v>
       </c>
       <c r="E7" t="n">
-        <v>123690124</v>
+        <v>123454143</v>
       </c>
       <c r="F7" t="n">
-        <v>14032.31058235197</v>
+        <v>12350.86272617495</v>
       </c>
       <c r="G7" t="n">
-        <v>34924.52576952886</v>
+        <v>44632.29269998705</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>12086310</v>
+        <v>11786289</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>71041395</v>
+        <v>71314323</v>
       </c>
       <c r="E8" t="n">
-        <v>148157386</v>
+        <v>148726579</v>
       </c>
       <c r="F8" t="n">
-        <v>42457.25069587117</v>
+        <v>39761.40542652435</v>
       </c>
       <c r="G8" t="n">
-        <v>43803.58886249121</v>
+        <v>40198.21019999094</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>13521812</v>
+        <v>13726357</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>142237937</v>
+        <v>142633974</v>
       </c>
       <c r="E9" t="n">
-        <v>142278751</v>
+        <v>142675441</v>
       </c>
       <c r="F9" t="n">
-        <v>9861.788178613926</v>
+        <v>7036.188596803369</v>
       </c>
       <c r="G9" t="n">
-        <v>12485.84802617597</v>
+        <v>15648.08078561005</v>
       </c>
       <c r="H9" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I9" t="n">
-        <v>2911254</v>
+        <v>2637636</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>606697468</v>
+        <v>604247497</v>
       </c>
       <c r="E10" t="n">
-        <v>606697468</v>
+        <v>604247497</v>
       </c>
       <c r="F10" t="n">
-        <v>466865.3544459029</v>
+        <v>377409.5275869497</v>
       </c>
       <c r="G10" t="n">
-        <v>503064.4120562488</v>
+        <v>529742.3990376118</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>249959821</v>
+        <v>255452757</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73210616</v>
+        <v>73099508</v>
       </c>
       <c r="E11" t="n">
-        <v>83999857</v>
+        <v>83872375</v>
       </c>
       <c r="F11" t="n">
-        <v>2091.210961265946</v>
+        <v>2946.403731396701</v>
       </c>
       <c r="G11" t="n">
-        <v>3124.087984112857</v>
+        <v>2727.275170116752</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>1193574</v>
+        <v>1038884</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>265620078</v>
+        <v>264334250</v>
       </c>
       <c r="E12" t="n">
-        <v>1146563715</v>
+        <v>1141013365</v>
       </c>
       <c r="F12" t="n">
-        <v>370562.653553243</v>
+        <v>365463.1353039558</v>
       </c>
       <c r="G12" t="n">
-        <v>386864.8933300078</v>
+        <v>386110.2326684294</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>110971739</v>
+        <v>112090755</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>112523023</v>
+        <v>112723685</v>
       </c>
       <c r="E13" t="n">
-        <v>112523023</v>
+        <v>112723685</v>
       </c>
       <c r="F13" t="n">
-        <v>5858.178346024324</v>
+        <v>5750.234784925648</v>
       </c>
       <c r="G13" t="n">
-        <v>4573.001170762966</v>
+        <v>3654.708634562355</v>
       </c>
       <c r="H13" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I13" t="n">
-        <v>5871097</v>
+        <v>5923897</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21238948</v>
+        <v>21283720</v>
       </c>
       <c r="E14" t="n">
-        <v>53097370</v>
+        <v>53209299</v>
       </c>
       <c r="F14" t="n">
-        <v>8608.389817133175</v>
+        <v>8592.188117425449</v>
       </c>
       <c r="G14" t="n">
-        <v>7665.247690390145</v>
+        <v>9788.292011915448</v>
       </c>
       <c r="H14" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2158788</v>
+        <v>2069276</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11763568</v>
+        <v>11658622</v>
       </c>
       <c r="E15" t="n">
-        <v>17298105</v>
+        <v>17143784</v>
       </c>
       <c r="F15" t="n">
-        <v>1101.534675865557</v>
+        <v>3033.889209523264</v>
       </c>
       <c r="G15" t="n">
-        <v>6261.988691391361</v>
+        <v>7237.437821075319</v>
       </c>
       <c r="H15" t="n">
         <v>0.12</v>
       </c>
       <c r="I15" t="n">
-        <v>1021296</v>
+        <v>996907</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31565521</v>
+        <v>32406774</v>
       </c>
       <c r="E16" t="n">
-        <v>98284905</v>
+        <v>100904295</v>
       </c>
       <c r="F16" t="n">
-        <v>16631.40840675788</v>
+        <v>12225.91461468129</v>
       </c>
       <c r="G16" t="n">
-        <v>22261.70257127893</v>
+        <v>25125.14778657754</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="I16" t="n">
-        <v>12100559</v>
+        <v>11915516</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>329969349</v>
+        <v>332864058</v>
       </c>
       <c r="E17" t="n">
-        <v>2968608868</v>
+        <v>2994651468</v>
       </c>
       <c r="F17" t="n">
-        <v>991356.30420901</v>
+        <v>993680.8842370312</v>
       </c>
       <c r="G17" t="n">
-        <v>1105132.327035871</v>
+        <v>1096858.606402687</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>37137582</v>
+        <v>37069672</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15050408</v>
+        <v>15042885</v>
       </c>
       <c r="E18" t="n">
-        <v>92248901</v>
+        <v>92202790</v>
       </c>
       <c r="F18" t="n">
-        <v>32361.58587309242</v>
+        <v>36759.46658551849</v>
       </c>
       <c r="G18" t="n">
-        <v>32912.44228468144</v>
+        <v>37086.8545891453</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>11789627</v>
+        <v>11808282</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>45701428</v>
+        <v>45889514</v>
       </c>
       <c r="E19" t="n">
-        <v>196876756</v>
+        <v>197687010</v>
       </c>
       <c r="F19" t="n">
-        <v>53462.50486123768</v>
+        <v>47970.89995789285</v>
       </c>
       <c r="G19" t="n">
-        <v>63491.30493439468</v>
+        <v>64030.82487833422</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>8327690</v>
+        <v>8629254</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>296864630</v>
+        <v>295621557</v>
       </c>
       <c r="E20" t="n">
-        <v>296864630</v>
+        <v>295621557</v>
       </c>
       <c r="F20" t="n">
-        <v>64539.92861547214</v>
+        <v>62838.33796784341</v>
       </c>
       <c r="G20" t="n">
-        <v>120562.5758565714</v>
+        <v>128584.5432598173</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>50513322</v>
+        <v>49951814</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29826013</v>
+        <v>29996688</v>
       </c>
       <c r="E21" t="n">
-        <v>133543297</v>
+        <v>134307477</v>
       </c>
       <c r="F21" t="n">
-        <v>55741.11299393981</v>
+        <v>43898.95346228778</v>
       </c>
       <c r="G21" t="n">
-        <v>72726.26539979369</v>
+        <v>67702.69605455475</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>8983929</v>
+        <v>8863520</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>46527702</v>
+        <v>46745228</v>
       </c>
       <c r="E22" t="n">
-        <v>301719764</v>
+        <v>303130360</v>
       </c>
       <c r="F22" t="n">
-        <v>6899.434539263551</v>
+        <v>9079.43337092171</v>
       </c>
       <c r="G22" t="n">
-        <v>10379.32621509625</v>
+        <v>92040.70421829172</v>
       </c>
       <c r="H22" t="n">
         <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>17316326</v>
+        <v>17330294</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125203673</v>
+        <v>125050953</v>
       </c>
       <c r="E23" t="n">
-        <v>2073475374</v>
+        <v>2070946209</v>
       </c>
       <c r="F23" t="n">
-        <v>334427.9319551797</v>
+        <v>350499.1198598762</v>
       </c>
       <c r="G23" t="n">
-        <v>335344.412018473</v>
+        <v>346263.380281782</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>5059072</v>
+        <v>5012145</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6921776</v>
+        <v>6840199</v>
       </c>
       <c r="E24" t="n">
-        <v>35610436</v>
+        <v>35190746</v>
       </c>
       <c r="F24" t="n">
-        <v>2767.194566204789</v>
+        <v>2067.147930111911</v>
       </c>
       <c r="G24" t="n">
-        <v>1576.348110635223</v>
+        <v>1666.915309965314</v>
       </c>
       <c r="H24" t="n">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="I24" t="n">
-        <v>911844</v>
+        <v>577331</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23281756</v>
+        <v>23318109</v>
       </c>
       <c r="E25" t="n">
-        <v>23281756</v>
+        <v>23318109</v>
       </c>
       <c r="F25" t="n">
-        <v>4238.798849416946</v>
+        <v>16604.54712333127</v>
       </c>
       <c r="G25" t="n">
-        <v>12980.720742717</v>
+        <v>11529.00564727397</v>
       </c>
       <c r="H25" t="n">
         <v>0.22</v>
       </c>
       <c r="I25" t="n">
-        <v>1817308</v>
+        <v>1750840</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>308623474</v>
+        <v>309929773</v>
       </c>
       <c r="E27" t="n">
-        <v>571023808</v>
+        <v>573440759</v>
       </c>
       <c r="F27" t="n">
-        <v>122387.8820010737</v>
+        <v>121976.8267628685</v>
       </c>
       <c r="G27" t="n">
-        <v>123228.4393006048</v>
+        <v>136216.5019367125</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>12353468</v>
+        <v>12227589</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43937467</v>
+        <v>44260237</v>
       </c>
       <c r="E28" t="n">
-        <v>43937467</v>
+        <v>44260237</v>
       </c>
       <c r="F28" t="n">
-        <v>30880.40828477537</v>
+        <v>26389.24575210753</v>
       </c>
       <c r="G28" t="n">
-        <v>41187.27242459782</v>
+        <v>41060.83843388144</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>8854625</v>
+        <v>8226797</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>590292532</v>
+        <v>591947252</v>
       </c>
       <c r="E29" t="n">
-        <v>2286115886</v>
+        <v>2292524371</v>
       </c>
       <c r="F29" t="n">
-        <v>78484.73181911629</v>
+        <v>72000.96234190985</v>
       </c>
       <c r="G29" t="n">
-        <v>229387.7719792177</v>
+        <v>216949.5864320993</v>
       </c>
       <c r="H29" t="n">
         <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>29745038</v>
+        <v>29242821</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>106778504</v>
+        <v>109464630</v>
       </c>
       <c r="E30" t="n">
-        <v>409619528</v>
+        <v>419923938</v>
       </c>
       <c r="F30" t="n">
-        <v>142403.1429732904</v>
+        <v>140262.4393112027</v>
       </c>
       <c r="G30" t="n">
-        <v>171315.3199205269</v>
+        <v>178839.895215474</v>
       </c>
       <c r="H30" t="n">
         <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>18618613</v>
+        <v>18900182</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>30950474</v>
+        <v>30928507</v>
       </c>
       <c r="F31" t="n">
-        <v>14505.65166920736</v>
+        <v>13587.52976153402</v>
       </c>
       <c r="G31" t="n">
-        <v>76460.94907544069</v>
+        <v>58679.02658808829</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>6009314</v>
+        <v>5707693</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>87483142</v>
+        <v>86615434</v>
       </c>
       <c r="E32" t="n">
-        <v>323403917</v>
+        <v>320195754</v>
       </c>
       <c r="F32" t="n">
-        <v>9557.17058955872</v>
+        <v>13276.85178658575</v>
       </c>
       <c r="G32" t="n">
-        <v>12264.1675295527</v>
+        <v>4109.058364798299</v>
       </c>
       <c r="H32" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>369772</v>
+        <v>368622</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>480158609</v>
+        <v>482634162</v>
       </c>
       <c r="E33" t="n">
-        <v>1672240118</v>
+        <v>1680861684</v>
       </c>
       <c r="F33" t="n">
-        <v>232511.1022365602</v>
+        <v>232525.5757818573</v>
       </c>
       <c r="G33" t="n">
-        <v>273735.7903127062</v>
+        <v>254461.136557209</v>
       </c>
       <c r="H33" t="n">
         <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>30510948</v>
+        <v>31059775</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>102175883</v>
+        <v>100483441</v>
       </c>
       <c r="E34" t="n">
-        <v>154808269</v>
+        <v>152244024</v>
       </c>
       <c r="F34" t="n">
-        <v>41843.96366958328</v>
+        <v>43052.71278709733</v>
       </c>
       <c r="G34" t="n">
-        <v>60366.34799340857</v>
+        <v>59437.97610072214</v>
       </c>
       <c r="H34" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="I34" t="n">
-        <v>7228469</v>
+        <v>7281190</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2660014</v>
+        <v>2654906</v>
       </c>
       <c r="E35" t="n">
-        <v>10640056</v>
+        <v>10619622</v>
       </c>
       <c r="F35" t="n">
-        <v>71406.83073699509</v>
+        <v>51654.97013836573</v>
       </c>
       <c r="G35" t="n">
-        <v>63850.18125601315</v>
+        <v>76054.65364668418</v>
       </c>
       <c r="H35" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="I35" t="n">
-        <v>4986301</v>
+        <v>5061463</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>210725146</v>
+        <v>211685154</v>
       </c>
       <c r="E36" t="n">
-        <v>647900522</v>
+        <v>650852187</v>
       </c>
       <c r="F36" t="n">
-        <v>153309.0503347416</v>
+        <v>157314.8780735122</v>
       </c>
       <c r="G36" t="n">
-        <v>226174.0950400292</v>
+        <v>225650.4034817853</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>11246831</v>
+        <v>11405939</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>146465115</v>
+        <v>147389760</v>
       </c>
       <c r="E37" t="n">
-        <v>382636051</v>
+        <v>385051661</v>
       </c>
       <c r="F37" t="n">
-        <v>53359.88669507566</v>
+        <v>53622.81405034997</v>
       </c>
       <c r="G37" t="n">
-        <v>48808.72844926009</v>
+        <v>45665.40067357133</v>
       </c>
       <c r="H37" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I37" t="n">
-        <v>6924731</v>
+        <v>6966688</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>397147936</v>
+        <v>397797848</v>
       </c>
       <c r="E38" t="n">
-        <v>2269416775</v>
+        <v>2273130561</v>
       </c>
       <c r="F38" t="n">
-        <v>39577.67013897961</v>
+        <v>34110.30764198351</v>
       </c>
       <c r="G38" t="n">
-        <v>92696.65973270455</v>
+        <v>90730.41275754686</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>36209941</v>
+        <v>36379940</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250220.xlsx
+++ b/OkxData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>243447042</v>
+        <v>245407255</v>
       </c>
       <c r="E2" t="n">
-        <v>1526622181</v>
+        <v>1538914403</v>
       </c>
       <c r="F2" t="n">
-        <v>186971.1756005191</v>
+        <v>185860.4464899176</v>
       </c>
       <c r="G2" t="n">
-        <v>206834.8835167473</v>
+        <v>199419.2723286613</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>15386731</v>
+        <v>15518772</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>139124601</v>
+        <v>138734200</v>
       </c>
       <c r="E3" t="n">
-        <v>154172280</v>
+        <v>153739652</v>
       </c>
       <c r="F3" t="n">
-        <v>65224.02120024564</v>
+        <v>68337.86688182369</v>
       </c>
       <c r="G3" t="n">
-        <v>165564.8291919758</v>
+        <v>161901.8054750545</v>
       </c>
       <c r="H3" t="n">
         <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>32813468</v>
+        <v>33201567</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>542405278</v>
+        <v>545684755</v>
       </c>
       <c r="E4" t="n">
-        <v>678468387</v>
+        <v>682570525</v>
       </c>
       <c r="F4" t="n">
-        <v>122162.2418061054</v>
+        <v>114365.3295626028</v>
       </c>
       <c r="G4" t="n">
-        <v>131871.898929086</v>
+        <v>151029.8885103087</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>54858056</v>
+        <v>54519211</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>133389187</v>
+        <v>134154672</v>
       </c>
       <c r="E5" t="n">
-        <v>133389187</v>
+        <v>134154672</v>
       </c>
       <c r="F5" t="n">
-        <v>67900.20643360884</v>
+        <v>46467.19105669935</v>
       </c>
       <c r="G5" t="n">
-        <v>106326.1970168236</v>
+        <v>118230.5585996407</v>
       </c>
       <c r="H5" t="n">
         <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>63138538</v>
+        <v>65963802</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>248581980</v>
+        <v>250662892</v>
       </c>
       <c r="E6" t="n">
-        <v>248581980</v>
+        <v>250662892</v>
       </c>
       <c r="F6" t="n">
-        <v>60739.38083310101</v>
+        <v>53774.4366501433</v>
       </c>
       <c r="G6" t="n">
-        <v>96652.20988609659</v>
+        <v>113943.5435683907</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>14677283</v>
+        <v>14742214</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99010224</v>
+        <v>99525581</v>
       </c>
       <c r="E7" t="n">
-        <v>123454143</v>
+        <v>124096733</v>
       </c>
       <c r="F7" t="n">
-        <v>12350.86272617495</v>
+        <v>16547.69846026213</v>
       </c>
       <c r="G7" t="n">
-        <v>44632.29269998705</v>
+        <v>41785.39546628765</v>
       </c>
       <c r="H7" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>11786289</v>
+        <v>11500814</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>71314323</v>
+        <v>71747130</v>
       </c>
       <c r="E8" t="n">
-        <v>148726579</v>
+        <v>149629201</v>
       </c>
       <c r="F8" t="n">
-        <v>39761.40542652435</v>
+        <v>37771.99540220401</v>
       </c>
       <c r="G8" t="n">
-        <v>40198.21019999094</v>
+        <v>46995.28521495909</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>13726357</v>
+        <v>13711939</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>142633974</v>
+        <v>143158982</v>
       </c>
       <c r="E9" t="n">
-        <v>142675441</v>
+        <v>143200602</v>
       </c>
       <c r="F9" t="n">
-        <v>7036.188596803369</v>
+        <v>9076.296763806951</v>
       </c>
       <c r="G9" t="n">
-        <v>15648.08078561005</v>
+        <v>16123.29185199162</v>
       </c>
       <c r="H9" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="I9" t="n">
-        <v>2637636</v>
+        <v>2603328</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>604247497</v>
+        <v>613236059</v>
       </c>
       <c r="E10" t="n">
-        <v>604247497</v>
+        <v>613236059</v>
       </c>
       <c r="F10" t="n">
-        <v>377409.5275869497</v>
+        <v>461591.157739653</v>
       </c>
       <c r="G10" t="n">
-        <v>529742.3990376118</v>
+        <v>512443.1035350659</v>
       </c>
       <c r="H10" t="n">
         <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>255452757</v>
+        <v>256815312</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73099508</v>
+        <v>73072353</v>
       </c>
       <c r="E11" t="n">
-        <v>83872375</v>
+        <v>83841217</v>
       </c>
       <c r="F11" t="n">
-        <v>2946.403731396701</v>
+        <v>4933.922949920742</v>
       </c>
       <c r="G11" t="n">
-        <v>2727.275170116752</v>
+        <v>7748.284030175386</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.52</v>
       </c>
       <c r="I11" t="n">
-        <v>1038884</v>
+        <v>1183232</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>264334250</v>
+        <v>266649765</v>
       </c>
       <c r="E12" t="n">
-        <v>1141013365</v>
+        <v>1151008415</v>
       </c>
       <c r="F12" t="n">
-        <v>365463.1353039558</v>
+        <v>372583.8937414462</v>
       </c>
       <c r="G12" t="n">
-        <v>386110.2326684294</v>
+        <v>410449.1493771087</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>112090755</v>
+        <v>110789052</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>112723685</v>
+        <v>113418447</v>
       </c>
       <c r="E13" t="n">
-        <v>112723685</v>
+        <v>113418447</v>
       </c>
       <c r="F13" t="n">
-        <v>5750.234784925648</v>
+        <v>2014.974266916245</v>
       </c>
       <c r="G13" t="n">
-        <v>3654.708634562355</v>
+        <v>3888.362457427771</v>
       </c>
       <c r="H13" t="n">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="I13" t="n">
-        <v>5923897</v>
+        <v>5967503</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21283720</v>
+        <v>21477091</v>
       </c>
       <c r="E14" t="n">
-        <v>53209299</v>
+        <v>53692728</v>
       </c>
       <c r="F14" t="n">
-        <v>8592.188117425449</v>
+        <v>4796.77993750176</v>
       </c>
       <c r="G14" t="n">
-        <v>9788.292011915448</v>
+        <v>14808.26099264702</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I14" t="n">
-        <v>2069276</v>
+        <v>1933114</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11658622</v>
+        <v>11740687</v>
       </c>
       <c r="E15" t="n">
-        <v>17143784</v>
+        <v>17264459</v>
       </c>
       <c r="F15" t="n">
-        <v>3033.889209523264</v>
+        <v>1833.554500659668</v>
       </c>
       <c r="G15" t="n">
-        <v>7237.437821075319</v>
+        <v>3787.518766875558</v>
       </c>
       <c r="H15" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="I15" t="n">
-        <v>996907</v>
+        <v>1032395</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>32406774</v>
+        <v>32383386</v>
       </c>
       <c r="E16" t="n">
-        <v>100904295</v>
+        <v>100831472</v>
       </c>
       <c r="F16" t="n">
-        <v>12225.91461468129</v>
+        <v>9279.341428282767</v>
       </c>
       <c r="G16" t="n">
-        <v>25125.14778657754</v>
+        <v>16636.62625465435</v>
       </c>
       <c r="H16" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="I16" t="n">
-        <v>11915516</v>
+        <v>11780957</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>332864058</v>
+        <v>335199443</v>
       </c>
       <c r="E17" t="n">
-        <v>2994651468</v>
+        <v>3015662035</v>
       </c>
       <c r="F17" t="n">
-        <v>993680.8842370312</v>
+        <v>1004461.880094904</v>
       </c>
       <c r="G17" t="n">
-        <v>1096858.606402687</v>
+        <v>1104144.400688917</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>37069672</v>
+        <v>36510473</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15042885</v>
+        <v>15165747</v>
       </c>
       <c r="E18" t="n">
-        <v>92202790</v>
+        <v>92955849</v>
       </c>
       <c r="F18" t="n">
-        <v>36759.46658551849</v>
+        <v>32837.89759917615</v>
       </c>
       <c r="G18" t="n">
-        <v>37086.8545891453</v>
+        <v>25930.90876612416</v>
       </c>
       <c r="H18" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>11808282</v>
+        <v>11734749</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>45889514</v>
+        <v>46479798</v>
       </c>
       <c r="E19" t="n">
-        <v>197687010</v>
+        <v>200229888</v>
       </c>
       <c r="F19" t="n">
-        <v>47970.89995789285</v>
+        <v>54340.16764197536</v>
       </c>
       <c r="G19" t="n">
-        <v>64030.82487833422</v>
+        <v>64998.04739085227</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I19" t="n">
-        <v>8629254</v>
+        <v>8663210</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>295621557</v>
+        <v>298572815</v>
       </c>
       <c r="E20" t="n">
-        <v>295621557</v>
+        <v>298572815</v>
       </c>
       <c r="F20" t="n">
-        <v>62838.33796784341</v>
+        <v>68062.94121209318</v>
       </c>
       <c r="G20" t="n">
-        <v>128584.5432598173</v>
+        <v>122273.5294874415</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>49951814</v>
+        <v>50122139</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29996688</v>
+        <v>30321121</v>
       </c>
       <c r="E21" t="n">
-        <v>134307477</v>
+        <v>135760097</v>
       </c>
       <c r="F21" t="n">
-        <v>43898.95346228778</v>
+        <v>46098.57027216836</v>
       </c>
       <c r="G21" t="n">
-        <v>67702.69605455475</v>
+        <v>78114.88923292962</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>8863520</v>
+        <v>8802462</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>46745228</v>
+        <v>47148036</v>
       </c>
       <c r="E22" t="n">
-        <v>303130360</v>
+        <v>305742467</v>
       </c>
       <c r="F22" t="n">
-        <v>9079.43337092171</v>
+        <v>10903.10072619961</v>
       </c>
       <c r="G22" t="n">
-        <v>92040.70421829172</v>
+        <v>96211.0095700157</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I22" t="n">
-        <v>17330294</v>
+        <v>17340328</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125050953</v>
+        <v>125214987</v>
       </c>
       <c r="E23" t="n">
-        <v>2070946209</v>
+        <v>2073662736</v>
       </c>
       <c r="F23" t="n">
-        <v>350499.1198598762</v>
+        <v>347991.9645784877</v>
       </c>
       <c r="G23" t="n">
-        <v>346263.380281782</v>
+        <v>350927.1109753144</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>5012145</v>
+        <v>5066256</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6840199</v>
+        <v>6716512</v>
       </c>
       <c r="E24" t="n">
-        <v>35190746</v>
+        <v>34554411</v>
       </c>
       <c r="F24" t="n">
-        <v>2067.147930111911</v>
+        <v>1401.273890681061</v>
       </c>
       <c r="G24" t="n">
-        <v>1666.915309965314</v>
+        <v>838.1792896480581</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>577331</v>
+        <v>776287</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23318109</v>
+        <v>23483924</v>
       </c>
       <c r="E25" t="n">
-        <v>23318109</v>
+        <v>23483924</v>
       </c>
       <c r="F25" t="n">
-        <v>16604.54712333127</v>
+        <v>16918.88658969833</v>
       </c>
       <c r="G25" t="n">
-        <v>11529.00564727397</v>
+        <v>11882.57128858276</v>
       </c>
       <c r="H25" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I25" t="n">
-        <v>1750840</v>
+        <v>1743273</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>309929773</v>
+        <v>311484798</v>
       </c>
       <c r="E27" t="n">
-        <v>573440759</v>
+        <v>576317910</v>
       </c>
       <c r="F27" t="n">
-        <v>121976.8267628685</v>
+        <v>121100.3219427272</v>
       </c>
       <c r="G27" t="n">
-        <v>136216.5019367125</v>
+        <v>136806.5308252578</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>12227589</v>
+        <v>12282376</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44260237</v>
+        <v>44481010</v>
       </c>
       <c r="E28" t="n">
-        <v>44260237</v>
+        <v>44481010</v>
       </c>
       <c r="F28" t="n">
-        <v>26389.24575210753</v>
+        <v>21477.57122134397</v>
       </c>
       <c r="G28" t="n">
-        <v>41060.83843388144</v>
+        <v>44530.98584965199</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>8226797</v>
+        <v>8135454</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>591947252</v>
+        <v>588829695</v>
       </c>
       <c r="E29" t="n">
-        <v>2292524371</v>
+        <v>2280450533</v>
       </c>
       <c r="F29" t="n">
-        <v>72000.96234190985</v>
+        <v>77620.08103851772</v>
       </c>
       <c r="G29" t="n">
-        <v>216949.5864320993</v>
+        <v>226261.0105967115</v>
       </c>
       <c r="H29" t="n">
         <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>29242821</v>
+        <v>30575467</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>109464630</v>
+        <v>110960590</v>
       </c>
       <c r="E30" t="n">
-        <v>419923938</v>
+        <v>425662684</v>
       </c>
       <c r="F30" t="n">
-        <v>140262.4393112027</v>
+        <v>144524.625584036</v>
       </c>
       <c r="G30" t="n">
-        <v>178839.895215474</v>
+        <v>181900.8954937989</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>18900182</v>
+        <v>19331690</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>30928507</v>
+        <v>31530089</v>
       </c>
       <c r="F31" t="n">
-        <v>13587.52976153402</v>
+        <v>12162.20252404979</v>
       </c>
       <c r="G31" t="n">
-        <v>58679.02658808829</v>
+        <v>16259.0700557099</v>
       </c>
       <c r="H31" t="n">
         <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>5707693</v>
+        <v>5663300</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>86615434</v>
+        <v>86766500</v>
       </c>
       <c r="E32" t="n">
-        <v>320195754</v>
+        <v>320753419</v>
       </c>
       <c r="F32" t="n">
-        <v>13276.85178658575</v>
+        <v>13101.27616698557</v>
       </c>
       <c r="G32" t="n">
-        <v>4109.058364798299</v>
+        <v>3831.814433793399</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>368622</v>
+        <v>369644</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>482634162</v>
+        <v>485786748</v>
       </c>
       <c r="E33" t="n">
-        <v>1680861684</v>
+        <v>1691841141</v>
       </c>
       <c r="F33" t="n">
-        <v>232525.5757818573</v>
+        <v>237306.7903603348</v>
       </c>
       <c r="G33" t="n">
-        <v>254461.136557209</v>
+        <v>279547.3685758599</v>
       </c>
       <c r="H33" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>31059775</v>
+        <v>31457393</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>100483441</v>
+        <v>100195169</v>
       </c>
       <c r="E34" t="n">
-        <v>152244024</v>
+        <v>151807258</v>
       </c>
       <c r="F34" t="n">
-        <v>43052.71278709733</v>
+        <v>49825.66644846686</v>
       </c>
       <c r="G34" t="n">
-        <v>59437.97610072214</v>
+        <v>61209.34083884519</v>
       </c>
       <c r="H34" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I34" t="n">
-        <v>7281190</v>
+        <v>7128055</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2654906</v>
+        <v>2658607</v>
       </c>
       <c r="E35" t="n">
-        <v>10619622</v>
+        <v>10634427</v>
       </c>
       <c r="F35" t="n">
-        <v>51654.97013836573</v>
+        <v>74565.54023709174</v>
       </c>
       <c r="G35" t="n">
-        <v>76054.65364668418</v>
+        <v>36321.41355423239</v>
       </c>
       <c r="H35" t="n">
         <v>0.09</v>
       </c>
       <c r="I35" t="n">
-        <v>5061463</v>
+        <v>5047638</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>211685154</v>
+        <v>213297351</v>
       </c>
       <c r="E36" t="n">
-        <v>650852187</v>
+        <v>655809087</v>
       </c>
       <c r="F36" t="n">
-        <v>157314.8780735122</v>
+        <v>143526.2046527885</v>
       </c>
       <c r="G36" t="n">
-        <v>225650.4034817853</v>
+        <v>236978.5912845531</v>
       </c>
       <c r="H36" t="n">
         <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>11405939</v>
+        <v>11459529</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>147389760</v>
+        <v>148171200</v>
       </c>
       <c r="E37" t="n">
-        <v>385051661</v>
+        <v>387093151</v>
       </c>
       <c r="F37" t="n">
-        <v>53622.81405034997</v>
+        <v>59583.52413811033</v>
       </c>
       <c r="G37" t="n">
-        <v>45665.40067357133</v>
+        <v>52663.66071661845</v>
       </c>
       <c r="H37" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="I37" t="n">
-        <v>6966688</v>
+        <v>6671899</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>397797848</v>
+        <v>399581986</v>
       </c>
       <c r="E38" t="n">
-        <v>2273130561</v>
+        <v>2283325637</v>
       </c>
       <c r="F38" t="n">
-        <v>34110.30764198351</v>
+        <v>30491.84541912035</v>
       </c>
       <c r="G38" t="n">
-        <v>90730.41275754686</v>
+        <v>94935.64885725868</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>36379940</v>
+        <v>36349210</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250220.xlsx
+++ b/OkxData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>245407255</v>
+        <v>244720790</v>
       </c>
       <c r="E2" t="n">
-        <v>1538914403</v>
+        <v>1534609675</v>
       </c>
       <c r="F2" t="n">
-        <v>185860.4464899176</v>
+        <v>186039.4998778994</v>
       </c>
       <c r="G2" t="n">
-        <v>199419.2723286613</v>
+        <v>205936.9183906703</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>15518772</v>
+        <v>15523327</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>138734200</v>
+        <v>138772241</v>
       </c>
       <c r="E3" t="n">
-        <v>153739652</v>
+        <v>153781808</v>
       </c>
       <c r="F3" t="n">
-        <v>68337.86688182369</v>
+        <v>74685.57891512003</v>
       </c>
       <c r="G3" t="n">
-        <v>161901.8054750545</v>
+        <v>161108.3634003484</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>33201567</v>
+        <v>33379942</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>545684755</v>
+        <v>546300447</v>
       </c>
       <c r="E4" t="n">
-        <v>682570525</v>
+        <v>683340664</v>
       </c>
       <c r="F4" t="n">
-        <v>114365.3295626028</v>
+        <v>113412.5057291861</v>
       </c>
       <c r="G4" t="n">
-        <v>151029.8885103087</v>
+        <v>148786.9867703698</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>54519211</v>
+        <v>54229525</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>134154672</v>
+        <v>134320549</v>
       </c>
       <c r="E5" t="n">
-        <v>134154672</v>
+        <v>134320549</v>
       </c>
       <c r="F5" t="n">
-        <v>46467.19105669935</v>
+        <v>59618.1907115189</v>
       </c>
       <c r="G5" t="n">
-        <v>118230.5585996407</v>
+        <v>107522.407450503</v>
       </c>
       <c r="H5" t="n">
         <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>65963802</v>
+        <v>65768891</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>250662892</v>
+        <v>249994728</v>
       </c>
       <c r="E6" t="n">
-        <v>250662892</v>
+        <v>249994728</v>
       </c>
       <c r="F6" t="n">
-        <v>53774.4366501433</v>
+        <v>56716.76871042472</v>
       </c>
       <c r="G6" t="n">
-        <v>113943.5435683907</v>
+        <v>111574.0319355039</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>14742214</v>
+        <v>14635945</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99525581</v>
+        <v>99516945</v>
       </c>
       <c r="E7" t="n">
-        <v>124096733</v>
+        <v>124085964</v>
       </c>
       <c r="F7" t="n">
-        <v>16547.69846026213</v>
+        <v>14169.3958981706</v>
       </c>
       <c r="G7" t="n">
-        <v>41785.39546628765</v>
+        <v>33461.12512857652</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>11500814</v>
+        <v>11492700</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>71747130</v>
+        <v>71884638</v>
       </c>
       <c r="E8" t="n">
-        <v>149629201</v>
+        <v>149915975</v>
       </c>
       <c r="F8" t="n">
-        <v>37771.99540220401</v>
+        <v>41018.36661391933</v>
       </c>
       <c r="G8" t="n">
-        <v>46995.28521495909</v>
+        <v>46783.0445751097</v>
       </c>
       <c r="H8" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>13711939</v>
+        <v>13750475</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>143158982</v>
+        <v>142876788</v>
       </c>
       <c r="E9" t="n">
-        <v>143200602</v>
+        <v>142918968</v>
       </c>
       <c r="F9" t="n">
-        <v>9076.296763806951</v>
+        <v>8949.325743519181</v>
       </c>
       <c r="G9" t="n">
-        <v>16123.29185199162</v>
+        <v>14320.62164504878</v>
       </c>
       <c r="H9" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>2603328</v>
+        <v>2586771</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>613236059</v>
+        <v>612626977</v>
       </c>
       <c r="E10" t="n">
-        <v>613236059</v>
+        <v>612626977</v>
       </c>
       <c r="F10" t="n">
-        <v>461591.157739653</v>
+        <v>433139.4921081917</v>
       </c>
       <c r="G10" t="n">
-        <v>512443.1035350659</v>
+        <v>469987.7592685186</v>
       </c>
       <c r="H10" t="n">
         <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>256815312</v>
+        <v>255829129</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73072353</v>
+        <v>73090830</v>
       </c>
       <c r="E11" t="n">
-        <v>83841217</v>
+        <v>83862417</v>
       </c>
       <c r="F11" t="n">
-        <v>4933.922949920742</v>
+        <v>2143.938169148493</v>
       </c>
       <c r="G11" t="n">
-        <v>7748.284030175386</v>
+        <v>3581.165445728297</v>
       </c>
       <c r="H11" t="n">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="I11" t="n">
-        <v>1183232</v>
+        <v>1200474</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>266649765</v>
+        <v>265894958</v>
       </c>
       <c r="E12" t="n">
-        <v>1151008415</v>
+        <v>1147750247</v>
       </c>
       <c r="F12" t="n">
-        <v>372583.8937414462</v>
+        <v>362605.3072850359</v>
       </c>
       <c r="G12" t="n">
-        <v>410449.1493771087</v>
+        <v>392235.1730387634</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>110789052</v>
+        <v>109963365</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>113418447</v>
+        <v>113469893</v>
       </c>
       <c r="E13" t="n">
-        <v>113418447</v>
+        <v>113469893</v>
       </c>
       <c r="F13" t="n">
-        <v>2014.974266916245</v>
+        <v>5446.474969353686</v>
       </c>
       <c r="G13" t="n">
-        <v>3888.362457427771</v>
+        <v>3904.314354384225</v>
       </c>
       <c r="H13" t="n">
-        <v>0.13</v>
+        <v>0.34</v>
       </c>
       <c r="I13" t="n">
-        <v>5967503</v>
+        <v>5973606</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21477091</v>
+        <v>21320681</v>
       </c>
       <c r="E14" t="n">
-        <v>53692728</v>
+        <v>53301703</v>
       </c>
       <c r="F14" t="n">
-        <v>4796.77993750176</v>
+        <v>5095.107666914485</v>
       </c>
       <c r="G14" t="n">
-        <v>14808.26099264702</v>
+        <v>14857.61596858857</v>
       </c>
       <c r="H14" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I14" t="n">
-        <v>1933114</v>
+        <v>2081791</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11740687</v>
+        <v>11744178</v>
       </c>
       <c r="E15" t="n">
-        <v>17264459</v>
+        <v>17269593</v>
       </c>
       <c r="F15" t="n">
-        <v>1833.554500659668</v>
+        <v>1813.277948538612</v>
       </c>
       <c r="G15" t="n">
-        <v>3787.518766875558</v>
+        <v>7383.627689145937</v>
       </c>
       <c r="H15" t="n">
         <v>0.23</v>
       </c>
       <c r="I15" t="n">
-        <v>1032395</v>
+        <v>1052849</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>32383386</v>
+        <v>32203746</v>
       </c>
       <c r="E16" t="n">
-        <v>100831472</v>
+        <v>100272132</v>
       </c>
       <c r="F16" t="n">
-        <v>9279.341428282767</v>
+        <v>7040.633041249054</v>
       </c>
       <c r="G16" t="n">
-        <v>16636.62625465435</v>
+        <v>27215.0687642745</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I16" t="n">
-        <v>11780957</v>
+        <v>11908650</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>335199443</v>
+        <v>334686355</v>
       </c>
       <c r="E17" t="n">
-        <v>3015662035</v>
+        <v>3011045982</v>
       </c>
       <c r="F17" t="n">
-        <v>1004461.880094904</v>
+        <v>989661.1505144802</v>
       </c>
       <c r="G17" t="n">
-        <v>1104144.400688917</v>
+        <v>1089692.556861221</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>36510473</v>
+        <v>36624885</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15165747</v>
+        <v>15048345</v>
       </c>
       <c r="E18" t="n">
-        <v>92955849</v>
+        <v>92236255</v>
       </c>
       <c r="F18" t="n">
-        <v>32837.89759917615</v>
+        <v>37699.39507922049</v>
       </c>
       <c r="G18" t="n">
-        <v>25930.90876612416</v>
+        <v>36549.70757412227</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>11734749</v>
+        <v>11714332</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46479798</v>
+        <v>46559965</v>
       </c>
       <c r="E19" t="n">
-        <v>200229888</v>
+        <v>200575238</v>
       </c>
       <c r="F19" t="n">
-        <v>54340.16764197536</v>
+        <v>48785.57501033182</v>
       </c>
       <c r="G19" t="n">
-        <v>64998.04739085227</v>
+        <v>66550.66356569086</v>
       </c>
       <c r="H19" t="n">
         <v>0.08</v>
       </c>
       <c r="I19" t="n">
-        <v>8663210</v>
+        <v>8697037</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>298572815</v>
+        <v>298505069</v>
       </c>
       <c r="E20" t="n">
-        <v>298572815</v>
+        <v>298505069</v>
       </c>
       <c r="F20" t="n">
-        <v>68062.94121209318</v>
+        <v>66824.58376917851</v>
       </c>
       <c r="G20" t="n">
-        <v>122273.5294874415</v>
+        <v>123920.7363908736</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>50122139</v>
+        <v>50009801</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30321121</v>
+        <v>30391778</v>
       </c>
       <c r="E21" t="n">
-        <v>135760097</v>
+        <v>136076456</v>
       </c>
       <c r="F21" t="n">
-        <v>46098.57027216836</v>
+        <v>41799.26924411111</v>
       </c>
       <c r="G21" t="n">
-        <v>78114.88923292962</v>
+        <v>69009.41174423372</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>8802462</v>
+        <v>8791391</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47148036</v>
+        <v>47301680</v>
       </c>
       <c r="E22" t="n">
-        <v>305742467</v>
+        <v>306738808</v>
       </c>
       <c r="F22" t="n">
-        <v>10903.10072619961</v>
+        <v>11225.24221812988</v>
       </c>
       <c r="G22" t="n">
-        <v>96211.0095700157</v>
+        <v>97981.98159180008</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>17340328</v>
+        <v>17329400</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125214987</v>
+        <v>125276241</v>
       </c>
       <c r="E23" t="n">
-        <v>2073662736</v>
+        <v>2074677154</v>
       </c>
       <c r="F23" t="n">
-        <v>347991.9645784877</v>
+        <v>342301.4843649497</v>
       </c>
       <c r="G23" t="n">
-        <v>350927.1109753144</v>
+        <v>348539.3579749841</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>5066256</v>
+        <v>5018336</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6716512</v>
+        <v>6698878</v>
       </c>
       <c r="E24" t="n">
-        <v>34554411</v>
+        <v>34463694</v>
       </c>
       <c r="F24" t="n">
-        <v>1401.273890681061</v>
+        <v>4792.595979458868</v>
       </c>
       <c r="G24" t="n">
-        <v>838.1792896480581</v>
+        <v>654.1693532155136</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>776287</v>
+        <v>904312</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23483924</v>
+        <v>23785421</v>
       </c>
       <c r="E25" t="n">
-        <v>23483924</v>
+        <v>23790053</v>
       </c>
       <c r="F25" t="n">
-        <v>16918.88658969833</v>
+        <v>21513.24601342882</v>
       </c>
       <c r="G25" t="n">
-        <v>11882.57128858276</v>
+        <v>7424.559455142017</v>
       </c>
       <c r="H25" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I25" t="n">
-        <v>1743273</v>
+        <v>1792591</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>311484798</v>
+        <v>311324324</v>
       </c>
       <c r="E27" t="n">
-        <v>576317910</v>
+        <v>576020996</v>
       </c>
       <c r="F27" t="n">
-        <v>121100.3219427272</v>
+        <v>123862.3652246297</v>
       </c>
       <c r="G27" t="n">
-        <v>136806.5308252578</v>
+        <v>137340.6529790286</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>12282376</v>
+        <v>12344585</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44481010</v>
+        <v>44432085</v>
       </c>
       <c r="E28" t="n">
-        <v>44481010</v>
+        <v>44432085</v>
       </c>
       <c r="F28" t="n">
-        <v>21477.57122134397</v>
+        <v>24610.61781332119</v>
       </c>
       <c r="G28" t="n">
-        <v>44530.98584965199</v>
+        <v>44627.40216622387</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>8135454</v>
+        <v>8138920</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>588829695</v>
+        <v>590086076</v>
       </c>
       <c r="E29" t="n">
-        <v>2280450533</v>
+        <v>2285316311</v>
       </c>
       <c r="F29" t="n">
-        <v>77620.08103851772</v>
+        <v>79640.87491203711</v>
       </c>
       <c r="G29" t="n">
-        <v>226261.0105967115</v>
+        <v>223993.4415178997</v>
       </c>
       <c r="H29" t="n">
         <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>30575467</v>
+        <v>30618019</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>110960590</v>
+        <v>111024073</v>
       </c>
       <c r="E30" t="n">
-        <v>425662684</v>
+        <v>425906215</v>
       </c>
       <c r="F30" t="n">
-        <v>144524.625584036</v>
+        <v>146693.5017002195</v>
       </c>
       <c r="G30" t="n">
-        <v>181900.8954937989</v>
+        <v>178122.1702422397</v>
       </c>
       <c r="H30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I30" t="n">
-        <v>19331690</v>
+        <v>19702643</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>31530089</v>
+        <v>31656382</v>
       </c>
       <c r="F31" t="n">
-        <v>12162.20252404979</v>
+        <v>8797.579179647388</v>
       </c>
       <c r="G31" t="n">
-        <v>16259.0700557099</v>
+        <v>38688.10270771178</v>
       </c>
       <c r="H31" t="n">
         <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>5663300</v>
+        <v>5633869</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>86766500</v>
+        <v>86776404</v>
       </c>
       <c r="E32" t="n">
-        <v>320753419</v>
+        <v>320789705</v>
       </c>
       <c r="F32" t="n">
-        <v>13101.27616698557</v>
+        <v>13055.95760825871</v>
       </c>
       <c r="G32" t="n">
-        <v>3831.814433793399</v>
+        <v>3630.215075358045</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I32" t="n">
-        <v>369644</v>
+        <v>340734</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>485786748</v>
+        <v>486387740</v>
       </c>
       <c r="E33" t="n">
-        <v>1691841141</v>
+        <v>1693934205</v>
       </c>
       <c r="F33" t="n">
-        <v>237306.7903603348</v>
+        <v>237637.7709134982</v>
       </c>
       <c r="G33" t="n">
-        <v>279547.3685758599</v>
+        <v>281559.8413399105</v>
       </c>
       <c r="H33" t="n">
         <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>31457393</v>
+        <v>31253758</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>100195169</v>
+        <v>99899908</v>
       </c>
       <c r="E34" t="n">
-        <v>151807258</v>
+        <v>151359903</v>
       </c>
       <c r="F34" t="n">
-        <v>49825.66644846686</v>
+        <v>45789.50987976987</v>
       </c>
       <c r="G34" t="n">
-        <v>61209.34083884519</v>
+        <v>61689.47891199403</v>
       </c>
       <c r="H34" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I34" t="n">
-        <v>7128055</v>
+        <v>6929501</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2658607</v>
+        <v>2643641</v>
       </c>
       <c r="E35" t="n">
-        <v>10634427</v>
+        <v>10574563</v>
       </c>
       <c r="F35" t="n">
-        <v>74565.54023709174</v>
+        <v>78515.64154289094</v>
       </c>
       <c r="G35" t="n">
-        <v>36321.41355423239</v>
+        <v>79303.87533369385</v>
       </c>
       <c r="H35" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="I35" t="n">
-        <v>5047638</v>
+        <v>5042886</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>213297351</v>
+        <v>212983384</v>
       </c>
       <c r="E36" t="n">
-        <v>655809087</v>
+        <v>654843754</v>
       </c>
       <c r="F36" t="n">
-        <v>143526.2046527885</v>
+        <v>149660.867157002</v>
       </c>
       <c r="G36" t="n">
-        <v>236978.5912845531</v>
+        <v>229697.0700790597</v>
       </c>
       <c r="H36" t="n">
         <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>11459529</v>
+        <v>11265471</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>148171200</v>
+        <v>149050280</v>
       </c>
       <c r="E37" t="n">
-        <v>387093151</v>
+        <v>389389723</v>
       </c>
       <c r="F37" t="n">
-        <v>59583.52413811033</v>
+        <v>53188.12555076175</v>
       </c>
       <c r="G37" t="n">
-        <v>52663.66071661845</v>
+        <v>46313.93634453856</v>
       </c>
       <c r="H37" t="n">
         <v>0.15</v>
       </c>
       <c r="I37" t="n">
-        <v>6671899</v>
+        <v>6668631</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>399581986</v>
+        <v>399228260</v>
       </c>
       <c r="E38" t="n">
-        <v>2283325637</v>
+        <v>2281304344</v>
       </c>
       <c r="F38" t="n">
-        <v>30491.84541912035</v>
+        <v>32184.1931764869</v>
       </c>
       <c r="G38" t="n">
-        <v>94935.64885725868</v>
+        <v>94523.80468988788</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>36349210</v>
+        <v>36175652</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250220.xlsx
+++ b/OkxData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>244720790</v>
+        <v>245790297</v>
       </c>
       <c r="E2" t="n">
-        <v>1534609675</v>
+        <v>1541316407</v>
       </c>
       <c r="F2" t="n">
-        <v>186039.4998778994</v>
+        <v>180412.9776234564</v>
       </c>
       <c r="G2" t="n">
-        <v>205936.9183906703</v>
+        <v>200481.1265420392</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>15523327</v>
+        <v>15661172</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>138772241</v>
+        <v>139800445</v>
       </c>
       <c r="E3" t="n">
-        <v>153781808</v>
+        <v>154921222</v>
       </c>
       <c r="F3" t="n">
-        <v>74685.57891512003</v>
+        <v>49409.92844900939</v>
       </c>
       <c r="G3" t="n">
-        <v>161108.3634003484</v>
+        <v>175754.3792008275</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>33379942</v>
+        <v>33800392</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>546300447</v>
+        <v>552850826</v>
       </c>
       <c r="E4" t="n">
-        <v>683340664</v>
+        <v>691534214</v>
       </c>
       <c r="F4" t="n">
-        <v>113412.5057291861</v>
+        <v>127630.2084112965</v>
       </c>
       <c r="G4" t="n">
-        <v>148786.9867703698</v>
+        <v>152587.4893565357</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>54229525</v>
+        <v>54900055</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>134320549</v>
+        <v>135512892</v>
       </c>
       <c r="E5" t="n">
-        <v>134320549</v>
+        <v>135512892</v>
       </c>
       <c r="F5" t="n">
-        <v>59618.1907115189</v>
+        <v>82463.315441382</v>
       </c>
       <c r="G5" t="n">
-        <v>107522.407450503</v>
+        <v>94658.82327961316</v>
       </c>
       <c r="H5" t="n">
         <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>65768891</v>
+        <v>66266704</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>249994728</v>
+        <v>252772469</v>
       </c>
       <c r="E6" t="n">
-        <v>249994728</v>
+        <v>252772469</v>
       </c>
       <c r="F6" t="n">
-        <v>56716.76871042472</v>
+        <v>77975.30367469993</v>
       </c>
       <c r="G6" t="n">
-        <v>111574.0319355039</v>
+        <v>96198.83519932846</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>14635945</v>
+        <v>14940126</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99516945</v>
+        <v>100089734</v>
       </c>
       <c r="E7" t="n">
-        <v>124085964</v>
+        <v>124800165</v>
       </c>
       <c r="F7" t="n">
-        <v>14169.3958981706</v>
+        <v>11527.74123923985</v>
       </c>
       <c r="G7" t="n">
-        <v>33461.12512857652</v>
+        <v>45950.00162194623</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>11492700</v>
+        <v>11528629</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>71884638</v>
+        <v>72359697</v>
       </c>
       <c r="E8" t="n">
-        <v>149915975</v>
+        <v>150906715</v>
       </c>
       <c r="F8" t="n">
-        <v>41018.36661391933</v>
+        <v>40503.30242223394</v>
       </c>
       <c r="G8" t="n">
-        <v>46783.0445751097</v>
+        <v>45237.01850477181</v>
       </c>
       <c r="H8" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>13750475</v>
+        <v>14019175</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>142876788</v>
+        <v>143847707</v>
       </c>
       <c r="E9" t="n">
-        <v>142918968</v>
+        <v>143890759</v>
       </c>
       <c r="F9" t="n">
-        <v>8949.325743519181</v>
+        <v>10100.99359862954</v>
       </c>
       <c r="G9" t="n">
-        <v>14320.62164504878</v>
+        <v>12676.2025560165</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>2586771</v>
+        <v>2616784</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>612626977</v>
+        <v>620398375</v>
       </c>
       <c r="E10" t="n">
-        <v>612626977</v>
+        <v>620398375</v>
       </c>
       <c r="F10" t="n">
-        <v>433139.4921081917</v>
+        <v>399390.485904272</v>
       </c>
       <c r="G10" t="n">
-        <v>469987.7592685186</v>
+        <v>523124.1392014505</v>
       </c>
       <c r="H10" t="n">
         <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>255829129</v>
+        <v>261826146</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73090830</v>
+        <v>72875135</v>
       </c>
       <c r="E11" t="n">
-        <v>83862417</v>
+        <v>83614935</v>
       </c>
       <c r="F11" t="n">
-        <v>2143.938169148493</v>
+        <v>2911.816448430544</v>
       </c>
       <c r="G11" t="n">
-        <v>3581.165445728297</v>
+        <v>5106.386790504434</v>
       </c>
       <c r="H11" t="n">
         <v>0.45</v>
       </c>
       <c r="I11" t="n">
-        <v>1200474</v>
+        <v>1202351</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>265894958</v>
+        <v>265016990</v>
       </c>
       <c r="E12" t="n">
-        <v>1147750247</v>
+        <v>1143960453</v>
       </c>
       <c r="F12" t="n">
-        <v>362605.3072850359</v>
+        <v>332280.1257582397</v>
       </c>
       <c r="G12" t="n">
-        <v>392235.1730387634</v>
+        <v>392288.6642636198</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>109963365</v>
+        <v>110334860</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>113469893</v>
+        <v>114138777</v>
       </c>
       <c r="E13" t="n">
-        <v>113469893</v>
+        <v>114138777</v>
       </c>
       <c r="F13" t="n">
-        <v>5446.474969353686</v>
+        <v>5820.236638748314</v>
       </c>
       <c r="G13" t="n">
-        <v>3904.314354384225</v>
+        <v>3847.245668227114</v>
       </c>
       <c r="H13" t="n">
         <v>0.34</v>
       </c>
       <c r="I13" t="n">
-        <v>5973606</v>
+        <v>6023783</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21320681</v>
+        <v>21254485</v>
       </c>
       <c r="E14" t="n">
-        <v>53301703</v>
+        <v>53136214</v>
       </c>
       <c r="F14" t="n">
-        <v>5095.107666914485</v>
+        <v>5671.340097742329</v>
       </c>
       <c r="G14" t="n">
-        <v>14857.61596858857</v>
+        <v>13501.88643891133</v>
       </c>
       <c r="H14" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I14" t="n">
-        <v>2081791</v>
+        <v>2068554</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11744178</v>
+        <v>11657041</v>
       </c>
       <c r="E15" t="n">
-        <v>17269593</v>
+        <v>17141459</v>
       </c>
       <c r="F15" t="n">
-        <v>1813.277948538612</v>
+        <v>2846.99712768418</v>
       </c>
       <c r="G15" t="n">
-        <v>7383.627689145937</v>
+        <v>4125.141669429145</v>
       </c>
       <c r="H15" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I15" t="n">
-        <v>1052849</v>
+        <v>1232682</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>32203746</v>
+        <v>31955630</v>
       </c>
       <c r="E16" t="n">
-        <v>100272132</v>
+        <v>99499579</v>
       </c>
       <c r="F16" t="n">
-        <v>7040.633041249054</v>
+        <v>13850.52976543839</v>
       </c>
       <c r="G16" t="n">
-        <v>27215.0687642745</v>
+        <v>26610.41426071445</v>
       </c>
       <c r="H16" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I16" t="n">
-        <v>11908650</v>
+        <v>12015781</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>334686355</v>
+        <v>337040169</v>
       </c>
       <c r="E17" t="n">
-        <v>3011045982</v>
+        <v>3032222349</v>
       </c>
       <c r="F17" t="n">
-        <v>989661.1505144802</v>
+        <v>1018887.558200711</v>
       </c>
       <c r="G17" t="n">
-        <v>1089692.556861221</v>
+        <v>1083631.147004213</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>36624885</v>
+        <v>36464829</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15048345</v>
+        <v>15063098</v>
       </c>
       <c r="E18" t="n">
-        <v>92236255</v>
+        <v>92326684</v>
       </c>
       <c r="F18" t="n">
-        <v>37699.39507922049</v>
+        <v>31496.61316675793</v>
       </c>
       <c r="G18" t="n">
-        <v>36549.70757412227</v>
+        <v>35964.93560264668</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I18" t="n">
-        <v>11714332</v>
+        <v>11868339</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46559965</v>
+        <v>46831942</v>
       </c>
       <c r="E19" t="n">
-        <v>200575238</v>
+        <v>201746885</v>
       </c>
       <c r="F19" t="n">
-        <v>48785.57501033182</v>
+        <v>43779.44425948407</v>
       </c>
       <c r="G19" t="n">
-        <v>66550.66356569086</v>
+        <v>72786.363122921</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I19" t="n">
-        <v>8697037</v>
+        <v>8763776</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>298505069</v>
+        <v>301004035</v>
       </c>
       <c r="E20" t="n">
-        <v>298505069</v>
+        <v>301004035</v>
       </c>
       <c r="F20" t="n">
-        <v>66824.58376917851</v>
+        <v>67827.00916686241</v>
       </c>
       <c r="G20" t="n">
-        <v>123920.7363908736</v>
+        <v>122196.4995201003</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>50009801</v>
+        <v>50091349</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30391778</v>
+        <v>30588610</v>
       </c>
       <c r="E21" t="n">
-        <v>136076456</v>
+        <v>136957755</v>
       </c>
       <c r="F21" t="n">
-        <v>41799.26924411111</v>
+        <v>39352.2142650583</v>
       </c>
       <c r="G21" t="n">
-        <v>69009.41174423372</v>
+        <v>70447.10123517728</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>8791391</v>
+        <v>8819895</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47301680</v>
+        <v>47497992</v>
       </c>
       <c r="E22" t="n">
-        <v>306738808</v>
+        <v>308011839</v>
       </c>
       <c r="F22" t="n">
-        <v>11225.24221812988</v>
+        <v>7575.021972041368</v>
       </c>
       <c r="G22" t="n">
-        <v>97981.98159180008</v>
+        <v>98541.24408580738</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I22" t="n">
-        <v>17329400</v>
+        <v>16950799</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125276241</v>
+        <v>125376563</v>
       </c>
       <c r="E23" t="n">
-        <v>2074677154</v>
+        <v>2076338562</v>
       </c>
       <c r="F23" t="n">
-        <v>342301.4843649497</v>
+        <v>344862.7597300513</v>
       </c>
       <c r="G23" t="n">
-        <v>348539.3579749841</v>
+        <v>326415.2240034166</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>5018336</v>
+        <v>5080031</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6698878</v>
+        <v>6706186</v>
       </c>
       <c r="E24" t="n">
-        <v>34463694</v>
+        <v>34501288</v>
       </c>
       <c r="F24" t="n">
-        <v>4792.595979458868</v>
+        <v>1820.363552535532</v>
       </c>
       <c r="G24" t="n">
-        <v>654.1693532155136</v>
+        <v>1075.229288625917</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>904312</v>
+        <v>885688</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23785421</v>
+        <v>24200911</v>
       </c>
       <c r="E25" t="n">
-        <v>23790053</v>
+        <v>24201244</v>
       </c>
       <c r="F25" t="n">
-        <v>21513.24601342882</v>
+        <v>16729.62625769981</v>
       </c>
       <c r="G25" t="n">
-        <v>7424.559455142017</v>
+        <v>7585.342033873608</v>
       </c>
       <c r="H25" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I25" t="n">
-        <v>1792591</v>
+        <v>1855266</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>311324324</v>
+        <v>311821984</v>
       </c>
       <c r="E27" t="n">
-        <v>576020996</v>
+        <v>576941781</v>
       </c>
       <c r="F27" t="n">
-        <v>123862.3652246297</v>
+        <v>99591.27205057106</v>
       </c>
       <c r="G27" t="n">
-        <v>137340.6529790286</v>
+        <v>101488.6637672187</v>
       </c>
       <c r="H27" t="n">
         <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>12344585</v>
+        <v>12816752</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44432085</v>
+        <v>44793660</v>
       </c>
       <c r="E28" t="n">
-        <v>44432085</v>
+        <v>44793660</v>
       </c>
       <c r="F28" t="n">
-        <v>24610.61781332119</v>
+        <v>27727.9606583446</v>
       </c>
       <c r="G28" t="n">
-        <v>44627.40216622387</v>
+        <v>41036.66999607946</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>8138920</v>
+        <v>8998592</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>590086076</v>
+        <v>599698255</v>
       </c>
       <c r="E29" t="n">
-        <v>2285316311</v>
+        <v>2322542861</v>
       </c>
       <c r="F29" t="n">
-        <v>79640.87491203711</v>
+        <v>80613.05912754925</v>
       </c>
       <c r="G29" t="n">
-        <v>223993.4415178997</v>
+        <v>234245.7752336417</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>30618019</v>
+        <v>30969122</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>111024073</v>
+        <v>112062928</v>
       </c>
       <c r="E30" t="n">
-        <v>425906215</v>
+        <v>429891430</v>
       </c>
       <c r="F30" t="n">
-        <v>146693.5017002195</v>
+        <v>138469.2358651233</v>
       </c>
       <c r="G30" t="n">
-        <v>178122.1702422397</v>
+        <v>178985.8029973581</v>
       </c>
       <c r="H30" t="n">
         <v>0.05</v>
       </c>
       <c r="I30" t="n">
-        <v>19702643</v>
+        <v>20562052</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>31656382</v>
+        <v>31574765</v>
       </c>
       <c r="F31" t="n">
-        <v>8797.579179647388</v>
+        <v>15436.18419760073</v>
       </c>
       <c r="G31" t="n">
-        <v>38688.10270771178</v>
+        <v>19248.5158928574</v>
       </c>
       <c r="H31" t="n">
         <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>5633869</v>
+        <v>5609812</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>86776404</v>
+        <v>86678065</v>
       </c>
       <c r="E32" t="n">
-        <v>320789705</v>
+        <v>320425010</v>
       </c>
       <c r="F32" t="n">
-        <v>13055.95760825871</v>
+        <v>12523.25082755583</v>
       </c>
       <c r="G32" t="n">
-        <v>3630.215075358045</v>
+        <v>4175.847690098081</v>
       </c>
       <c r="H32" t="n">
         <v>0.11</v>
       </c>
       <c r="I32" t="n">
-        <v>340734</v>
+        <v>345093</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>486387740</v>
+        <v>489214842</v>
       </c>
       <c r="E33" t="n">
-        <v>1693934205</v>
+        <v>1703780105</v>
       </c>
       <c r="F33" t="n">
-        <v>237637.7709134982</v>
+        <v>245669.6165500469</v>
       </c>
       <c r="G33" t="n">
-        <v>281559.8413399105</v>
+        <v>282359.3894753421</v>
       </c>
       <c r="H33" t="n">
         <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>31253758</v>
+        <v>31508658</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>99899908</v>
+        <v>100881391</v>
       </c>
       <c r="E34" t="n">
-        <v>151359903</v>
+        <v>152846963</v>
       </c>
       <c r="F34" t="n">
-        <v>45789.50987976987</v>
+        <v>43797.4516164755</v>
       </c>
       <c r="G34" t="n">
-        <v>61689.47891199403</v>
+        <v>64099.45657394241</v>
       </c>
       <c r="H34" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="I34" t="n">
-        <v>6929501</v>
+        <v>7243849</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2643641</v>
+        <v>2643615</v>
       </c>
       <c r="E35" t="n">
-        <v>10574563</v>
+        <v>10574461</v>
       </c>
       <c r="F35" t="n">
-        <v>78515.64154289094</v>
+        <v>43327.96632134771</v>
       </c>
       <c r="G35" t="n">
-        <v>79303.87533369385</v>
+        <v>45274.84673592813</v>
       </c>
       <c r="H35" t="n">
         <v>0.19</v>
       </c>
       <c r="I35" t="n">
-        <v>5042886</v>
+        <v>5143797</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>212983384</v>
+        <v>213654455</v>
       </c>
       <c r="E36" t="n">
-        <v>654843754</v>
+        <v>656907046</v>
       </c>
       <c r="F36" t="n">
-        <v>149660.867157002</v>
+        <v>152542.2069296207</v>
       </c>
       <c r="G36" t="n">
-        <v>229697.0700790597</v>
+        <v>233485.4559054233</v>
       </c>
       <c r="H36" t="n">
         <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>11265471</v>
+        <v>11494621</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>149050280</v>
+        <v>150421392</v>
       </c>
       <c r="E37" t="n">
-        <v>389389723</v>
+        <v>392971714</v>
       </c>
       <c r="F37" t="n">
-        <v>53188.12555076175</v>
+        <v>57130.65201447799</v>
       </c>
       <c r="G37" t="n">
-        <v>46313.93634453856</v>
+        <v>49805.46153414932</v>
       </c>
       <c r="H37" t="n">
-        <v>0.15</v>
+        <v>0.28</v>
       </c>
       <c r="I37" t="n">
-        <v>6668631</v>
+        <v>6583567</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>399228260</v>
+        <v>400158770</v>
       </c>
       <c r="E38" t="n">
-        <v>2281304344</v>
+        <v>2286621544</v>
       </c>
       <c r="F38" t="n">
-        <v>32184.1931764869</v>
+        <v>38896.13090056225</v>
       </c>
       <c r="G38" t="n">
-        <v>94523.80468988788</v>
+        <v>92075.72825345308</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>36175652</v>
+        <v>36377825</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250220.xlsx
+++ b/OkxData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>245790297</v>
+        <v>246802276</v>
       </c>
       <c r="E2" t="n">
-        <v>1541316407</v>
+        <v>1547662380</v>
       </c>
       <c r="F2" t="n">
-        <v>180412.9776234564</v>
+        <v>176905.3004890272</v>
       </c>
       <c r="G2" t="n">
-        <v>200481.1265420392</v>
+        <v>200730.4481411159</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>15661172</v>
+        <v>15548484</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>139800445</v>
+        <v>140916345</v>
       </c>
       <c r="E3" t="n">
-        <v>154921222</v>
+        <v>156157818</v>
       </c>
       <c r="F3" t="n">
-        <v>49409.92844900939</v>
+        <v>70363.52571860359</v>
       </c>
       <c r="G3" t="n">
-        <v>175754.3792008275</v>
+        <v>171310.0917147491</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>33800392</v>
+        <v>33950596</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>552850826</v>
+        <v>556651278</v>
       </c>
       <c r="E4" t="n">
-        <v>691534214</v>
+        <v>696288016</v>
       </c>
       <c r="F4" t="n">
-        <v>127630.2084112965</v>
+        <v>112132.2893500154</v>
       </c>
       <c r="G4" t="n">
-        <v>152587.4893565357</v>
+        <v>153525.5146222694</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>54900055</v>
+        <v>53448864</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>135512892</v>
+        <v>137014516</v>
       </c>
       <c r="E5" t="n">
-        <v>135512892</v>
+        <v>137014516</v>
       </c>
       <c r="F5" t="n">
-        <v>82463.315441382</v>
+        <v>53677.92432341083</v>
       </c>
       <c r="G5" t="n">
-        <v>94658.82327961316</v>
+        <v>112845.6486376511</v>
       </c>
       <c r="H5" t="n">
         <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>66266704</v>
+        <v>65929730</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>252772469</v>
+        <v>254285737</v>
       </c>
       <c r="E6" t="n">
-        <v>252772469</v>
+        <v>254285737</v>
       </c>
       <c r="F6" t="n">
-        <v>77975.30367469993</v>
+        <v>61990.29335880112</v>
       </c>
       <c r="G6" t="n">
-        <v>96198.83519932846</v>
+        <v>112805.7241801308</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>14940126</v>
+        <v>14858709</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>100089734</v>
+        <v>100342448</v>
       </c>
       <c r="E7" t="n">
-        <v>124800165</v>
+        <v>125115271</v>
       </c>
       <c r="F7" t="n">
-        <v>11527.74123923985</v>
+        <v>16739.39002920136</v>
       </c>
       <c r="G7" t="n">
-        <v>45950.00162194623</v>
+        <v>39407.27686088644</v>
       </c>
       <c r="H7" t="n">
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>11528629</v>
+        <v>11490931</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>72359697</v>
+        <v>73359828</v>
       </c>
       <c r="E8" t="n">
-        <v>150906715</v>
+        <v>152992495</v>
       </c>
       <c r="F8" t="n">
-        <v>40503.30242223394</v>
+        <v>39541.81923328646</v>
       </c>
       <c r="G8" t="n">
-        <v>45237.01850477181</v>
+        <v>46899.09796586267</v>
       </c>
       <c r="H8" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>14019175</v>
+        <v>14354184</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>143847707</v>
+        <v>144699542</v>
       </c>
       <c r="E9" t="n">
-        <v>143890759</v>
+        <v>144742849</v>
       </c>
       <c r="F9" t="n">
-        <v>10100.99359862954</v>
+        <v>7094.533867510461</v>
       </c>
       <c r="G9" t="n">
-        <v>12676.2025560165</v>
+        <v>17613.69141596302</v>
       </c>
       <c r="H9" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="I9" t="n">
-        <v>2616784</v>
+        <v>2624164</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>620398375</v>
+        <v>628620934</v>
       </c>
       <c r="E10" t="n">
-        <v>620398375</v>
+        <v>628620934</v>
       </c>
       <c r="F10" t="n">
-        <v>399390.485904272</v>
+        <v>400449.7364039264</v>
       </c>
       <c r="G10" t="n">
-        <v>523124.1392014505</v>
+        <v>549866.708332175</v>
       </c>
       <c r="H10" t="n">
         <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>261826146</v>
+        <v>255503488</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72875135</v>
+        <v>71771292</v>
       </c>
       <c r="E11" t="n">
-        <v>83614935</v>
+        <v>82348416</v>
       </c>
       <c r="F11" t="n">
-        <v>2911.816448430544</v>
+        <v>4687.134929573734</v>
       </c>
       <c r="G11" t="n">
-        <v>5106.386790504434</v>
+        <v>6628.533488952741</v>
       </c>
       <c r="H11" t="n">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="I11" t="n">
-        <v>1202351</v>
+        <v>1076463</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>265016990</v>
+        <v>267680819</v>
       </c>
       <c r="E12" t="n">
-        <v>1143960453</v>
+        <v>1155459014</v>
       </c>
       <c r="F12" t="n">
-        <v>332280.1257582397</v>
+        <v>257862.3820800505</v>
       </c>
       <c r="G12" t="n">
-        <v>392288.6642636198</v>
+        <v>378491.2982868747</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>110334860</v>
+        <v>111437054</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>114138777</v>
+        <v>114510000</v>
       </c>
       <c r="E13" t="n">
-        <v>114138777</v>
+        <v>114510000</v>
       </c>
       <c r="F13" t="n">
-        <v>5820.236638748314</v>
+        <v>7938.938806006133</v>
       </c>
       <c r="G13" t="n">
-        <v>3847.245668227114</v>
+        <v>3098.530445224068</v>
       </c>
       <c r="H13" t="n">
-        <v>0.34</v>
+        <v>0.02</v>
       </c>
       <c r="I13" t="n">
-        <v>6023783</v>
+        <v>6006147</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21254485</v>
+        <v>21272780</v>
       </c>
       <c r="E14" t="n">
-        <v>53136214</v>
+        <v>53181951</v>
       </c>
       <c r="F14" t="n">
-        <v>5671.340097742329</v>
+        <v>5763.15603957283</v>
       </c>
       <c r="G14" t="n">
-        <v>13501.88643891133</v>
+        <v>13890.6747213433</v>
       </c>
       <c r="H14" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I14" t="n">
-        <v>2068554</v>
+        <v>1956388</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11657041</v>
+        <v>11738291</v>
       </c>
       <c r="E15" t="n">
-        <v>17141459</v>
+        <v>17260935</v>
       </c>
       <c r="F15" t="n">
-        <v>2846.99712768418</v>
+        <v>2769.961476042932</v>
       </c>
       <c r="G15" t="n">
-        <v>4125.141669429145</v>
+        <v>8578.504715312276</v>
       </c>
       <c r="H15" t="n">
         <v>0.17</v>
       </c>
       <c r="I15" t="n">
-        <v>1232682</v>
+        <v>1338100</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31955630</v>
+        <v>32335926</v>
       </c>
       <c r="E16" t="n">
-        <v>99499579</v>
+        <v>100683698</v>
       </c>
       <c r="F16" t="n">
-        <v>13850.52976543839</v>
+        <v>9336.517437010003</v>
       </c>
       <c r="G16" t="n">
-        <v>26610.41426071445</v>
+        <v>24630.43464626025</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>12015781</v>
+        <v>12129922</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>337040169</v>
+        <v>339473719</v>
       </c>
       <c r="E17" t="n">
-        <v>3032222349</v>
+        <v>3054116075</v>
       </c>
       <c r="F17" t="n">
-        <v>1018887.558200711</v>
+        <v>1056026.486367537</v>
       </c>
       <c r="G17" t="n">
-        <v>1083631.147004213</v>
+        <v>1102172.239527427</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>36464829</v>
+        <v>37118673</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15063098</v>
+        <v>15102765</v>
       </c>
       <c r="E18" t="n">
-        <v>92326684</v>
+        <v>92569814</v>
       </c>
       <c r="F18" t="n">
-        <v>31496.61316675793</v>
+        <v>27958.44290094052</v>
       </c>
       <c r="G18" t="n">
-        <v>35964.93560264668</v>
+        <v>37462.80240312678</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>11868339</v>
+        <v>11683296</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46831942</v>
+        <v>47101287</v>
       </c>
       <c r="E19" t="n">
-        <v>201746885</v>
+        <v>202907194</v>
       </c>
       <c r="F19" t="n">
-        <v>43779.44425948407</v>
+        <v>54831.5043925567</v>
       </c>
       <c r="G19" t="n">
-        <v>72786.363122921</v>
+        <v>62346.91120979608</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I19" t="n">
-        <v>8763776</v>
+        <v>8752461</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>301004035</v>
+        <v>304073420</v>
       </c>
       <c r="E20" t="n">
-        <v>301004035</v>
+        <v>304073420</v>
       </c>
       <c r="F20" t="n">
-        <v>67827.00916686241</v>
+        <v>66384.97659683149</v>
       </c>
       <c r="G20" t="n">
-        <v>122196.4995201003</v>
+        <v>121857.4654621853</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>50091349</v>
+        <v>50536673</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30588610</v>
+        <v>30429578</v>
       </c>
       <c r="E21" t="n">
-        <v>136957755</v>
+        <v>136245703</v>
       </c>
       <c r="F21" t="n">
-        <v>39352.2142650583</v>
+        <v>50902.64450296338</v>
       </c>
       <c r="G21" t="n">
-        <v>70447.10123517728</v>
+        <v>64869.96705654795</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>8819895</v>
+        <v>8949233</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47497992</v>
+        <v>47816331</v>
       </c>
       <c r="E22" t="n">
-        <v>308011839</v>
+        <v>310076181</v>
       </c>
       <c r="F22" t="n">
-        <v>7575.021972041368</v>
+        <v>7814.497581803702</v>
       </c>
       <c r="G22" t="n">
-        <v>98541.24408580738</v>
+        <v>99466.3738509197</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>16950799</v>
+        <v>17188636</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125376563</v>
+        <v>125354512</v>
       </c>
       <c r="E23" t="n">
-        <v>2076338562</v>
+        <v>2075973394</v>
       </c>
       <c r="F23" t="n">
-        <v>344862.7597300513</v>
+        <v>345111.127938487</v>
       </c>
       <c r="G23" t="n">
-        <v>326415.2240034166</v>
+        <v>342513.2625281131</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>5080031</v>
+        <v>5076187</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6706186</v>
+        <v>6740635</v>
       </c>
       <c r="E24" t="n">
-        <v>34501288</v>
+        <v>34678518</v>
       </c>
       <c r="F24" t="n">
-        <v>1820.363552535532</v>
+        <v>2977.665144760457</v>
       </c>
       <c r="G24" t="n">
-        <v>1075.229288625917</v>
+        <v>865.7153553904017</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="I24" t="n">
-        <v>885688</v>
+        <v>894978</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24200911</v>
+        <v>23833984</v>
       </c>
       <c r="E25" t="n">
-        <v>24201244</v>
+        <v>23833984</v>
       </c>
       <c r="F25" t="n">
-        <v>16729.62625769981</v>
+        <v>6003.951260357157</v>
       </c>
       <c r="G25" t="n">
-        <v>7585.342033873608</v>
+        <v>10822.98768990666</v>
       </c>
       <c r="H25" t="n">
         <v>0.19</v>
       </c>
       <c r="I25" t="n">
-        <v>1855266</v>
+        <v>1825997</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>311821984</v>
+        <v>313623198</v>
       </c>
       <c r="E27" t="n">
-        <v>576941781</v>
+        <v>580274438</v>
       </c>
       <c r="F27" t="n">
-        <v>99591.27205057106</v>
+        <v>84183.6414871147</v>
       </c>
       <c r="G27" t="n">
-        <v>101488.6637672187</v>
+        <v>92172.26677165364</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I27" t="n">
-        <v>12816752</v>
+        <v>12884070</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44793660</v>
+        <v>45055258</v>
       </c>
       <c r="E28" t="n">
-        <v>44793660</v>
+        <v>45055258</v>
       </c>
       <c r="F28" t="n">
-        <v>27727.9606583446</v>
+        <v>24293.71608045638</v>
       </c>
       <c r="G28" t="n">
-        <v>41036.66999607946</v>
+        <v>48454.57910487584</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>8998592</v>
+        <v>8033937</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>599698255</v>
+        <v>603478161</v>
       </c>
       <c r="E29" t="n">
-        <v>2322542861</v>
+        <v>2337181881</v>
       </c>
       <c r="F29" t="n">
-        <v>80613.05912754925</v>
+        <v>72269.14081589048</v>
       </c>
       <c r="G29" t="n">
-        <v>234245.7752336417</v>
+        <v>237483.1110495411</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>30969122</v>
+        <v>31463016</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>112062928</v>
+        <v>113747301</v>
       </c>
       <c r="E30" t="n">
-        <v>429891430</v>
+        <v>436352956</v>
       </c>
       <c r="F30" t="n">
-        <v>138469.2358651233</v>
+        <v>132323.497235343</v>
       </c>
       <c r="G30" t="n">
-        <v>178985.8029973581</v>
+        <v>178176.0477216915</v>
       </c>
       <c r="H30" t="n">
         <v>0.05</v>
       </c>
       <c r="I30" t="n">
-        <v>20562052</v>
+        <v>20723382</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>31574765</v>
+        <v>31642485</v>
       </c>
       <c r="F31" t="n">
-        <v>15436.18419760073</v>
+        <v>12457.45908022576</v>
       </c>
       <c r="G31" t="n">
-        <v>19248.5158928574</v>
+        <v>15553.08008082691</v>
       </c>
       <c r="H31" t="n">
         <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>5609812</v>
+        <v>5605263</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>86678065</v>
+        <v>87083956</v>
       </c>
       <c r="E32" t="n">
-        <v>320425010</v>
+        <v>321924981</v>
       </c>
       <c r="F32" t="n">
-        <v>12523.25082755583</v>
+        <v>12577.92476677183</v>
       </c>
       <c r="G32" t="n">
-        <v>4175.847690098081</v>
+        <v>3858.087595215211</v>
       </c>
       <c r="H32" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>345093</v>
+        <v>341000</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>489214842</v>
+        <v>492572772</v>
       </c>
       <c r="E33" t="n">
-        <v>1703780105</v>
+        <v>1715474711</v>
       </c>
       <c r="F33" t="n">
-        <v>245669.6165500469</v>
+        <v>236270.7452613367</v>
       </c>
       <c r="G33" t="n">
-        <v>282359.3894753421</v>
+        <v>282773.1206524699</v>
       </c>
       <c r="H33" t="n">
         <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>31508658</v>
+        <v>31371925</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>100881391</v>
+        <v>100804004</v>
       </c>
       <c r="E34" t="n">
-        <v>152846963</v>
+        <v>152729714</v>
       </c>
       <c r="F34" t="n">
-        <v>43797.4516164755</v>
+        <v>210806.5313124075</v>
       </c>
       <c r="G34" t="n">
-        <v>64099.45657394241</v>
+        <v>65044.66355442921</v>
       </c>
       <c r="H34" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I34" t="n">
-        <v>7243849</v>
+        <v>7224600</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2643615</v>
+        <v>2646031</v>
       </c>
       <c r="E35" t="n">
-        <v>10574461</v>
+        <v>10584123</v>
       </c>
       <c r="F35" t="n">
-        <v>43327.96632134771</v>
+        <v>76799.1916911142</v>
       </c>
       <c r="G35" t="n">
-        <v>45274.84673592813</v>
+        <v>63054.49170567007</v>
       </c>
       <c r="H35" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="I35" t="n">
-        <v>5143797</v>
+        <v>5322744</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>213654455</v>
+        <v>215537507</v>
       </c>
       <c r="E36" t="n">
-        <v>656907046</v>
+        <v>662696722</v>
       </c>
       <c r="F36" t="n">
-        <v>152542.2069296207</v>
+        <v>147608.4080808233</v>
       </c>
       <c r="G36" t="n">
-        <v>233485.4559054233</v>
+        <v>239296.6059936357</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>11494621</v>
+        <v>11508337</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>150421392</v>
+        <v>151453617</v>
       </c>
       <c r="E37" t="n">
-        <v>392971714</v>
+        <v>395668374</v>
       </c>
       <c r="F37" t="n">
-        <v>57130.65201447799</v>
+        <v>55883.94416191171</v>
       </c>
       <c r="G37" t="n">
-        <v>49805.46153414932</v>
+        <v>45343.97306149801</v>
       </c>
       <c r="H37" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="I37" t="n">
-        <v>6583567</v>
+        <v>6487870</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>400158770</v>
+        <v>400610131</v>
       </c>
       <c r="E38" t="n">
-        <v>2286621544</v>
+        <v>2289200747</v>
       </c>
       <c r="F38" t="n">
-        <v>38896.13090056225</v>
+        <v>32890.20211517321</v>
       </c>
       <c r="G38" t="n">
-        <v>92075.72825345308</v>
+        <v>95035.84176109565</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>36377825</v>
+        <v>36447949</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250220.xlsx
+++ b/OkxData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>246802276</v>
+        <v>246569164</v>
       </c>
       <c r="E2" t="n">
-        <v>1547662380</v>
+        <v>1546200569</v>
       </c>
       <c r="F2" t="n">
-        <v>176905.3004890272</v>
+        <v>194718.1827090405</v>
       </c>
       <c r="G2" t="n">
-        <v>200730.4481411159</v>
+        <v>204811.7896048048</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>15548484</v>
+        <v>15528799</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>140916345</v>
+        <v>140344502</v>
       </c>
       <c r="E3" t="n">
-        <v>156157818</v>
+        <v>155524125</v>
       </c>
       <c r="F3" t="n">
-        <v>70363.52571860359</v>
+        <v>72648.82583072101</v>
       </c>
       <c r="G3" t="n">
-        <v>171310.0917147491</v>
+        <v>177673.2970451739</v>
       </c>
       <c r="H3" t="n">
         <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>33950596</v>
+        <v>34150906</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>556651278</v>
+        <v>554844450</v>
       </c>
       <c r="E4" t="n">
-        <v>696288016</v>
+        <v>694027943</v>
       </c>
       <c r="F4" t="n">
-        <v>112132.2893500154</v>
+        <v>118421.6282404566</v>
       </c>
       <c r="G4" t="n">
-        <v>153525.5146222694</v>
+        <v>150561.0706780173</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>53448864</v>
+        <v>53630418</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>137014516</v>
+        <v>136466034</v>
       </c>
       <c r="E5" t="n">
-        <v>137014516</v>
+        <v>136466034</v>
       </c>
       <c r="F5" t="n">
-        <v>53677.92432341083</v>
+        <v>66820.59238384626</v>
       </c>
       <c r="G5" t="n">
-        <v>112845.6486376511</v>
+        <v>107604.2103980043</v>
       </c>
       <c r="H5" t="n">
         <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>65929730</v>
+        <v>65923658</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>254285737</v>
+        <v>253414633</v>
       </c>
       <c r="E6" t="n">
-        <v>254285737</v>
+        <v>253414633</v>
       </c>
       <c r="F6" t="n">
-        <v>61990.29335880112</v>
+        <v>65637.86073583514</v>
       </c>
       <c r="G6" t="n">
-        <v>112805.7241801308</v>
+        <v>108513.1164454967</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>14858709</v>
+        <v>14859101</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>100342448</v>
+        <v>100173539</v>
       </c>
       <c r="E7" t="n">
-        <v>125115271</v>
+        <v>124904661</v>
       </c>
       <c r="F7" t="n">
-        <v>16739.39002920136</v>
+        <v>13183.69020098668</v>
       </c>
       <c r="G7" t="n">
-        <v>39407.27686088644</v>
+        <v>38993.81232243779</v>
       </c>
       <c r="H7" t="n">
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>11490931</v>
+        <v>11494532</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73359828</v>
+        <v>73126852</v>
       </c>
       <c r="E8" t="n">
-        <v>152992495</v>
+        <v>152506622</v>
       </c>
       <c r="F8" t="n">
-        <v>39541.81923328646</v>
+        <v>39986.59983126294</v>
       </c>
       <c r="G8" t="n">
-        <v>46899.09796586267</v>
+        <v>46531.64095814324</v>
       </c>
       <c r="H8" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>14354184</v>
+        <v>14375721</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>144699542</v>
+        <v>144624710</v>
       </c>
       <c r="E9" t="n">
-        <v>144742849</v>
+        <v>144668604</v>
       </c>
       <c r="F9" t="n">
-        <v>7094.533867510461</v>
+        <v>8350.969152753025</v>
       </c>
       <c r="G9" t="n">
-        <v>17613.69141596302</v>
+        <v>16137.96515581802</v>
       </c>
       <c r="H9" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I9" t="n">
-        <v>2624164</v>
+        <v>2614235</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>628620934</v>
+        <v>630658284</v>
       </c>
       <c r="E10" t="n">
-        <v>628620934</v>
+        <v>630658284</v>
       </c>
       <c r="F10" t="n">
-        <v>400449.7364039264</v>
+        <v>402528.6607301216</v>
       </c>
       <c r="G10" t="n">
-        <v>549866.708332175</v>
+        <v>530572.2140574929</v>
       </c>
       <c r="H10" t="n">
         <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>255503488</v>
+        <v>268749191</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71771292</v>
+        <v>71154229</v>
       </c>
       <c r="E11" t="n">
-        <v>82348416</v>
+        <v>81640414</v>
       </c>
       <c r="F11" t="n">
-        <v>4687.134929573734</v>
+        <v>4113.902615227356</v>
       </c>
       <c r="G11" t="n">
-        <v>6628.533488952741</v>
+        <v>8590.301786867338</v>
       </c>
       <c r="H11" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="I11" t="n">
-        <v>1076463</v>
+        <v>1187434</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>267680819</v>
+        <v>267261132</v>
       </c>
       <c r="E12" t="n">
-        <v>1155459014</v>
+        <v>1153647412</v>
       </c>
       <c r="F12" t="n">
-        <v>257862.3820800505</v>
+        <v>320987.7695841147</v>
       </c>
       <c r="G12" t="n">
-        <v>378491.2982868747</v>
+        <v>385913.7460679544</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>111437054</v>
+        <v>110779149</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>114510000</v>
+        <v>114561609</v>
       </c>
       <c r="E13" t="n">
-        <v>114510000</v>
+        <v>114561609</v>
       </c>
       <c r="F13" t="n">
-        <v>7938.938806006133</v>
+        <v>8402.087743130322</v>
       </c>
       <c r="G13" t="n">
-        <v>3098.530445224068</v>
+        <v>3792.238806188689</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>6006147</v>
+        <v>5989434</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21272780</v>
+        <v>21138374</v>
       </c>
       <c r="E14" t="n">
-        <v>53181951</v>
+        <v>52845935</v>
       </c>
       <c r="F14" t="n">
-        <v>5763.15603957283</v>
+        <v>4898.284892225099</v>
       </c>
       <c r="G14" t="n">
-        <v>13890.6747213433</v>
+        <v>13527.79780223238</v>
       </c>
       <c r="H14" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I14" t="n">
-        <v>1956388</v>
+        <v>2038328</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11738291</v>
+        <v>11717992</v>
       </c>
       <c r="E15" t="n">
-        <v>17260935</v>
+        <v>17231086</v>
       </c>
       <c r="F15" t="n">
-        <v>2769.961476042932</v>
+        <v>994.3527340255544</v>
       </c>
       <c r="G15" t="n">
-        <v>8578.504715312276</v>
+        <v>9215.06854762273</v>
       </c>
       <c r="H15" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="I15" t="n">
-        <v>1338100</v>
+        <v>1333211</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>32335926</v>
+        <v>32274679</v>
       </c>
       <c r="E16" t="n">
-        <v>100683698</v>
+        <v>100492994</v>
       </c>
       <c r="F16" t="n">
-        <v>9336.517437010003</v>
+        <v>9796.935561990929</v>
       </c>
       <c r="G16" t="n">
-        <v>24630.43464626025</v>
+        <v>30999.3713996519</v>
       </c>
       <c r="H16" t="n">
         <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>12129922</v>
+        <v>12153639</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>339473719</v>
+        <v>337806845</v>
       </c>
       <c r="E17" t="n">
-        <v>3054116075</v>
+        <v>3039119848</v>
       </c>
       <c r="F17" t="n">
-        <v>1056026.486367537</v>
+        <v>1045774.156079113</v>
       </c>
       <c r="G17" t="n">
-        <v>1102172.239527427</v>
+        <v>1092333.021218349</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>37118673</v>
+        <v>37169520</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15102765</v>
+        <v>15082954</v>
       </c>
       <c r="E18" t="n">
-        <v>92569814</v>
+        <v>92448385</v>
       </c>
       <c r="F18" t="n">
-        <v>27958.44290094052</v>
+        <v>29212.48974152881</v>
       </c>
       <c r="G18" t="n">
-        <v>37462.80240312678</v>
+        <v>37162.62252062695</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>11683296</v>
+        <v>11703976</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47101287</v>
+        <v>47070104</v>
       </c>
       <c r="E19" t="n">
-        <v>202907194</v>
+        <v>202772862</v>
       </c>
       <c r="F19" t="n">
-        <v>54831.5043925567</v>
+        <v>49508.09537512069</v>
       </c>
       <c r="G19" t="n">
-        <v>62346.91120979608</v>
+        <v>68317.6630401517</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I19" t="n">
-        <v>8752461</v>
+        <v>8577701</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>304073420</v>
+        <v>303101823</v>
       </c>
       <c r="E20" t="n">
-        <v>304073420</v>
+        <v>303101823</v>
       </c>
       <c r="F20" t="n">
-        <v>66384.97659683149</v>
+        <v>68054.9807062453</v>
       </c>
       <c r="G20" t="n">
-        <v>121857.4654621853</v>
+        <v>124488.0486902964</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>50536673</v>
+        <v>50386654</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30429578</v>
+        <v>30405279</v>
       </c>
       <c r="E21" t="n">
-        <v>136245703</v>
+        <v>136136907</v>
       </c>
       <c r="F21" t="n">
-        <v>50902.64450296338</v>
+        <v>53839.63068446468</v>
       </c>
       <c r="G21" t="n">
-        <v>64869.96705654795</v>
+        <v>70656.88223310946</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>8949233</v>
+        <v>8887370</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47816331</v>
+        <v>47716687</v>
       </c>
       <c r="E22" t="n">
-        <v>310076181</v>
+        <v>309430013</v>
       </c>
       <c r="F22" t="n">
-        <v>7814.497581803702</v>
+        <v>7319.248831902456</v>
       </c>
       <c r="G22" t="n">
-        <v>99466.3738509197</v>
+        <v>37187.0996015631</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I22" t="n">
-        <v>17188636</v>
+        <v>16902563</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125354512</v>
+        <v>125420598</v>
       </c>
       <c r="E23" t="n">
-        <v>2075973394</v>
+        <v>2077067824</v>
       </c>
       <c r="F23" t="n">
-        <v>345111.127938487</v>
+        <v>346635.7844382382</v>
       </c>
       <c r="G23" t="n">
-        <v>342513.2625281131</v>
+        <v>342117.9676551289</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>5076187</v>
+        <v>5066067</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6740635</v>
+        <v>6767877</v>
       </c>
       <c r="E24" t="n">
-        <v>34678518</v>
+        <v>34818670</v>
       </c>
       <c r="F24" t="n">
-        <v>2977.665144760457</v>
+        <v>1337.230802451804</v>
       </c>
       <c r="G24" t="n">
-        <v>865.7153553904017</v>
+        <v>640.9948545991275</v>
       </c>
       <c r="H24" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="I24" t="n">
-        <v>894978</v>
+        <v>898800</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23833984</v>
+        <v>24015469</v>
       </c>
       <c r="E25" t="n">
-        <v>23833984</v>
+        <v>24015469</v>
       </c>
       <c r="F25" t="n">
-        <v>6003.951260357157</v>
+        <v>5742.071355266668</v>
       </c>
       <c r="G25" t="n">
-        <v>10822.98768990666</v>
+        <v>10345.12068295305</v>
       </c>
       <c r="H25" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="I25" t="n">
-        <v>1825997</v>
+        <v>1821634</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>313623198</v>
+        <v>312788069</v>
       </c>
       <c r="E27" t="n">
-        <v>580274438</v>
+        <v>578729258</v>
       </c>
       <c r="F27" t="n">
-        <v>84183.6414871147</v>
+        <v>88712.38235901318</v>
       </c>
       <c r="G27" t="n">
-        <v>92172.26677165364</v>
+        <v>87968.23377813106</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>12884070</v>
+        <v>12899326</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45055258</v>
+        <v>44855447</v>
       </c>
       <c r="E28" t="n">
-        <v>45055258</v>
+        <v>44855447</v>
       </c>
       <c r="F28" t="n">
-        <v>24293.71608045638</v>
+        <v>25343.12677925888</v>
       </c>
       <c r="G28" t="n">
-        <v>48454.57910487584</v>
+        <v>42824.39484833051</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>8033937</v>
+        <v>7997539</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>603478161</v>
+        <v>602707899</v>
       </c>
       <c r="E29" t="n">
-        <v>2337181881</v>
+        <v>2334198771</v>
       </c>
       <c r="F29" t="n">
-        <v>72269.14081589048</v>
+        <v>74258.84139539117</v>
       </c>
       <c r="G29" t="n">
-        <v>237483.1110495411</v>
+        <v>230573.5955292431</v>
       </c>
       <c r="H29" t="n">
         <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>31463016</v>
+        <v>32136377</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>113747301</v>
+        <v>114093632</v>
       </c>
       <c r="E30" t="n">
-        <v>436352956</v>
+        <v>437681536</v>
       </c>
       <c r="F30" t="n">
-        <v>132323.497235343</v>
+        <v>128416.8479767178</v>
       </c>
       <c r="G30" t="n">
-        <v>178176.0477216915</v>
+        <v>172706.4970333761</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>20723382</v>
+        <v>21192128</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>31642485</v>
+        <v>31464504</v>
       </c>
       <c r="F31" t="n">
-        <v>12457.45908022576</v>
+        <v>12141.98173971763</v>
       </c>
       <c r="G31" t="n">
-        <v>15553.08008082691</v>
+        <v>30027.26441304843</v>
       </c>
       <c r="H31" t="n">
         <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>5605263</v>
+        <v>5575360</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>87083956</v>
+        <v>87357948</v>
       </c>
       <c r="E32" t="n">
-        <v>321924981</v>
+        <v>322937253</v>
       </c>
       <c r="F32" t="n">
-        <v>12577.92476677183</v>
+        <v>12986.20483938059</v>
       </c>
       <c r="G32" t="n">
-        <v>3858.087595215211</v>
+        <v>3617.989703474116</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="I32" t="n">
-        <v>341000</v>
+        <v>343174</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>492572772</v>
+        <v>491973421</v>
       </c>
       <c r="E33" t="n">
-        <v>1715474711</v>
+        <v>1713387361</v>
       </c>
       <c r="F33" t="n">
-        <v>236270.7452613367</v>
+        <v>244462.0412583804</v>
       </c>
       <c r="G33" t="n">
-        <v>282773.1206524699</v>
+        <v>280406.4482651129</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>31371925</v>
+        <v>31137754</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>100804004</v>
+        <v>100416055</v>
       </c>
       <c r="E34" t="n">
-        <v>152729714</v>
+        <v>152141925</v>
       </c>
       <c r="F34" t="n">
-        <v>210806.5313124075</v>
+        <v>43920.86893802768</v>
       </c>
       <c r="G34" t="n">
-        <v>65044.66355442921</v>
+        <v>63356.98295006185</v>
       </c>
       <c r="H34" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I34" t="n">
-        <v>7224600</v>
+        <v>7225843</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2646031</v>
+        <v>2647106</v>
       </c>
       <c r="E35" t="n">
-        <v>10584123</v>
+        <v>10588426</v>
       </c>
       <c r="F35" t="n">
-        <v>76799.1916911142</v>
+        <v>50726.47922318092</v>
       </c>
       <c r="G35" t="n">
-        <v>63054.49170567007</v>
+        <v>81011.38146278019</v>
       </c>
       <c r="H35" t="n">
         <v>0.09</v>
       </c>
       <c r="I35" t="n">
-        <v>5322744</v>
+        <v>5352632</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>215537507</v>
+        <v>216194129</v>
       </c>
       <c r="E36" t="n">
-        <v>662696722</v>
+        <v>664715588</v>
       </c>
       <c r="F36" t="n">
-        <v>147608.4080808233</v>
+        <v>150652.772354617</v>
       </c>
       <c r="G36" t="n">
-        <v>239296.6059936357</v>
+        <v>241371.9865540489</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>11508337</v>
+        <v>11562323</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>151453617</v>
+        <v>149512807</v>
       </c>
       <c r="E37" t="n">
-        <v>395668374</v>
+        <v>390598061</v>
       </c>
       <c r="F37" t="n">
-        <v>55883.94416191171</v>
+        <v>46661.71252079135</v>
       </c>
       <c r="G37" t="n">
-        <v>45343.97306149801</v>
+        <v>44494.8836534968</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
       <c r="I37" t="n">
-        <v>6487870</v>
+        <v>6420817</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>400610131</v>
+        <v>401950241</v>
       </c>
       <c r="E38" t="n">
-        <v>2289200747</v>
+        <v>2296858518</v>
       </c>
       <c r="F38" t="n">
-        <v>32890.20211517321</v>
+        <v>20012.87257683306</v>
       </c>
       <c r="G38" t="n">
-        <v>95035.84176109565</v>
+        <v>77853.26917805904</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>36447949</v>
+        <v>37007633</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250220.xlsx
+++ b/OkxData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>246569164</v>
+        <v>246566552</v>
       </c>
       <c r="E2" t="n">
-        <v>1546200569</v>
+        <v>1546184187</v>
       </c>
       <c r="F2" t="n">
-        <v>194718.1827090405</v>
+        <v>192899.3940923545</v>
       </c>
       <c r="G2" t="n">
-        <v>204811.7896048048</v>
+        <v>204293.6482272442</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>15528799</v>
+        <v>15456219</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>140344502</v>
+        <v>140501285</v>
       </c>
       <c r="E3" t="n">
-        <v>155524125</v>
+        <v>155697798</v>
       </c>
       <c r="F3" t="n">
-        <v>72648.82583072101</v>
+        <v>76088.17754300706</v>
       </c>
       <c r="G3" t="n">
-        <v>177673.2970451739</v>
+        <v>190210.7884137289</v>
       </c>
       <c r="H3" t="n">
         <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>34150906</v>
+        <v>33992356</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>554844450</v>
+        <v>559199239</v>
       </c>
       <c r="E4" t="n">
-        <v>694027943</v>
+        <v>699475136</v>
       </c>
       <c r="F4" t="n">
-        <v>118421.6282404566</v>
+        <v>120937.5781474853</v>
       </c>
       <c r="G4" t="n">
-        <v>150561.0706780173</v>
+        <v>159877.0281894096</v>
       </c>
       <c r="H4" t="n">
         <v>0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>53630418</v>
+        <v>54598706</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>136466034</v>
+        <v>136634851</v>
       </c>
       <c r="E5" t="n">
-        <v>136466034</v>
+        <v>136634851</v>
       </c>
       <c r="F5" t="n">
-        <v>66820.59238384626</v>
+        <v>63662.82668480514</v>
       </c>
       <c r="G5" t="n">
-        <v>107604.2103980043</v>
+        <v>109978.6669443331</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>65923658</v>
+        <v>66039753</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>253414633</v>
+        <v>254142088</v>
       </c>
       <c r="E6" t="n">
-        <v>253414633</v>
+        <v>254142088</v>
       </c>
       <c r="F6" t="n">
-        <v>65637.86073583514</v>
+        <v>69087.77137646536</v>
       </c>
       <c r="G6" t="n">
-        <v>108513.1164454967</v>
+        <v>103040.2442365363</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>14859101</v>
+        <v>14925470</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>100173539</v>
+        <v>99976979</v>
       </c>
       <c r="E7" t="n">
-        <v>124904661</v>
+        <v>124659573</v>
       </c>
       <c r="F7" t="n">
-        <v>13183.69020098668</v>
+        <v>13892.47296526751</v>
       </c>
       <c r="G7" t="n">
-        <v>38993.81232243779</v>
+        <v>47273.79041515894</v>
       </c>
       <c r="H7" t="n">
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>11494532</v>
+        <v>11303014</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73126852</v>
+        <v>73594837</v>
       </c>
       <c r="E8" t="n">
-        <v>152506622</v>
+        <v>153482607</v>
       </c>
       <c r="F8" t="n">
-        <v>39986.59983126294</v>
+        <v>36173.39815335225</v>
       </c>
       <c r="G8" t="n">
-        <v>46531.64095814324</v>
+        <v>46838.9136173865</v>
       </c>
       <c r="H8" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>14375721</v>
+        <v>14475192</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>144624710</v>
+        <v>145045398</v>
       </c>
       <c r="E9" t="n">
-        <v>144668604</v>
+        <v>145090030</v>
       </c>
       <c r="F9" t="n">
-        <v>8350.969152753025</v>
+        <v>9813.452035492974</v>
       </c>
       <c r="G9" t="n">
-        <v>16137.96515581802</v>
+        <v>14958.70454360562</v>
       </c>
       <c r="H9" t="n">
         <v>0.19</v>
       </c>
       <c r="I9" t="n">
-        <v>2614235</v>
+        <v>2579789</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>630658284</v>
+        <v>630101973</v>
       </c>
       <c r="E10" t="n">
-        <v>630658284</v>
+        <v>630101973</v>
       </c>
       <c r="F10" t="n">
-        <v>402528.6607301216</v>
+        <v>394535.1961393617</v>
       </c>
       <c r="G10" t="n">
-        <v>530572.2140574929</v>
+        <v>506693.2521630173</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I10" t="n">
-        <v>268749191</v>
+        <v>264923270</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71154229</v>
+        <v>71340806</v>
       </c>
       <c r="E11" t="n">
-        <v>81640414</v>
+        <v>81854487</v>
       </c>
       <c r="F11" t="n">
-        <v>4113.902615227356</v>
+        <v>2632.134178592704</v>
       </c>
       <c r="G11" t="n">
-        <v>8590.301786867338</v>
+        <v>5490.992266443452</v>
       </c>
       <c r="H11" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="I11" t="n">
-        <v>1187434</v>
+        <v>1218764</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>267261132</v>
+        <v>267684764</v>
       </c>
       <c r="E12" t="n">
-        <v>1153647412</v>
+        <v>1155476044</v>
       </c>
       <c r="F12" t="n">
-        <v>320987.7695841147</v>
+        <v>336470.6688809802</v>
       </c>
       <c r="G12" t="n">
-        <v>385913.7460679544</v>
+        <v>374447.6531044882</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>110779149</v>
+        <v>110560195</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>114561609</v>
+        <v>115062471</v>
       </c>
       <c r="E13" t="n">
-        <v>114561609</v>
+        <v>115062471</v>
       </c>
       <c r="F13" t="n">
-        <v>8402.087743130322</v>
+        <v>8360.675728758586</v>
       </c>
       <c r="G13" t="n">
-        <v>3792.238806188689</v>
+        <v>3623.281215275617</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I13" t="n">
-        <v>5989434</v>
+        <v>6000038</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21138374</v>
+        <v>21102752</v>
       </c>
       <c r="E14" t="n">
-        <v>52845935</v>
+        <v>52756879</v>
       </c>
       <c r="F14" t="n">
-        <v>4898.284892225099</v>
+        <v>6600.577647219936</v>
       </c>
       <c r="G14" t="n">
-        <v>13527.79780223238</v>
+        <v>13233.51771984153</v>
       </c>
       <c r="H14" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="I14" t="n">
-        <v>2038328</v>
+        <v>1932622</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11717992</v>
+        <v>11896398</v>
       </c>
       <c r="E15" t="n">
-        <v>17231086</v>
+        <v>17493428</v>
       </c>
       <c r="F15" t="n">
-        <v>994.3527340255544</v>
+        <v>2446.082499366927</v>
       </c>
       <c r="G15" t="n">
-        <v>9215.06854762273</v>
+        <v>9517.056610608359</v>
       </c>
       <c r="H15" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I15" t="n">
-        <v>1333211</v>
+        <v>1642398</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>32274679</v>
+        <v>32203226</v>
       </c>
       <c r="E16" t="n">
-        <v>100492994</v>
+        <v>100270513</v>
       </c>
       <c r="F16" t="n">
-        <v>9796.935561990929</v>
+        <v>7091.113098583073</v>
       </c>
       <c r="G16" t="n">
-        <v>30999.3713996519</v>
+        <v>26856.15153595695</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="I16" t="n">
-        <v>12153639</v>
+        <v>12215064</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>337806845</v>
+        <v>337934350</v>
       </c>
       <c r="E17" t="n">
-        <v>3039119848</v>
+        <v>3040266957</v>
       </c>
       <c r="F17" t="n">
-        <v>1045774.156079113</v>
+        <v>1042191.892188855</v>
       </c>
       <c r="G17" t="n">
-        <v>1092333.021218349</v>
+        <v>1081327.645051961</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>37169520</v>
+        <v>37314594</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15082954</v>
+        <v>15104756</v>
       </c>
       <c r="E18" t="n">
-        <v>92448385</v>
+        <v>92582016</v>
       </c>
       <c r="F18" t="n">
-        <v>29212.48974152881</v>
+        <v>28406.6909450384</v>
       </c>
       <c r="G18" t="n">
-        <v>37162.62252062695</v>
+        <v>33838.43618266532</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I18" t="n">
-        <v>11703976</v>
+        <v>11714887</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47070104</v>
+        <v>47079154</v>
       </c>
       <c r="E19" t="n">
-        <v>202772862</v>
+        <v>202811849</v>
       </c>
       <c r="F19" t="n">
-        <v>49508.09537512069</v>
+        <v>46269.235197477</v>
       </c>
       <c r="G19" t="n">
-        <v>68317.6630401517</v>
+        <v>61781.22483476372</v>
       </c>
       <c r="H19" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I19" t="n">
-        <v>8577701</v>
+        <v>8657283</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>303101823</v>
+        <v>305004499</v>
       </c>
       <c r="E20" t="n">
-        <v>303101823</v>
+        <v>305004499</v>
       </c>
       <c r="F20" t="n">
-        <v>68054.9807062453</v>
+        <v>72885.12974621427</v>
       </c>
       <c r="G20" t="n">
-        <v>124488.0486902964</v>
+        <v>126975.3362618002</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>50386654</v>
+        <v>50317695</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30405279</v>
+        <v>30518177</v>
       </c>
       <c r="E21" t="n">
-        <v>136136907</v>
+        <v>136642400</v>
       </c>
       <c r="F21" t="n">
-        <v>53839.63068446468</v>
+        <v>53299.24773104125</v>
       </c>
       <c r="G21" t="n">
-        <v>70656.88223310946</v>
+        <v>75727.14225601179</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>8887370</v>
+        <v>8815723</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47716687</v>
+        <v>48062909</v>
       </c>
       <c r="E22" t="n">
-        <v>309430013</v>
+        <v>311675176</v>
       </c>
       <c r="F22" t="n">
-        <v>7319.248831902456</v>
+        <v>11551.49864416829</v>
       </c>
       <c r="G22" t="n">
-        <v>37187.0996015631</v>
+        <v>33086.96053228497</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I22" t="n">
-        <v>16902563</v>
+        <v>16703622</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125420598</v>
+        <v>125210831</v>
       </c>
       <c r="E23" t="n">
-        <v>2077067824</v>
+        <v>2073593919</v>
       </c>
       <c r="F23" t="n">
-        <v>346635.7844382382</v>
+        <v>351796.7892164551</v>
       </c>
       <c r="G23" t="n">
-        <v>342117.9676551289</v>
+        <v>326814.7396771362</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>5066067</v>
+        <v>5050677</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6767877</v>
+        <v>6857698</v>
       </c>
       <c r="E24" t="n">
-        <v>34818670</v>
+        <v>35280773</v>
       </c>
       <c r="F24" t="n">
-        <v>1337.230802451804</v>
+        <v>446.2851685809974</v>
       </c>
       <c r="G24" t="n">
-        <v>640.9948545991275</v>
+        <v>1442.896132944604</v>
       </c>
       <c r="H24" t="n">
-        <v>0.31</v>
+        <v>0.48</v>
       </c>
       <c r="I24" t="n">
-        <v>898800</v>
+        <v>854275</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24015469</v>
+        <v>24252437</v>
       </c>
       <c r="E25" t="n">
-        <v>24015469</v>
+        <v>24252523</v>
       </c>
       <c r="F25" t="n">
-        <v>5742.071355266668</v>
+        <v>18852.62193150795</v>
       </c>
       <c r="G25" t="n">
-        <v>10345.12068295305</v>
+        <v>8154.782111272366</v>
       </c>
       <c r="H25" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I25" t="n">
-        <v>1821634</v>
+        <v>1857282</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>312788069</v>
+        <v>312570442</v>
       </c>
       <c r="E27" t="n">
-        <v>578729258</v>
+        <v>578326598</v>
       </c>
       <c r="F27" t="n">
-        <v>88712.38235901318</v>
+        <v>88086.34542272275</v>
       </c>
       <c r="G27" t="n">
-        <v>87968.23377813106</v>
+        <v>91497.69843878562</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I27" t="n">
-        <v>12899326</v>
+        <v>12949289</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44855447</v>
+        <v>44890327</v>
       </c>
       <c r="E28" t="n">
-        <v>44855447</v>
+        <v>44890327</v>
       </c>
       <c r="F28" t="n">
-        <v>25343.12677925888</v>
+        <v>28609.624489039</v>
       </c>
       <c r="G28" t="n">
-        <v>42824.39484833051</v>
+        <v>43907.6102558532</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>7997539</v>
+        <v>8927178</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>602707899</v>
+        <v>600960502</v>
       </c>
       <c r="E29" t="n">
-        <v>2334198771</v>
+        <v>2327431359</v>
       </c>
       <c r="F29" t="n">
-        <v>74258.84139539117</v>
+        <v>86028.11057996601</v>
       </c>
       <c r="G29" t="n">
-        <v>230573.5955292431</v>
+        <v>231761.110754982</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>32136377</v>
+        <v>33072758</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>114093632</v>
+        <v>114564746</v>
       </c>
       <c r="E30" t="n">
-        <v>437681536</v>
+        <v>439488806</v>
       </c>
       <c r="F30" t="n">
-        <v>128416.8479767178</v>
+        <v>138062.5404355228</v>
       </c>
       <c r="G30" t="n">
-        <v>172706.4970333761</v>
+        <v>175405.0026722365</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>21192128</v>
+        <v>22552368</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>31464504</v>
+        <v>31190998</v>
       </c>
       <c r="F31" t="n">
-        <v>12141.98173971763</v>
+        <v>14233.39834063939</v>
       </c>
       <c r="G31" t="n">
-        <v>30027.26441304843</v>
+        <v>34015.33339084144</v>
       </c>
       <c r="H31" t="n">
         <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>5575360</v>
+        <v>5285542</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>87357948</v>
+        <v>86890619</v>
       </c>
       <c r="E32" t="n">
-        <v>322937253</v>
+        <v>321208432</v>
       </c>
       <c r="F32" t="n">
-        <v>12986.20483938059</v>
+        <v>12466.46406429578</v>
       </c>
       <c r="G32" t="n">
-        <v>3617.989703474116</v>
+        <v>3296.447403640079</v>
       </c>
       <c r="H32" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I32" t="n">
-        <v>343174</v>
+        <v>351940</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>491973421</v>
+        <v>491290523</v>
       </c>
       <c r="E33" t="n">
-        <v>1713387361</v>
+        <v>1711009045</v>
       </c>
       <c r="F33" t="n">
-        <v>244462.0412583804</v>
+        <v>238622.5865788604</v>
       </c>
       <c r="G33" t="n">
-        <v>280406.4482651129</v>
+        <v>277469.7014666446</v>
       </c>
       <c r="H33" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>31137754</v>
+        <v>30946680</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>100416055</v>
+        <v>100930430</v>
       </c>
       <c r="E34" t="n">
-        <v>152141925</v>
+        <v>152921263</v>
       </c>
       <c r="F34" t="n">
-        <v>43920.86893802768</v>
+        <v>207136.6024698361</v>
       </c>
       <c r="G34" t="n">
-        <v>63356.98295006185</v>
+        <v>351775.4089220187</v>
       </c>
       <c r="H34" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="I34" t="n">
-        <v>7225843</v>
+        <v>7283997</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2647106</v>
+        <v>2658520</v>
       </c>
       <c r="E35" t="n">
-        <v>10588426</v>
+        <v>10634082</v>
       </c>
       <c r="F35" t="n">
-        <v>50726.47922318092</v>
+        <v>50085.98850931006</v>
       </c>
       <c r="G35" t="n">
-        <v>81011.38146278019</v>
+        <v>77877.41980457396</v>
       </c>
       <c r="H35" t="n">
         <v>0.09</v>
       </c>
       <c r="I35" t="n">
-        <v>5352632</v>
+        <v>5639610</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>216194129</v>
+        <v>216966903</v>
       </c>
       <c r="E36" t="n">
-        <v>664715588</v>
+        <v>667091577</v>
       </c>
       <c r="F36" t="n">
-        <v>150652.772354617</v>
+        <v>156171.1859153656</v>
       </c>
       <c r="G36" t="n">
-        <v>241371.9865540489</v>
+        <v>240067.3782872034</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>11562323</v>
+        <v>11603481</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>149512807</v>
+        <v>147964583</v>
       </c>
       <c r="E37" t="n">
-        <v>390598061</v>
+        <v>386553369</v>
       </c>
       <c r="F37" t="n">
-        <v>46661.71252079135</v>
+        <v>48232.01909565492</v>
       </c>
       <c r="G37" t="n">
-        <v>44494.8836534968</v>
+        <v>49828.17482795074</v>
       </c>
       <c r="H37" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
       <c r="I37" t="n">
-        <v>6420817</v>
+        <v>6582454</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>401950241</v>
+        <v>402616889</v>
       </c>
       <c r="E38" t="n">
-        <v>2296858518</v>
+        <v>2300667936</v>
       </c>
       <c r="F38" t="n">
-        <v>20012.87257683306</v>
+        <v>25973.54544706941</v>
       </c>
       <c r="G38" t="n">
-        <v>77853.26917805904</v>
+        <v>77542.7925640358</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>37007633</v>
+        <v>36982010</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250220.xlsx
+++ b/OkxData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>246566552</v>
+        <v>245856108</v>
       </c>
       <c r="E2" t="n">
-        <v>1546184187</v>
+        <v>1541729095</v>
       </c>
       <c r="F2" t="n">
-        <v>192899.3940923545</v>
+        <v>182450.2864292318</v>
       </c>
       <c r="G2" t="n">
-        <v>204293.6482272442</v>
+        <v>203476.1915184238</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I2" t="n">
-        <v>15456219</v>
+        <v>15562362</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>140501285</v>
+        <v>139520497</v>
       </c>
       <c r="E3" t="n">
-        <v>155697798</v>
+        <v>154610515</v>
       </c>
       <c r="F3" t="n">
-        <v>76088.17754300706</v>
+        <v>73545.35399359194</v>
       </c>
       <c r="G3" t="n">
-        <v>190210.7884137289</v>
+        <v>165806.001774949</v>
       </c>
       <c r="H3" t="n">
         <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>33992356</v>
+        <v>34323486</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>559199239</v>
+        <v>559230196</v>
       </c>
       <c r="E4" t="n">
-        <v>699475136</v>
+        <v>699513859</v>
       </c>
       <c r="F4" t="n">
-        <v>120937.5781474853</v>
+        <v>116682.2157464487</v>
       </c>
       <c r="G4" t="n">
-        <v>159877.0281894096</v>
+        <v>156220.5477508782</v>
       </c>
       <c r="H4" t="n">
         <v>0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>54598706</v>
+        <v>54789269</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>136634851</v>
+        <v>136288550</v>
       </c>
       <c r="E5" t="n">
-        <v>136634851</v>
+        <v>136288550</v>
       </c>
       <c r="F5" t="n">
-        <v>63662.82668480514</v>
+        <v>46837.18010444465</v>
       </c>
       <c r="G5" t="n">
-        <v>109978.6669443331</v>
+        <v>120650.9346094672</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>66039753</v>
+        <v>67178405</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>254142088</v>
+        <v>254105946</v>
       </c>
       <c r="E6" t="n">
-        <v>254142088</v>
+        <v>254105946</v>
       </c>
       <c r="F6" t="n">
-        <v>69087.77137646536</v>
+        <v>63685.03396136405</v>
       </c>
       <c r="G6" t="n">
-        <v>103040.2442365363</v>
+        <v>106297.9467836649</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>14925470</v>
+        <v>15039094</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99976979</v>
+        <v>99877979</v>
       </c>
       <c r="E7" t="n">
-        <v>124659573</v>
+        <v>124536132</v>
       </c>
       <c r="F7" t="n">
-        <v>13892.47296526751</v>
+        <v>16754.29608453859</v>
       </c>
       <c r="G7" t="n">
-        <v>47273.79041515894</v>
+        <v>45254.185791428</v>
       </c>
       <c r="H7" t="n">
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>11303014</v>
+        <v>11306158</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73594837</v>
+        <v>73059824</v>
       </c>
       <c r="E8" t="n">
-        <v>153482607</v>
+        <v>152366835</v>
       </c>
       <c r="F8" t="n">
-        <v>36173.39815335225</v>
+        <v>55992.29710057817</v>
       </c>
       <c r="G8" t="n">
-        <v>46838.9136173865</v>
+        <v>47963.89981261925</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I8" t="n">
-        <v>14475192</v>
+        <v>14508447</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>145045398</v>
+        <v>144947861</v>
       </c>
       <c r="E9" t="n">
-        <v>145090030</v>
+        <v>144993047</v>
       </c>
       <c r="F9" t="n">
-        <v>9813.452035492974</v>
+        <v>8944.918969585851</v>
       </c>
       <c r="G9" t="n">
-        <v>14958.70454360562</v>
+        <v>14996.05849976354</v>
       </c>
       <c r="H9" t="n">
         <v>0.19</v>
       </c>
       <c r="I9" t="n">
-        <v>2579789</v>
+        <v>2528971</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>630101973</v>
+        <v>630377242</v>
       </c>
       <c r="E10" t="n">
-        <v>630101973</v>
+        <v>630377242</v>
       </c>
       <c r="F10" t="n">
-        <v>394535.1961393617</v>
+        <v>388315.280236994</v>
       </c>
       <c r="G10" t="n">
-        <v>506693.2521630173</v>
+        <v>533419.6790753487</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>264923270</v>
+        <v>279768137</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71340806</v>
+        <v>70895137</v>
       </c>
       <c r="E11" t="n">
-        <v>81854487</v>
+        <v>81343140</v>
       </c>
       <c r="F11" t="n">
-        <v>2632.134178592704</v>
+        <v>2682.989141185737</v>
       </c>
       <c r="G11" t="n">
-        <v>5490.992266443452</v>
+        <v>4935.305244291205</v>
       </c>
       <c r="H11" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="I11" t="n">
-        <v>1218764</v>
+        <v>1207802</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>267684764</v>
+        <v>266759091</v>
       </c>
       <c r="E12" t="n">
-        <v>1155476044</v>
+        <v>1151480327</v>
       </c>
       <c r="F12" t="n">
-        <v>336470.6688809802</v>
+        <v>341325.6002620322</v>
       </c>
       <c r="G12" t="n">
-        <v>374447.6531044882</v>
+        <v>361575.2498196513</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>110560195</v>
+        <v>110095673</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>115062471</v>
+        <v>114832568</v>
       </c>
       <c r="E13" t="n">
-        <v>115062471</v>
+        <v>114832568</v>
       </c>
       <c r="F13" t="n">
-        <v>8360.675728758586</v>
+        <v>8198.282267164699</v>
       </c>
       <c r="G13" t="n">
-        <v>3623.281215275617</v>
+        <v>3767.378326073876</v>
       </c>
       <c r="H13" t="n">
-        <v>0.18</v>
+        <v>0.52</v>
       </c>
       <c r="I13" t="n">
-        <v>6000038</v>
+        <v>6046839</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21102752</v>
+        <v>21077384</v>
       </c>
       <c r="E14" t="n">
-        <v>52756879</v>
+        <v>52693460</v>
       </c>
       <c r="F14" t="n">
-        <v>6600.577647219936</v>
+        <v>6235.371401872149</v>
       </c>
       <c r="G14" t="n">
-        <v>13233.51771984153</v>
+        <v>13554.01783233327</v>
       </c>
       <c r="H14" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="I14" t="n">
-        <v>1932622</v>
+        <v>2088965</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11896398</v>
+        <v>12121435</v>
       </c>
       <c r="E15" t="n">
-        <v>17493428</v>
+        <v>17824341</v>
       </c>
       <c r="F15" t="n">
-        <v>2446.082499366927</v>
+        <v>1142.449108944042</v>
       </c>
       <c r="G15" t="n">
-        <v>9517.056610608359</v>
+        <v>2815.230311746142</v>
       </c>
       <c r="H15" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="I15" t="n">
-        <v>1642398</v>
+        <v>1820787</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>32203226</v>
+        <v>31941670</v>
       </c>
       <c r="E16" t="n">
-        <v>100270513</v>
+        <v>99456110</v>
       </c>
       <c r="F16" t="n">
-        <v>7091.113098583073</v>
+        <v>9834.265850729153</v>
       </c>
       <c r="G16" t="n">
-        <v>26856.15153595695</v>
+        <v>31555.77573988051</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>12215064</v>
+        <v>12162943</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>337934350</v>
+        <v>337015707</v>
       </c>
       <c r="E17" t="n">
-        <v>3040266957</v>
+        <v>3032002274</v>
       </c>
       <c r="F17" t="n">
-        <v>1042191.892188855</v>
+        <v>1039503.062459892</v>
       </c>
       <c r="G17" t="n">
-        <v>1081327.645051961</v>
+        <v>1101038.690338024</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>37314594</v>
+        <v>37691536</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15104756</v>
+        <v>15483454</v>
       </c>
       <c r="E18" t="n">
-        <v>92582016</v>
+        <v>94903182</v>
       </c>
       <c r="F18" t="n">
-        <v>28406.6909450384</v>
+        <v>35663.37873837673</v>
       </c>
       <c r="G18" t="n">
-        <v>33838.43618266532</v>
+        <v>35433.95927497723</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I18" t="n">
-        <v>11714887</v>
+        <v>11636775</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47079154</v>
+        <v>47546471</v>
       </c>
       <c r="E19" t="n">
-        <v>202811849</v>
+        <v>204824999</v>
       </c>
       <c r="F19" t="n">
-        <v>46269.235197477</v>
+        <v>51856.8397681155</v>
       </c>
       <c r="G19" t="n">
-        <v>61781.22483476372</v>
+        <v>74932.47363011245</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I19" t="n">
-        <v>8657283</v>
+        <v>8527740</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>305004499</v>
+        <v>306085731</v>
       </c>
       <c r="E20" t="n">
-        <v>305004499</v>
+        <v>306085731</v>
       </c>
       <c r="F20" t="n">
-        <v>72885.12974621427</v>
+        <v>69044.93118819856</v>
       </c>
       <c r="G20" t="n">
-        <v>126975.3362618002</v>
+        <v>120849.7484500555</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>50317695</v>
+        <v>50694391</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30518177</v>
+        <v>30358954</v>
       </c>
       <c r="E21" t="n">
-        <v>136642400</v>
+        <v>135929491</v>
       </c>
       <c r="F21" t="n">
-        <v>53299.24773104125</v>
+        <v>50947.12117727227</v>
       </c>
       <c r="G21" t="n">
-        <v>75727.14225601179</v>
+        <v>64039.83286709733</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>8815723</v>
+        <v>8690042</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48062909</v>
+        <v>48338765</v>
       </c>
       <c r="E22" t="n">
-        <v>311675176</v>
+        <v>313464025</v>
       </c>
       <c r="F22" t="n">
-        <v>11551.49864416829</v>
+        <v>8228.174046123842</v>
       </c>
       <c r="G22" t="n">
-        <v>33086.96053228497</v>
+        <v>32292.74583309127</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I22" t="n">
-        <v>16703622</v>
+        <v>17278534</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125210831</v>
+        <v>125388671</v>
       </c>
       <c r="E23" t="n">
-        <v>2073593919</v>
+        <v>2076539081</v>
       </c>
       <c r="F23" t="n">
-        <v>351796.7892164551</v>
+        <v>343187.2992241858</v>
       </c>
       <c r="G23" t="n">
-        <v>326814.7396771362</v>
+        <v>331656.089000076</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>5050677</v>
+        <v>5058922</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6857698</v>
+        <v>6902400</v>
       </c>
       <c r="E24" t="n">
-        <v>35280773</v>
+        <v>35510748</v>
       </c>
       <c r="F24" t="n">
-        <v>446.2851685809974</v>
+        <v>1711.317824694047</v>
       </c>
       <c r="G24" t="n">
-        <v>1442.896132944604</v>
+        <v>1576.253151199992</v>
       </c>
       <c r="H24" t="n">
-        <v>0.48</v>
+        <v>0.14</v>
       </c>
       <c r="I24" t="n">
-        <v>854275</v>
+        <v>919993</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24252437</v>
+        <v>23833815</v>
       </c>
       <c r="E25" t="n">
-        <v>24252523</v>
+        <v>23833815</v>
       </c>
       <c r="F25" t="n">
-        <v>18852.62193150795</v>
+        <v>19417.20687106778</v>
       </c>
       <c r="G25" t="n">
-        <v>8154.782111272366</v>
+        <v>11114.14741641417</v>
       </c>
       <c r="H25" t="n">
         <v>0.13</v>
       </c>
       <c r="I25" t="n">
-        <v>1857282</v>
+        <v>1961580</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>312570442</v>
+        <v>312115609</v>
       </c>
       <c r="E27" t="n">
-        <v>578326598</v>
+        <v>577485053</v>
       </c>
       <c r="F27" t="n">
-        <v>88086.34542272275</v>
+        <v>84015.3543968599</v>
       </c>
       <c r="G27" t="n">
-        <v>91497.69843878562</v>
+        <v>91781.21230336567</v>
       </c>
       <c r="H27" t="n">
         <v>0.03</v>
       </c>
       <c r="I27" t="n">
-        <v>12949289</v>
+        <v>12998316</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44890327</v>
+        <v>44822339</v>
       </c>
       <c r="E28" t="n">
-        <v>44890327</v>
+        <v>44822339</v>
       </c>
       <c r="F28" t="n">
-        <v>28609.624489039</v>
+        <v>26235.22280302976</v>
       </c>
       <c r="G28" t="n">
-        <v>43907.6102558532</v>
+        <v>44873.35854934872</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>8927178</v>
+        <v>7872135</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>600960502</v>
+        <v>600738082</v>
       </c>
       <c r="E29" t="n">
-        <v>2327431359</v>
+        <v>2326569960</v>
       </c>
       <c r="F29" t="n">
-        <v>86028.11057996601</v>
+        <v>75535.93137454189</v>
       </c>
       <c r="G29" t="n">
-        <v>231761.110754982</v>
+        <v>230953.1019330199</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>33072758</v>
+        <v>33437094</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>114564746</v>
+        <v>115166960</v>
       </c>
       <c r="E30" t="n">
-        <v>439488806</v>
+        <v>441798995</v>
       </c>
       <c r="F30" t="n">
-        <v>138062.5404355228</v>
+        <v>142173.8246606402</v>
       </c>
       <c r="G30" t="n">
-        <v>175405.0026722365</v>
+        <v>177034.8089303365</v>
       </c>
       <c r="H30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>22552368</v>
+        <v>23266768</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>31190998</v>
+        <v>32131129</v>
       </c>
       <c r="F31" t="n">
-        <v>14233.39834063939</v>
+        <v>12005.97654331044</v>
       </c>
       <c r="G31" t="n">
-        <v>34015.33339084144</v>
+        <v>19495.59079929212</v>
       </c>
       <c r="H31" t="n">
         <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>5285542</v>
+        <v>5479204</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>86890619</v>
+        <v>87028780</v>
       </c>
       <c r="E32" t="n">
-        <v>321208432</v>
+        <v>321718822</v>
       </c>
       <c r="F32" t="n">
-        <v>12466.46406429578</v>
+        <v>13335.45307777528</v>
       </c>
       <c r="G32" t="n">
-        <v>3296.447403640079</v>
+        <v>1102.285934448274</v>
       </c>
       <c r="H32" t="n">
         <v>0.18</v>
       </c>
       <c r="I32" t="n">
-        <v>351940</v>
+        <v>349141</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>491290523</v>
+        <v>492315179</v>
       </c>
       <c r="E33" t="n">
-        <v>1711009045</v>
+        <v>1714577597</v>
       </c>
       <c r="F33" t="n">
-        <v>238622.5865788604</v>
+        <v>245479.4306090928</v>
       </c>
       <c r="G33" t="n">
-        <v>277469.7014666446</v>
+        <v>275345.033311439</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>30946680</v>
+        <v>31136184</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>100930430</v>
+        <v>102794001</v>
       </c>
       <c r="E34" t="n">
-        <v>152921263</v>
+        <v>155744789</v>
       </c>
       <c r="F34" t="n">
-        <v>207136.6024698361</v>
+        <v>55398.34296996098</v>
       </c>
       <c r="G34" t="n">
-        <v>351775.4089220187</v>
+        <v>66129.26175877675</v>
       </c>
       <c r="H34" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I34" t="n">
-        <v>7283997</v>
+        <v>7659040</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2658520</v>
+        <v>2637556</v>
       </c>
       <c r="E35" t="n">
-        <v>10634082</v>
+        <v>10550224</v>
       </c>
       <c r="F35" t="n">
-        <v>50085.98850931006</v>
+        <v>28788.54859120976</v>
       </c>
       <c r="G35" t="n">
-        <v>77877.41980457396</v>
+        <v>72454.52822995756</v>
       </c>
       <c r="H35" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I35" t="n">
-        <v>5639610</v>
+        <v>5834015</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>216966903</v>
+        <v>216429088</v>
       </c>
       <c r="E36" t="n">
-        <v>667091577</v>
+        <v>665437998</v>
       </c>
       <c r="F36" t="n">
-        <v>156171.1859153656</v>
+        <v>155645.602824767</v>
       </c>
       <c r="G36" t="n">
-        <v>240067.3782872034</v>
+        <v>238063.9349462353</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I36" t="n">
-        <v>11603481</v>
+        <v>11739788</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>147964583</v>
+        <v>154774398</v>
       </c>
       <c r="E37" t="n">
-        <v>386553369</v>
+        <v>404343822</v>
       </c>
       <c r="F37" t="n">
-        <v>48232.01909565492</v>
+        <v>16506.70085981679</v>
       </c>
       <c r="G37" t="n">
-        <v>49828.17482795074</v>
+        <v>46955.16990489612</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="I37" t="n">
-        <v>6582454</v>
+        <v>7249109</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>402616889</v>
+        <v>400460904</v>
       </c>
       <c r="E38" t="n">
-        <v>2300667936</v>
+        <v>2288348025</v>
       </c>
       <c r="F38" t="n">
-        <v>25973.54544706941</v>
+        <v>24583.5644883997</v>
       </c>
       <c r="G38" t="n">
-        <v>77542.7925640358</v>
+        <v>82881.67533477947</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>36982010</v>
+        <v>37082109</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250220.xlsx
+++ b/OkxData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>245856108</v>
+        <v>245540865</v>
       </c>
       <c r="E2" t="n">
-        <v>1541729095</v>
+        <v>1539752251</v>
       </c>
       <c r="F2" t="n">
-        <v>182450.2864292318</v>
+        <v>179651.723542224</v>
       </c>
       <c r="G2" t="n">
-        <v>203476.1915184238</v>
+        <v>196900.5015346637</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>15562362</v>
+        <v>15594408</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>139520497</v>
+        <v>139948124</v>
       </c>
       <c r="E3" t="n">
-        <v>154610515</v>
+        <v>155084393</v>
       </c>
       <c r="F3" t="n">
-        <v>73545.35399359194</v>
+        <v>74230.3001602381</v>
       </c>
       <c r="G3" t="n">
-        <v>165806.001774949</v>
+        <v>164917.7829839942</v>
       </c>
       <c r="H3" t="n">
         <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>34323486</v>
+        <v>34453906</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>559230196</v>
+        <v>560396279</v>
       </c>
       <c r="E4" t="n">
-        <v>699513859</v>
+        <v>700972456</v>
       </c>
       <c r="F4" t="n">
-        <v>116682.2157464487</v>
+        <v>123459.0486229941</v>
       </c>
       <c r="G4" t="n">
-        <v>156220.5477508782</v>
+        <v>151373.7499398536</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>54789269</v>
+        <v>54397881</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>136288550</v>
+        <v>136604958</v>
       </c>
       <c r="E5" t="n">
-        <v>136288550</v>
+        <v>136604958</v>
       </c>
       <c r="F5" t="n">
-        <v>46837.18010444465</v>
+        <v>67498.0980828169</v>
       </c>
       <c r="G5" t="n">
-        <v>120650.9346094672</v>
+        <v>108003.1354049606</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>67178405</v>
+        <v>66690247</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>254105946</v>
+        <v>253774828</v>
       </c>
       <c r="E6" t="n">
-        <v>254105946</v>
+        <v>253774828</v>
       </c>
       <c r="F6" t="n">
-        <v>63685.03396136405</v>
+        <v>64582.24498655433</v>
       </c>
       <c r="G6" t="n">
-        <v>106297.9467836649</v>
+        <v>102827.971286352</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>15039094</v>
+        <v>15095071</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99877979</v>
+        <v>99745022</v>
       </c>
       <c r="E7" t="n">
-        <v>124536132</v>
+        <v>124370351</v>
       </c>
       <c r="F7" t="n">
-        <v>16754.29608453859</v>
+        <v>12434.10850830688</v>
       </c>
       <c r="G7" t="n">
-        <v>45254.185791428</v>
+        <v>42035.2292093899</v>
       </c>
       <c r="H7" t="n">
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>11306158</v>
+        <v>11114227</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73059824</v>
+        <v>73356895</v>
       </c>
       <c r="E8" t="n">
-        <v>152366835</v>
+        <v>152986377</v>
       </c>
       <c r="F8" t="n">
-        <v>55992.29710057817</v>
+        <v>45276.4110135015</v>
       </c>
       <c r="G8" t="n">
-        <v>47963.89981261925</v>
+        <v>46710.96319197194</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>14508447</v>
+        <v>14552079</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>144947861</v>
+        <v>145015781</v>
       </c>
       <c r="E9" t="n">
-        <v>144993047</v>
+        <v>145060988</v>
       </c>
       <c r="F9" t="n">
-        <v>8944.918969585851</v>
+        <v>8312.772237044886</v>
       </c>
       <c r="G9" t="n">
-        <v>14996.05849976354</v>
+        <v>12913.70115530395</v>
       </c>
       <c r="H9" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="I9" t="n">
-        <v>2528971</v>
+        <v>2523841</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>630377242</v>
+        <v>632111014</v>
       </c>
       <c r="E10" t="n">
-        <v>630377242</v>
+        <v>632111014</v>
       </c>
       <c r="F10" t="n">
-        <v>388315.280236994</v>
+        <v>393228.5688192419</v>
       </c>
       <c r="G10" t="n">
-        <v>533419.6790753487</v>
+        <v>537279.6418347358</v>
       </c>
       <c r="H10" t="n">
         <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>279768137</v>
+        <v>271057441</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>70895137</v>
+        <v>71495306</v>
       </c>
       <c r="E11" t="n">
-        <v>81343140</v>
+        <v>82031757</v>
       </c>
       <c r="F11" t="n">
-        <v>2682.989141185737</v>
+        <v>3487.069500848114</v>
       </c>
       <c r="G11" t="n">
-        <v>4935.305244291205</v>
+        <v>1494.490656709297</v>
       </c>
       <c r="H11" t="n">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="I11" t="n">
-        <v>1207802</v>
+        <v>1254824</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>266759091</v>
+        <v>266728629</v>
       </c>
       <c r="E12" t="n">
-        <v>1151480327</v>
+        <v>1151348836</v>
       </c>
       <c r="F12" t="n">
-        <v>341325.6002620322</v>
+        <v>263270.7516573677</v>
       </c>
       <c r="G12" t="n">
-        <v>361575.2498196513</v>
+        <v>385188.1526984217</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>110095673</v>
+        <v>109810619</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>114832568</v>
+        <v>114594193</v>
       </c>
       <c r="E13" t="n">
-        <v>114832568</v>
+        <v>114594193</v>
       </c>
       <c r="F13" t="n">
-        <v>8198.282267164699</v>
+        <v>8156.215522391728</v>
       </c>
       <c r="G13" t="n">
-        <v>3767.378326073876</v>
+        <v>4144.110660274638</v>
       </c>
       <c r="H13" t="n">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="I13" t="n">
-        <v>6046839</v>
+        <v>6044262</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21077384</v>
+        <v>20971698</v>
       </c>
       <c r="E14" t="n">
-        <v>52693460</v>
+        <v>52429246</v>
       </c>
       <c r="F14" t="n">
-        <v>6235.371401872149</v>
+        <v>5530.480353118008</v>
       </c>
       <c r="G14" t="n">
-        <v>13554.01783233327</v>
+        <v>15420.47816796185</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2088965</v>
+        <v>2122122</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12121435</v>
+        <v>12319118</v>
       </c>
       <c r="E15" t="n">
-        <v>17824341</v>
+        <v>18115030</v>
       </c>
       <c r="F15" t="n">
-        <v>1142.449108944042</v>
+        <v>978.5501067785573</v>
       </c>
       <c r="G15" t="n">
-        <v>2815.230311746142</v>
+        <v>2616.728474094442</v>
       </c>
       <c r="H15" t="n">
-        <v>0.22</v>
+        <v>1.05</v>
       </c>
       <c r="I15" t="n">
-        <v>1820787</v>
+        <v>1608518</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31941670</v>
+        <v>31842402</v>
       </c>
       <c r="E16" t="n">
-        <v>99456110</v>
+        <v>99147023</v>
       </c>
       <c r="F16" t="n">
-        <v>9834.265850729153</v>
+        <v>15401.58697466392</v>
       </c>
       <c r="G16" t="n">
-        <v>31555.77573988051</v>
+        <v>30133.89000006187</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I16" t="n">
-        <v>12162943</v>
+        <v>12161115</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>337015707</v>
+        <v>337372061</v>
       </c>
       <c r="E17" t="n">
-        <v>3032002274</v>
+        <v>3035208262</v>
       </c>
       <c r="F17" t="n">
-        <v>1039503.062459892</v>
+        <v>6538.446122928519</v>
       </c>
       <c r="G17" t="n">
-        <v>1101038.690338024</v>
+        <v>8115.384477429281</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>37691536</v>
+        <v>37350924</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15483454</v>
+        <v>15446581</v>
       </c>
       <c r="E18" t="n">
-        <v>94903182</v>
+        <v>94677175</v>
       </c>
       <c r="F18" t="n">
-        <v>35663.37873837673</v>
+        <v>32426.96315409417</v>
       </c>
       <c r="G18" t="n">
-        <v>35433.95927497723</v>
+        <v>34001.1633360136</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>11636775</v>
+        <v>11614965</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47546471</v>
+        <v>47412456</v>
       </c>
       <c r="E19" t="n">
-        <v>204824999</v>
+        <v>204247675</v>
       </c>
       <c r="F19" t="n">
-        <v>51856.8397681155</v>
+        <v>43087.50769329989</v>
       </c>
       <c r="G19" t="n">
-        <v>74932.47363011245</v>
+        <v>72751.75278694487</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I19" t="n">
-        <v>8527740</v>
+        <v>8654427</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>306085731</v>
+        <v>306776411</v>
       </c>
       <c r="E20" t="n">
-        <v>306085731</v>
+        <v>306776411</v>
       </c>
       <c r="F20" t="n">
-        <v>69044.93118819856</v>
+        <v>65932.03214548794</v>
       </c>
       <c r="G20" t="n">
-        <v>120849.7484500555</v>
+        <v>127628.8182607828</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>50694391</v>
+        <v>50930328</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30358954</v>
+        <v>30309117</v>
       </c>
       <c r="E21" t="n">
-        <v>135929491</v>
+        <v>135706351</v>
       </c>
       <c r="F21" t="n">
-        <v>50947.12117727227</v>
+        <v>56417.95010690899</v>
       </c>
       <c r="G21" t="n">
-        <v>64039.83286709733</v>
+        <v>65713.86496886351</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>8690042</v>
+        <v>8702657</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48338765</v>
+        <v>48381886</v>
       </c>
       <c r="E22" t="n">
-        <v>313464025</v>
+        <v>313743655</v>
       </c>
       <c r="F22" t="n">
-        <v>8228.174046123842</v>
+        <v>11431.88113032002</v>
       </c>
       <c r="G22" t="n">
-        <v>32292.74583309127</v>
+        <v>93162.66916876857</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I22" t="n">
-        <v>17278534</v>
+        <v>16834580</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125388671</v>
+        <v>125401220</v>
       </c>
       <c r="E23" t="n">
-        <v>2076539081</v>
+        <v>2076746904</v>
       </c>
       <c r="F23" t="n">
-        <v>343187.2992241858</v>
+        <v>346126.8960181758</v>
       </c>
       <c r="G23" t="n">
-        <v>331656.089000076</v>
+        <v>324093.6229177812</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>5058922</v>
+        <v>5078138</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6902400</v>
+        <v>6887687</v>
       </c>
       <c r="E24" t="n">
-        <v>35510748</v>
+        <v>35435057</v>
       </c>
       <c r="F24" t="n">
-        <v>1711.317824694047</v>
+        <v>1728.095632280593</v>
       </c>
       <c r="G24" t="n">
-        <v>1576.253151199992</v>
+        <v>1564.140814142973</v>
       </c>
       <c r="H24" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I24" t="n">
-        <v>919993</v>
+        <v>917316</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23833815</v>
+        <v>23908465</v>
       </c>
       <c r="E25" t="n">
-        <v>23833815</v>
+        <v>23908792</v>
       </c>
       <c r="F25" t="n">
-        <v>19417.20687106778</v>
+        <v>20152.21064182407</v>
       </c>
       <c r="G25" t="n">
-        <v>11114.14741641417</v>
+        <v>9303.816424425091</v>
       </c>
       <c r="H25" t="n">
         <v>0.13</v>
       </c>
       <c r="I25" t="n">
-        <v>1961580</v>
+        <v>1720831</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>312115609</v>
+        <v>311750435</v>
       </c>
       <c r="E27" t="n">
-        <v>577485053</v>
+        <v>576809398</v>
       </c>
       <c r="F27" t="n">
-        <v>84015.3543968599</v>
+        <v>87815.3405926741</v>
       </c>
       <c r="G27" t="n">
-        <v>91781.21230336567</v>
+        <v>86722.51121334395</v>
       </c>
       <c r="H27" t="n">
         <v>0.03</v>
       </c>
       <c r="I27" t="n">
-        <v>12998316</v>
+        <v>13064494</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44822339</v>
+        <v>44715201</v>
       </c>
       <c r="E28" t="n">
-        <v>44822339</v>
+        <v>44715201</v>
       </c>
       <c r="F28" t="n">
-        <v>26235.22280302976</v>
+        <v>28442.67652565258</v>
       </c>
       <c r="G28" t="n">
-        <v>44873.35854934872</v>
+        <v>46569.89028250109</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>7872135</v>
+        <v>7844092</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>600738082</v>
+        <v>601869335</v>
       </c>
       <c r="E29" t="n">
-        <v>2326569960</v>
+        <v>2330951135</v>
       </c>
       <c r="F29" t="n">
-        <v>75535.93137454189</v>
+        <v>74142.68733561803</v>
       </c>
       <c r="G29" t="n">
-        <v>230953.1019330199</v>
+        <v>234436.4981159937</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>33437094</v>
+        <v>33366854</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>115166960</v>
+        <v>116338750</v>
       </c>
       <c r="E30" t="n">
-        <v>441798995</v>
+        <v>446294172</v>
       </c>
       <c r="F30" t="n">
-        <v>142173.8246606402</v>
+        <v>141654.1223980583</v>
       </c>
       <c r="G30" t="n">
-        <v>177034.8089303365</v>
+        <v>181696.596570989</v>
       </c>
       <c r="H30" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>23266768</v>
+        <v>23416021</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32131129</v>
+        <v>31704077</v>
       </c>
       <c r="F31" t="n">
-        <v>12005.97654331044</v>
+        <v>8990.009556760471</v>
       </c>
       <c r="G31" t="n">
-        <v>19495.59079929212</v>
+        <v>15693.1028554392</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I31" t="n">
-        <v>5479204</v>
+        <v>5545013</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>87028780</v>
+        <v>87040092</v>
       </c>
       <c r="E32" t="n">
-        <v>321718822</v>
+        <v>321760304</v>
       </c>
       <c r="F32" t="n">
-        <v>13335.45307777528</v>
+        <v>12629.55560341115</v>
       </c>
       <c r="G32" t="n">
-        <v>1102.285934448274</v>
+        <v>1107.89142778249</v>
       </c>
       <c r="H32" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="I32" t="n">
-        <v>349141</v>
+        <v>346930</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>492315179</v>
+        <v>493105931</v>
       </c>
       <c r="E33" t="n">
-        <v>1714577597</v>
+        <v>1717331533</v>
       </c>
       <c r="F33" t="n">
-        <v>245479.4306090928</v>
+        <v>244529.0570482802</v>
       </c>
       <c r="G33" t="n">
-        <v>275345.033311439</v>
+        <v>283380.1771250505</v>
       </c>
       <c r="H33" t="n">
         <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>31136184</v>
+        <v>31157853</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>102794001</v>
+        <v>103234312</v>
       </c>
       <c r="E34" t="n">
-        <v>155744789</v>
+        <v>156411911</v>
       </c>
       <c r="F34" t="n">
-        <v>55398.34296996098</v>
+        <v>56885.80330231255</v>
       </c>
       <c r="G34" t="n">
-        <v>66129.26175877675</v>
+        <v>64687.36953038775</v>
       </c>
       <c r="H34" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="I34" t="n">
-        <v>7659040</v>
+        <v>7658069</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2637556</v>
+        <v>2638514</v>
       </c>
       <c r="E35" t="n">
-        <v>10550224</v>
+        <v>10554054</v>
       </c>
       <c r="F35" t="n">
-        <v>28788.54859120976</v>
+        <v>33478.48599715019</v>
       </c>
       <c r="G35" t="n">
-        <v>72454.52822995756</v>
+        <v>57444.96959309762</v>
       </c>
       <c r="H35" t="n">
         <v>0.1</v>
       </c>
       <c r="I35" t="n">
-        <v>5834015</v>
+        <v>5854231</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>216429088</v>
+        <v>216224828</v>
       </c>
       <c r="E36" t="n">
-        <v>665437998</v>
+        <v>664809976</v>
       </c>
       <c r="F36" t="n">
-        <v>155645.602824767</v>
+        <v>150472.2233990612</v>
       </c>
       <c r="G36" t="n">
-        <v>238063.9349462353</v>
+        <v>237206.0258693365</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>11739788</v>
+        <v>11759207</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>154774398</v>
+        <v>155510922</v>
       </c>
       <c r="E37" t="n">
-        <v>404343822</v>
+        <v>406267969</v>
       </c>
       <c r="F37" t="n">
-        <v>16506.70085981679</v>
+        <v>17528.33030026138</v>
       </c>
       <c r="G37" t="n">
-        <v>46955.16990489612</v>
+        <v>60551.45535523246</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="I37" t="n">
-        <v>7249109</v>
+        <v>7345731</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>400460904</v>
+        <v>401334275</v>
       </c>
       <c r="E38" t="n">
-        <v>2288348025</v>
+        <v>2293338715</v>
       </c>
       <c r="F38" t="n">
-        <v>24583.5644883997</v>
+        <v>20395.06018021599</v>
       </c>
       <c r="G38" t="n">
-        <v>82881.67533477947</v>
+        <v>89796.75640267096</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>37082109</v>
+        <v>37057073</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250220.xlsx
+++ b/OkxData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>245540865</v>
+        <v>246344835</v>
       </c>
       <c r="E2" t="n">
-        <v>1539752251</v>
+        <v>1544793834</v>
       </c>
       <c r="F2" t="n">
-        <v>179651.723542224</v>
+        <v>182694.6901936499</v>
       </c>
       <c r="G2" t="n">
-        <v>196900.5015346637</v>
+        <v>203889.5666096502</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="I2" t="n">
-        <v>15594408</v>
+        <v>15739172</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>139948124</v>
+        <v>140530950</v>
       </c>
       <c r="E3" t="n">
-        <v>155084393</v>
+        <v>155730255</v>
       </c>
       <c r="F3" t="n">
-        <v>74230.3001602381</v>
+        <v>66401.16890027525</v>
       </c>
       <c r="G3" t="n">
-        <v>164917.7829839942</v>
+        <v>174439.455099517</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>34453906</v>
+        <v>34714406</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>560396279</v>
+        <v>561159693</v>
       </c>
       <c r="E4" t="n">
-        <v>700972456</v>
+        <v>701927372</v>
       </c>
       <c r="F4" t="n">
-        <v>123459.0486229941</v>
+        <v>99379.33588933012</v>
       </c>
       <c r="G4" t="n">
-        <v>151373.7499398536</v>
+        <v>144730.4607407194</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>54397881</v>
+        <v>54037605</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>136604958</v>
+        <v>137032609</v>
       </c>
       <c r="E5" t="n">
-        <v>136604958</v>
+        <v>137032609</v>
       </c>
       <c r="F5" t="n">
-        <v>67498.0980828169</v>
+        <v>68036.1045912261</v>
       </c>
       <c r="G5" t="n">
-        <v>108003.1354049606</v>
+        <v>89855.9413562743</v>
       </c>
       <c r="H5" t="n">
         <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>66690247</v>
+        <v>66534105</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>253774828</v>
+        <v>254290323</v>
       </c>
       <c r="E6" t="n">
-        <v>253774828</v>
+        <v>254290323</v>
       </c>
       <c r="F6" t="n">
-        <v>64582.24498655433</v>
+        <v>60338.18732915203</v>
       </c>
       <c r="G6" t="n">
-        <v>102827.971286352</v>
+        <v>93027.82658275888</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>15095071</v>
+        <v>15054458</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99745022</v>
+        <v>100657422</v>
       </c>
       <c r="E7" t="n">
-        <v>124370351</v>
+        <v>125508006</v>
       </c>
       <c r="F7" t="n">
-        <v>12434.10850830688</v>
+        <v>13971.25186900427</v>
       </c>
       <c r="G7" t="n">
-        <v>42035.2292093899</v>
+        <v>41208.03588574673</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>11114227</v>
+        <v>11346064</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73356895</v>
+        <v>74364074</v>
       </c>
       <c r="E8" t="n">
-        <v>152986377</v>
+        <v>155086858</v>
       </c>
       <c r="F8" t="n">
-        <v>45276.4110135015</v>
+        <v>38564.71318444768</v>
       </c>
       <c r="G8" t="n">
-        <v>46710.96319197194</v>
+        <v>52403.51560602696</v>
       </c>
       <c r="H8" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>14552079</v>
+        <v>14643336</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>145015781</v>
+        <v>145449122</v>
       </c>
       <c r="E9" t="n">
-        <v>145060988</v>
+        <v>145495203</v>
       </c>
       <c r="F9" t="n">
-        <v>8312.772237044886</v>
+        <v>6361.830870072293</v>
       </c>
       <c r="G9" t="n">
-        <v>12913.70115530395</v>
+        <v>17215.27889353607</v>
       </c>
       <c r="H9" t="n">
         <v>0.14</v>
       </c>
       <c r="I9" t="n">
-        <v>2523841</v>
+        <v>2508783</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>632111014</v>
+        <v>637532474</v>
       </c>
       <c r="E10" t="n">
-        <v>632111014</v>
+        <v>637532474</v>
       </c>
       <c r="F10" t="n">
-        <v>393228.5688192419</v>
+        <v>349066.137712558</v>
       </c>
       <c r="G10" t="n">
-        <v>537279.6418347358</v>
+        <v>419407.4201774559</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>271057441</v>
+        <v>278183095</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71495306</v>
+        <v>70911301</v>
       </c>
       <c r="E11" t="n">
-        <v>82031757</v>
+        <v>81361685</v>
       </c>
       <c r="F11" t="n">
-        <v>3487.069500848114</v>
+        <v>2580.779761572829</v>
       </c>
       <c r="G11" t="n">
-        <v>1494.490656709297</v>
+        <v>3018.073407715922</v>
       </c>
       <c r="H11" t="n">
-        <v>0.11</v>
+        <v>0.34</v>
       </c>
       <c r="I11" t="n">
-        <v>1254824</v>
+        <v>1261843</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>266728629</v>
+        <v>266912907</v>
       </c>
       <c r="E12" t="n">
-        <v>1151348836</v>
+        <v>1152144283</v>
       </c>
       <c r="F12" t="n">
-        <v>263270.7516573677</v>
+        <v>287466.6651277406</v>
       </c>
       <c r="G12" t="n">
-        <v>385188.1526984217</v>
+        <v>373985.6457803589</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>109810619</v>
+        <v>108386943</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>114594193</v>
+        <v>115306142</v>
       </c>
       <c r="E13" t="n">
-        <v>114594193</v>
+        <v>115306142</v>
       </c>
       <c r="F13" t="n">
-        <v>8156.215522391728</v>
+        <v>8006.052434486038</v>
       </c>
       <c r="G13" t="n">
-        <v>4144.110660274638</v>
+        <v>3097.342615883036</v>
       </c>
       <c r="H13" t="n">
         <v>0.39</v>
       </c>
       <c r="I13" t="n">
-        <v>6044262</v>
+        <v>6059439</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20971698</v>
+        <v>20871425</v>
       </c>
       <c r="E14" t="n">
-        <v>52429246</v>
+        <v>52178562</v>
       </c>
       <c r="F14" t="n">
-        <v>5530.480353118008</v>
+        <v>5283.431795981109</v>
       </c>
       <c r="G14" t="n">
-        <v>15420.47816796185</v>
+        <v>8509.54360278983</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>2122122</v>
+        <v>2127492</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12319118</v>
+        <v>12106208</v>
       </c>
       <c r="E15" t="n">
-        <v>18115030</v>
+        <v>17801951</v>
       </c>
       <c r="F15" t="n">
-        <v>978.5501067785573</v>
+        <v>2514.484364767854</v>
       </c>
       <c r="G15" t="n">
-        <v>2616.728474094442</v>
+        <v>7235.600630476087</v>
       </c>
       <c r="H15" t="n">
-        <v>1.05</v>
+        <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>1608518</v>
+        <v>2145673</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31842402</v>
+        <v>31812524</v>
       </c>
       <c r="E16" t="n">
-        <v>99147023</v>
+        <v>99053994</v>
       </c>
       <c r="F16" t="n">
-        <v>15401.58697466392</v>
+        <v>10981.08837452446</v>
       </c>
       <c r="G16" t="n">
-        <v>30133.89000006187</v>
+        <v>27789.80658851484</v>
       </c>
       <c r="H16" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I16" t="n">
-        <v>12161115</v>
+        <v>12212804</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>337372061</v>
+        <v>338335931</v>
       </c>
       <c r="E17" t="n">
-        <v>3035208262</v>
+        <v>3043879834</v>
       </c>
       <c r="F17" t="n">
-        <v>6538.446122928519</v>
+        <v>1025953.934170933</v>
       </c>
       <c r="G17" t="n">
-        <v>8115.384477429281</v>
+        <v>1085023.374076875</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>37350924</v>
+        <v>37710608</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15446581</v>
+        <v>15638084</v>
       </c>
       <c r="E18" t="n">
-        <v>94677175</v>
+        <v>95850956</v>
       </c>
       <c r="F18" t="n">
-        <v>32426.96315409417</v>
+        <v>30193.14848860367</v>
       </c>
       <c r="G18" t="n">
-        <v>34001.1633360136</v>
+        <v>27986.18559178624</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>11614965</v>
+        <v>11506632</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47412456</v>
+        <v>47184983</v>
       </c>
       <c r="E19" t="n">
-        <v>204247675</v>
+        <v>203267747</v>
       </c>
       <c r="F19" t="n">
-        <v>43087.50769329989</v>
+        <v>44590.92452567133</v>
       </c>
       <c r="G19" t="n">
-        <v>72751.75278694487</v>
+        <v>81679.38034282904</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I19" t="n">
-        <v>8654427</v>
+        <v>8742642</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>306776411</v>
+        <v>309886360</v>
       </c>
       <c r="E20" t="n">
-        <v>306776411</v>
+        <v>309886360</v>
       </c>
       <c r="F20" t="n">
-        <v>65932.03214548794</v>
+        <v>53319.98067132948</v>
       </c>
       <c r="G20" t="n">
-        <v>127628.8182607828</v>
+        <v>115658.6919109961</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>50930328</v>
+        <v>51082360</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30309117</v>
+        <v>30336650</v>
       </c>
       <c r="E21" t="n">
-        <v>135706351</v>
+        <v>135829625</v>
       </c>
       <c r="F21" t="n">
-        <v>56417.95010690899</v>
+        <v>48747.8316404094</v>
       </c>
       <c r="G21" t="n">
-        <v>65713.86496886351</v>
+        <v>54016.99320469637</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>8702657</v>
+        <v>8641869</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48381886</v>
+        <v>48773600</v>
       </c>
       <c r="E22" t="n">
-        <v>313743655</v>
+        <v>316283817</v>
       </c>
       <c r="F22" t="n">
-        <v>11431.88113032002</v>
+        <v>2453.341981100508</v>
       </c>
       <c r="G22" t="n">
-        <v>93162.66916876857</v>
+        <v>100473.5319896165</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="I22" t="n">
-        <v>16834580</v>
+        <v>17021421</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125401220</v>
+        <v>125703229</v>
       </c>
       <c r="E23" t="n">
-        <v>2076746904</v>
+        <v>2081748422</v>
       </c>
       <c r="F23" t="n">
-        <v>346126.8960181758</v>
+        <v>337855.7367325358</v>
       </c>
       <c r="G23" t="n">
-        <v>324093.6229177812</v>
+        <v>344303.3824290943</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>5078138</v>
+        <v>4946517</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6887687</v>
+        <v>6904418</v>
       </c>
       <c r="E24" t="n">
-        <v>35435057</v>
+        <v>35521135</v>
       </c>
       <c r="F24" t="n">
-        <v>1728.095632280593</v>
+        <v>1797.849611752805</v>
       </c>
       <c r="G24" t="n">
-        <v>1564.140814142973</v>
+        <v>1263.473439641903</v>
       </c>
       <c r="H24" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I24" t="n">
-        <v>917316</v>
+        <v>917299</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23908465</v>
+        <v>23708679</v>
       </c>
       <c r="E25" t="n">
-        <v>23908792</v>
+        <v>23708997</v>
       </c>
       <c r="F25" t="n">
-        <v>20152.21064182407</v>
+        <v>15292.0532838843</v>
       </c>
       <c r="G25" t="n">
-        <v>9303.816424425091</v>
+        <v>11034.22498997932</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13</v>
+        <v>0.46</v>
       </c>
       <c r="I25" t="n">
-        <v>1720831</v>
+        <v>1963763</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>311750435</v>
+        <v>313217669</v>
       </c>
       <c r="E27" t="n">
-        <v>576809398</v>
+        <v>579524116</v>
       </c>
       <c r="F27" t="n">
-        <v>87815.3405926741</v>
+        <v>95144.83688743551</v>
       </c>
       <c r="G27" t="n">
-        <v>86722.51121334395</v>
+        <v>97177.34956549769</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>13064494</v>
+        <v>13109766</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44715201</v>
+        <v>44675311</v>
       </c>
       <c r="E28" t="n">
-        <v>44715201</v>
+        <v>44675311</v>
       </c>
       <c r="F28" t="n">
-        <v>28442.67652565258</v>
+        <v>23499.4606293233</v>
       </c>
       <c r="G28" t="n">
-        <v>46569.89028250109</v>
+        <v>38318.52877361829</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>7844092</v>
+        <v>7474145</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>601869335</v>
+        <v>604001886</v>
       </c>
       <c r="E29" t="n">
-        <v>2330951135</v>
+        <v>2339210190</v>
       </c>
       <c r="F29" t="n">
-        <v>74142.68733561803</v>
+        <v>58988.07269862908</v>
       </c>
       <c r="G29" t="n">
-        <v>234436.4981159937</v>
+        <v>220413.0546953704</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>33366854</v>
+        <v>33470481</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>116338750</v>
+        <v>122591421</v>
       </c>
       <c r="E30" t="n">
-        <v>446294172</v>
+        <v>470280422</v>
       </c>
       <c r="F30" t="n">
-        <v>141654.1223980583</v>
+        <v>136483.8440004069</v>
       </c>
       <c r="G30" t="n">
-        <v>181696.596570989</v>
+        <v>165489.7121107191</v>
       </c>
       <c r="H30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>23416021</v>
+        <v>27081338</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>31704077</v>
+        <v>32646935</v>
       </c>
       <c r="F31" t="n">
-        <v>8990.009556760471</v>
+        <v>9634.013970533289</v>
       </c>
       <c r="G31" t="n">
-        <v>15693.1028554392</v>
+        <v>6857.232922281914</v>
       </c>
       <c r="H31" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I31" t="n">
-        <v>5545013</v>
+        <v>5613419</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>87040092</v>
+        <v>87131848</v>
       </c>
       <c r="E32" t="n">
-        <v>321760304</v>
+        <v>322098021</v>
       </c>
       <c r="F32" t="n">
-        <v>12629.55560341115</v>
+        <v>12608.15647488307</v>
       </c>
       <c r="G32" t="n">
-        <v>1107.89142778249</v>
+        <v>1291.107477685933</v>
       </c>
       <c r="H32" t="n">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="I32" t="n">
-        <v>346930</v>
+        <v>338300</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>493105931</v>
+        <v>494575994</v>
       </c>
       <c r="E33" t="n">
-        <v>1717331533</v>
+        <v>1722451296</v>
       </c>
       <c r="F33" t="n">
-        <v>244529.0570482802</v>
+        <v>226282.858354293</v>
       </c>
       <c r="G33" t="n">
-        <v>283380.1771250505</v>
+        <v>275416.6977586765</v>
       </c>
       <c r="H33" t="n">
         <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>31157853</v>
+        <v>31455410</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>103234312</v>
+        <v>102770627</v>
       </c>
       <c r="E34" t="n">
-        <v>156411911</v>
+        <v>155709374</v>
       </c>
       <c r="F34" t="n">
-        <v>56885.80330231255</v>
+        <v>53502.15065853218</v>
       </c>
       <c r="G34" t="n">
-        <v>64687.36953038775</v>
+        <v>66172.55418352735</v>
       </c>
       <c r="H34" t="n">
         <v>0.19</v>
       </c>
       <c r="I34" t="n">
-        <v>7658069</v>
+        <v>7619962</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2638514</v>
+        <v>2637757</v>
       </c>
       <c r="E35" t="n">
-        <v>10554054</v>
+        <v>10551026</v>
       </c>
       <c r="F35" t="n">
-        <v>33478.48599715019</v>
+        <v>96631.50253707908</v>
       </c>
       <c r="G35" t="n">
-        <v>57444.96959309762</v>
+        <v>66160.62201578294</v>
       </c>
       <c r="H35" t="n">
         <v>0.1</v>
       </c>
       <c r="I35" t="n">
-        <v>5854231</v>
+        <v>5972492</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>216224828</v>
+        <v>216810667</v>
       </c>
       <c r="E36" t="n">
-        <v>664809976</v>
+        <v>666611211</v>
       </c>
       <c r="F36" t="n">
-        <v>150472.2233990612</v>
+        <v>158215.8664612815</v>
       </c>
       <c r="G36" t="n">
-        <v>237206.0258693365</v>
+        <v>235617.1751081233</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I36" t="n">
-        <v>11759207</v>
+        <v>11795215</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>155510922</v>
+        <v>152208249</v>
       </c>
       <c r="E37" t="n">
-        <v>406267969</v>
+        <v>397639828</v>
       </c>
       <c r="F37" t="n">
-        <v>17528.33030026138</v>
+        <v>46508.28198515643</v>
       </c>
       <c r="G37" t="n">
-        <v>60551.45535523246</v>
+        <v>48160.3858742859</v>
       </c>
       <c r="H37" t="n">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="I37" t="n">
-        <v>7345731</v>
+        <v>7664378</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>401334275</v>
+        <v>402965093</v>
       </c>
       <c r="E38" t="n">
-        <v>2293338715</v>
+        <v>2302657672</v>
       </c>
       <c r="F38" t="n">
-        <v>20395.06018021599</v>
+        <v>34597.08846246475</v>
       </c>
       <c r="G38" t="n">
-        <v>89796.75640267096</v>
+        <v>80220.28551066283</v>
       </c>
       <c r="H38" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I38" t="n">
-        <v>37057073</v>
+        <v>37192978</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250220.xlsx
+++ b/OkxData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>246344835</v>
+        <v>247626827</v>
       </c>
       <c r="E2" t="n">
-        <v>1544793834</v>
+        <v>1552833028</v>
       </c>
       <c r="F2" t="n">
-        <v>182694.6901936499</v>
+        <v>184153.2789055245</v>
       </c>
       <c r="G2" t="n">
-        <v>203889.5666096502</v>
+        <v>196757.1747826818</v>
       </c>
       <c r="H2" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>15739172</v>
+        <v>16019436</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>140530950</v>
+        <v>141866016</v>
       </c>
       <c r="E3" t="n">
-        <v>155730255</v>
+        <v>157209717</v>
       </c>
       <c r="F3" t="n">
-        <v>66401.16890027525</v>
+        <v>59008.16443468401</v>
       </c>
       <c r="G3" t="n">
-        <v>174439.455099517</v>
+        <v>184687.9311306956</v>
       </c>
       <c r="H3" t="n">
         <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>34714406</v>
+        <v>35050483</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>561159693</v>
+        <v>568133215</v>
       </c>
       <c r="E4" t="n">
-        <v>701927372</v>
+        <v>710650213</v>
       </c>
       <c r="F4" t="n">
-        <v>99379.33588933012</v>
+        <v>106162.7649994867</v>
       </c>
       <c r="G4" t="n">
-        <v>144730.4607407194</v>
+        <v>150422.5169047965</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>54037605</v>
+        <v>52801311</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>137032609</v>
+        <v>138410506</v>
       </c>
       <c r="E5" t="n">
-        <v>137032609</v>
+        <v>138410506</v>
       </c>
       <c r="F5" t="n">
-        <v>68036.1045912261</v>
+        <v>49415.64697441203</v>
       </c>
       <c r="G5" t="n">
-        <v>89855.9413562743</v>
+        <v>116382.4604216744</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>66534105</v>
+        <v>66619443</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>254290323</v>
+        <v>256351361</v>
       </c>
       <c r="E6" t="n">
-        <v>254290323</v>
+        <v>256351361</v>
       </c>
       <c r="F6" t="n">
-        <v>60338.18732915203</v>
+        <v>54152.19955330335</v>
       </c>
       <c r="G6" t="n">
-        <v>93027.82658275888</v>
+        <v>117132.1315858469</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I6" t="n">
-        <v>15054458</v>
+        <v>14921019</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>100657422</v>
+        <v>101232329</v>
       </c>
       <c r="E7" t="n">
-        <v>125508006</v>
+        <v>126224848</v>
       </c>
       <c r="F7" t="n">
-        <v>13971.25186900427</v>
+        <v>16101.79145099955</v>
       </c>
       <c r="G7" t="n">
-        <v>41208.03588574673</v>
+        <v>42085.53847106889</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>11346064</v>
+        <v>11368347</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>74364074</v>
+        <v>74868289</v>
       </c>
       <c r="E8" t="n">
-        <v>155086858</v>
+        <v>156138403</v>
       </c>
       <c r="F8" t="n">
-        <v>38564.71318444768</v>
+        <v>42862.69754633708</v>
       </c>
       <c r="G8" t="n">
-        <v>52403.51560602696</v>
+        <v>43534.42169058276</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I8" t="n">
-        <v>14643336</v>
+        <v>15376692</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>145449122</v>
+        <v>145655245</v>
       </c>
       <c r="E9" t="n">
-        <v>145495203</v>
+        <v>145701939</v>
       </c>
       <c r="F9" t="n">
-        <v>6361.830870072293</v>
+        <v>6326.611358794159</v>
       </c>
       <c r="G9" t="n">
-        <v>17215.27889353607</v>
+        <v>18712.24576991539</v>
       </c>
       <c r="H9" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I9" t="n">
-        <v>2508783</v>
+        <v>2486061</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>637532474</v>
+        <v>643486842</v>
       </c>
       <c r="E10" t="n">
-        <v>637532474</v>
+        <v>643486842</v>
       </c>
       <c r="F10" t="n">
-        <v>349066.137712558</v>
+        <v>393862.801963829</v>
       </c>
       <c r="G10" t="n">
-        <v>419407.4201774559</v>
+        <v>522729.8551176499</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>278183095</v>
+        <v>264399883</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>70911301</v>
+        <v>71241052</v>
       </c>
       <c r="E11" t="n">
-        <v>81361685</v>
+        <v>81740033</v>
       </c>
       <c r="F11" t="n">
-        <v>2580.779761572829</v>
+        <v>2818.763409716823</v>
       </c>
       <c r="G11" t="n">
-        <v>3018.073407715922</v>
+        <v>3836.424442569998</v>
       </c>
       <c r="H11" t="n">
-        <v>0.34</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>1261843</v>
+        <v>1246873</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>266912907</v>
+        <v>269592874</v>
       </c>
       <c r="E12" t="n">
-        <v>1152144283</v>
+        <v>1163712507</v>
       </c>
       <c r="F12" t="n">
-        <v>287466.6651277406</v>
+        <v>309169.1740303581</v>
       </c>
       <c r="G12" t="n">
-        <v>373985.6457803589</v>
+        <v>383268.909991667</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>108386943</v>
+        <v>108372166</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>115306142</v>
+        <v>115978908</v>
       </c>
       <c r="E13" t="n">
-        <v>115306142</v>
+        <v>115978908</v>
       </c>
       <c r="F13" t="n">
-        <v>8006.052434486038</v>
+        <v>7778.952025712941</v>
       </c>
       <c r="G13" t="n">
-        <v>3097.342615883036</v>
+        <v>4114.83852389302</v>
       </c>
       <c r="H13" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="I13" t="n">
-        <v>6059439</v>
+        <v>6174148</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20871425</v>
+        <v>20717108</v>
       </c>
       <c r="E14" t="n">
-        <v>52178562</v>
+        <v>51792769</v>
       </c>
       <c r="F14" t="n">
-        <v>5283.431795981109</v>
+        <v>4270.395726101805</v>
       </c>
       <c r="G14" t="n">
-        <v>8509.54360278983</v>
+        <v>15570.5076917048</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2127492</v>
+        <v>2092277</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12106208</v>
+        <v>12136473</v>
       </c>
       <c r="E15" t="n">
-        <v>17801951</v>
+        <v>17846455</v>
       </c>
       <c r="F15" t="n">
-        <v>2514.484364767854</v>
+        <v>1815.981054706499</v>
       </c>
       <c r="G15" t="n">
-        <v>7235.600630476087</v>
+        <v>6584.734198906731</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06</v>
+        <v>0.22</v>
       </c>
       <c r="I15" t="n">
-        <v>2145673</v>
+        <v>2188523</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31812524</v>
+        <v>31958421</v>
       </c>
       <c r="E16" t="n">
-        <v>99053994</v>
+        <v>99508270</v>
       </c>
       <c r="F16" t="n">
-        <v>10981.08837452446</v>
+        <v>9037.342794507606</v>
       </c>
       <c r="G16" t="n">
-        <v>27789.80658851484</v>
+        <v>29947.8647089163</v>
       </c>
       <c r="H16" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I16" t="n">
-        <v>12212804</v>
+        <v>12156435</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>338335931</v>
+        <v>341307475</v>
       </c>
       <c r="E17" t="n">
-        <v>3043879834</v>
+        <v>3070613679</v>
       </c>
       <c r="F17" t="n">
-        <v>1025953.934170933</v>
+        <v>1071587.947842904</v>
       </c>
       <c r="G17" t="n">
-        <v>1085023.374076875</v>
+        <v>1080693.898788264</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>37710608</v>
+        <v>37324208</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15638084</v>
+        <v>15694228</v>
       </c>
       <c r="E18" t="n">
-        <v>95850956</v>
+        <v>96195087</v>
       </c>
       <c r="F18" t="n">
-        <v>30193.14848860367</v>
+        <v>37164.07165094768</v>
       </c>
       <c r="G18" t="n">
-        <v>27986.18559178624</v>
+        <v>28423.08599853082</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>11506632</v>
+        <v>11485631</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47184983</v>
+        <v>47415839</v>
       </c>
       <c r="E19" t="n">
-        <v>203267747</v>
+        <v>204262248</v>
       </c>
       <c r="F19" t="n">
-        <v>44590.92452567133</v>
+        <v>63629.91642739223</v>
       </c>
       <c r="G19" t="n">
-        <v>81679.38034282904</v>
+        <v>72543.12745370867</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I19" t="n">
-        <v>8742642</v>
+        <v>8898158</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>309886360</v>
+        <v>310843514</v>
       </c>
       <c r="E20" t="n">
-        <v>309886360</v>
+        <v>310843514</v>
       </c>
       <c r="F20" t="n">
-        <v>53319.98067132948</v>
+        <v>89952.20058068345</v>
       </c>
       <c r="G20" t="n">
-        <v>115658.6919109961</v>
+        <v>125077.8511944519</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>51082360</v>
+        <v>51301664</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30336650</v>
+        <v>30527131</v>
       </c>
       <c r="E21" t="n">
-        <v>135829625</v>
+        <v>136682488</v>
       </c>
       <c r="F21" t="n">
-        <v>48747.8316404094</v>
+        <v>47691.14118895077</v>
       </c>
       <c r="G21" t="n">
-        <v>54016.99320469637</v>
+        <v>56963.90338292631</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
       <c r="I21" t="n">
-        <v>8641869</v>
+        <v>8685572</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48773600</v>
+        <v>49046138</v>
       </c>
       <c r="E22" t="n">
-        <v>316283817</v>
+        <v>318051150</v>
       </c>
       <c r="F22" t="n">
-        <v>2453.341981100508</v>
+        <v>6936.212299526832</v>
       </c>
       <c r="G22" t="n">
-        <v>100473.5319896165</v>
+        <v>38396.28037345601</v>
       </c>
       <c r="H22" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="I22" t="n">
-        <v>17021421</v>
+        <v>16948161</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125703229</v>
+        <v>125836728</v>
       </c>
       <c r="E23" t="n">
-        <v>2081748422</v>
+        <v>2083959272</v>
       </c>
       <c r="F23" t="n">
-        <v>337855.7367325358</v>
+        <v>336149.1440380203</v>
       </c>
       <c r="G23" t="n">
-        <v>344303.3824290943</v>
+        <v>335258.2452454653</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>4946517</v>
+        <v>4896013</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6904418</v>
+        <v>6940157</v>
       </c>
       <c r="E24" t="n">
-        <v>35521135</v>
+        <v>35704997</v>
       </c>
       <c r="F24" t="n">
-        <v>1797.849611752805</v>
+        <v>1923.827525474556</v>
       </c>
       <c r="G24" t="n">
-        <v>1263.473439641903</v>
+        <v>1218.497747643418</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I24" t="n">
-        <v>917299</v>
+        <v>865654</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23708679</v>
+        <v>23677746</v>
       </c>
       <c r="E25" t="n">
-        <v>23708997</v>
+        <v>23677746</v>
       </c>
       <c r="F25" t="n">
-        <v>15292.0532838843</v>
+        <v>4570.210825134204</v>
       </c>
       <c r="G25" t="n">
-        <v>11034.22498997932</v>
+        <v>11282.3227109862</v>
       </c>
       <c r="H25" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="I25" t="n">
-        <v>1963763</v>
+        <v>1980783</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>313217669</v>
+        <v>317148217</v>
       </c>
       <c r="E27" t="n">
-        <v>579524116</v>
+        <v>586796526</v>
       </c>
       <c r="F27" t="n">
-        <v>95144.83688743551</v>
+        <v>95847.38642402098</v>
       </c>
       <c r="G27" t="n">
-        <v>97177.34956549769</v>
+        <v>70673.39065080398</v>
       </c>
       <c r="H27" t="n">
         <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>13109766</v>
+        <v>12938674</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44675311</v>
+        <v>44926331</v>
       </c>
       <c r="E28" t="n">
-        <v>44675311</v>
+        <v>44926331</v>
       </c>
       <c r="F28" t="n">
-        <v>23499.4606293233</v>
+        <v>28975.18324254861</v>
       </c>
       <c r="G28" t="n">
-        <v>38318.52877361829</v>
+        <v>44837.79798783507</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>7474145</v>
+        <v>9022410</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>604001886</v>
+        <v>608335794</v>
       </c>
       <c r="E29" t="n">
-        <v>2339210190</v>
+        <v>2355994777</v>
       </c>
       <c r="F29" t="n">
-        <v>58988.07269862908</v>
+        <v>59362.5058151643</v>
       </c>
       <c r="G29" t="n">
-        <v>220413.0546953704</v>
+        <v>231456.525935581</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>33470481</v>
+        <v>33612114</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>122591421</v>
+        <v>120614071</v>
       </c>
       <c r="E30" t="n">
-        <v>470280422</v>
+        <v>462694988</v>
       </c>
       <c r="F30" t="n">
-        <v>136483.8440004069</v>
+        <v>142120.0006219207</v>
       </c>
       <c r="G30" t="n">
-        <v>165489.7121107191</v>
+        <v>174191.2066075803</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>27081338</v>
+        <v>30915391</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32646935</v>
+        <v>32284688</v>
       </c>
       <c r="F31" t="n">
-        <v>9634.013970533289</v>
+        <v>24365.27444192905</v>
       </c>
       <c r="G31" t="n">
-        <v>6857.232922281914</v>
+        <v>18280.20467806594</v>
       </c>
       <c r="H31" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="I31" t="n">
-        <v>5613419</v>
+        <v>5617306</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>87131848</v>
+        <v>87143555</v>
       </c>
       <c r="E32" t="n">
-        <v>322098021</v>
+        <v>322140159</v>
       </c>
       <c r="F32" t="n">
-        <v>12608.15647488307</v>
+        <v>13373.39713002569</v>
       </c>
       <c r="G32" t="n">
-        <v>1291.107477685933</v>
+        <v>1465.956003663402</v>
       </c>
       <c r="H32" t="n">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="I32" t="n">
-        <v>338300</v>
+        <v>330430</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>494575994</v>
+        <v>494994589</v>
       </c>
       <c r="E33" t="n">
-        <v>1722451296</v>
+        <v>1723909129</v>
       </c>
       <c r="F33" t="n">
-        <v>226282.858354293</v>
+        <v>240053.6980832396</v>
       </c>
       <c r="G33" t="n">
-        <v>275416.6977586765</v>
+        <v>270953.5161606462</v>
       </c>
       <c r="H33" t="n">
         <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>31455410</v>
+        <v>31092274</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>102770627</v>
+        <v>102865777</v>
       </c>
       <c r="E34" t="n">
-        <v>155709374</v>
+        <v>155853537</v>
       </c>
       <c r="F34" t="n">
-        <v>53502.15065853218</v>
+        <v>49977.37220924191</v>
       </c>
       <c r="G34" t="n">
-        <v>66172.55418352735</v>
+        <v>56026.55551940236</v>
       </c>
       <c r="H34" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="I34" t="n">
-        <v>7619962</v>
+        <v>7465490</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2637757</v>
+        <v>2661095</v>
       </c>
       <c r="E35" t="n">
-        <v>10551026</v>
+        <v>10644379</v>
       </c>
       <c r="F35" t="n">
-        <v>96631.50253707908</v>
+        <v>84230.97788766524</v>
       </c>
       <c r="G35" t="n">
-        <v>66160.62201578294</v>
+        <v>65730.46295884217</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I35" t="n">
-        <v>5972492</v>
+        <v>6281318</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>216810667</v>
+        <v>217240528</v>
       </c>
       <c r="E36" t="n">
-        <v>666611211</v>
+        <v>667932870</v>
       </c>
       <c r="F36" t="n">
-        <v>158215.8664612815</v>
+        <v>154257.6786588505</v>
       </c>
       <c r="G36" t="n">
-        <v>235617.1751081233</v>
+        <v>235683.5280866916</v>
       </c>
       <c r="H36" t="n">
         <v>0.03</v>
       </c>
       <c r="I36" t="n">
-        <v>11795215</v>
+        <v>11686307</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>152208249</v>
+        <v>150862441</v>
       </c>
       <c r="E37" t="n">
-        <v>397639828</v>
+        <v>394123942</v>
       </c>
       <c r="F37" t="n">
-        <v>46508.28198515643</v>
+        <v>36955.60206274904</v>
       </c>
       <c r="G37" t="n">
-        <v>48160.3858742859</v>
+        <v>56514.33325722496</v>
       </c>
       <c r="H37" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="I37" t="n">
-        <v>7664378</v>
+        <v>7817436</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>402965093</v>
+        <v>406031435</v>
       </c>
       <c r="E38" t="n">
-        <v>2302657672</v>
+        <v>2320179631</v>
       </c>
       <c r="F38" t="n">
-        <v>34597.08846246475</v>
+        <v>33013.7297554926</v>
       </c>
       <c r="G38" t="n">
-        <v>80220.28551066283</v>
+        <v>87748.45243777483</v>
       </c>
       <c r="H38" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>37192978</v>
+        <v>37123423</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250220.xlsx
+++ b/OkxData20250220.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>247626827</v>
+        <v>247695260</v>
       </c>
       <c r="E2" t="n">
-        <v>1552833028</v>
+        <v>1553262160</v>
       </c>
       <c r="F2" t="n">
-        <v>184153.2789055245</v>
+        <v>181447.7374790164</v>
       </c>
       <c r="G2" t="n">
-        <v>196757.1747826818</v>
+        <v>189235.0613239231</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>16019436</v>
+        <v>16030226</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>141866016</v>
+        <v>142310674</v>
       </c>
       <c r="E3" t="n">
-        <v>157209717</v>
+        <v>157702467</v>
       </c>
       <c r="F3" t="n">
-        <v>59008.16443468401</v>
+        <v>30443.20322808879</v>
       </c>
       <c r="G3" t="n">
-        <v>184687.9311306956</v>
+        <v>186266.1516799268</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>35050483</v>
+        <v>34958110</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>568133215</v>
+        <v>568882531</v>
       </c>
       <c r="E4" t="n">
-        <v>710650213</v>
+        <v>711587495</v>
       </c>
       <c r="F4" t="n">
-        <v>106162.7649994867</v>
+        <v>113490.5688632994</v>
       </c>
       <c r="G4" t="n">
-        <v>150422.5169047965</v>
+        <v>139081.5216319792</v>
       </c>
       <c r="H4" t="n">
         <v>0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>52801311</v>
+        <v>53132857</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138410506</v>
+        <v>138854561</v>
       </c>
       <c r="E5" t="n">
-        <v>138410506</v>
+        <v>138854561</v>
       </c>
       <c r="F5" t="n">
-        <v>49415.64697441203</v>
+        <v>62708.62973425863</v>
       </c>
       <c r="G5" t="n">
-        <v>116382.4604216744</v>
+        <v>103501.2115813951</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>66619443</v>
+        <v>66492701</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>256351361</v>
+        <v>256625939</v>
       </c>
       <c r="E6" t="n">
-        <v>256351361</v>
+        <v>256625939</v>
       </c>
       <c r="F6" t="n">
-        <v>54152.19955330335</v>
+        <v>63604.0613295453</v>
       </c>
       <c r="G6" t="n">
-        <v>117132.1315858469</v>
+        <v>109334.041402084</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>14921019</v>
+        <v>14886381</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>101232329</v>
+        <v>101194984</v>
       </c>
       <c r="E7" t="n">
-        <v>126224848</v>
+        <v>126178283</v>
       </c>
       <c r="F7" t="n">
-        <v>16101.79145099955</v>
+        <v>15562.92898888565</v>
       </c>
       <c r="G7" t="n">
-        <v>42085.53847106889</v>
+        <v>42244.39946063119</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>11368347</v>
+        <v>11233803</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>74868289</v>
+        <v>74953951</v>
       </c>
       <c r="E8" t="n">
-        <v>156138403</v>
+        <v>156317051</v>
       </c>
       <c r="F8" t="n">
-        <v>42862.69754633708</v>
+        <v>42246.83024427743</v>
       </c>
       <c r="G8" t="n">
-        <v>43534.42169058276</v>
+        <v>46180.4713986283</v>
       </c>
       <c r="H8" t="n">
         <v>0.05</v>
       </c>
       <c r="I8" t="n">
-        <v>15376692</v>
+        <v>15376912</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>145655245</v>
+        <v>145653635</v>
       </c>
       <c r="E9" t="n">
-        <v>145701939</v>
+        <v>145700327</v>
       </c>
       <c r="F9" t="n">
-        <v>6326.611358794159</v>
+        <v>7403.795428014186</v>
       </c>
       <c r="G9" t="n">
-        <v>18712.24576991539</v>
+        <v>13486.55971438902</v>
       </c>
       <c r="H9" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I9" t="n">
-        <v>2486061</v>
+        <v>2472817</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>643486842</v>
+        <v>643994857</v>
       </c>
       <c r="E10" t="n">
-        <v>643486842</v>
+        <v>643994857</v>
       </c>
       <c r="F10" t="n">
-        <v>393862.801963829</v>
+        <v>398775.1130298928</v>
       </c>
       <c r="G10" t="n">
-        <v>522729.8551176499</v>
+        <v>516745.2903857856</v>
       </c>
       <c r="H10" t="n">
         <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>264399883</v>
+        <v>264798924</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71241052</v>
+        <v>71185915</v>
       </c>
       <c r="E11" t="n">
-        <v>81740033</v>
+        <v>81676770</v>
       </c>
       <c r="F11" t="n">
-        <v>2818.763409716823</v>
+        <v>7104.995440302165</v>
       </c>
       <c r="G11" t="n">
-        <v>3836.424442569998</v>
+        <v>4077.140279154396</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.31</v>
       </c>
       <c r="I11" t="n">
-        <v>1246873</v>
+        <v>1270631</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>269592874</v>
+        <v>270259847</v>
       </c>
       <c r="E12" t="n">
-        <v>1163712507</v>
+        <v>1166591530</v>
       </c>
       <c r="F12" t="n">
-        <v>309169.1740303581</v>
+        <v>308622.3934528317</v>
       </c>
       <c r="G12" t="n">
-        <v>383268.909991667</v>
+        <v>371718.0497071759</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>108372166</v>
+        <v>107203335</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>115978908</v>
+        <v>116478824</v>
       </c>
       <c r="E13" t="n">
-        <v>115978908</v>
+        <v>116478824</v>
       </c>
       <c r="F13" t="n">
-        <v>7778.952025712941</v>
+        <v>7237.001782121533</v>
       </c>
       <c r="G13" t="n">
-        <v>4114.83852389302</v>
+        <v>3998.872319261247</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I13" t="n">
-        <v>6174148</v>
+        <v>6204478</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20717108</v>
+        <v>20790525</v>
       </c>
       <c r="E14" t="n">
-        <v>51792769</v>
+        <v>51976313</v>
       </c>
       <c r="F14" t="n">
-        <v>4270.395726101805</v>
+        <v>2380.972892588124</v>
       </c>
       <c r="G14" t="n">
-        <v>15570.5076917048</v>
+        <v>12121.31594883487</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="I14" t="n">
-        <v>2092277</v>
+        <v>1863264</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12136473</v>
+        <v>12131771</v>
       </c>
       <c r="E15" t="n">
-        <v>17846455</v>
+        <v>17839541</v>
       </c>
       <c r="F15" t="n">
-        <v>1815.981054706499</v>
+        <v>10588.30856810735</v>
       </c>
       <c r="G15" t="n">
-        <v>6584.734198906731</v>
+        <v>6710.214758103448</v>
       </c>
       <c r="H15" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="I15" t="n">
-        <v>2188523</v>
+        <v>2187146</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31958421</v>
+        <v>31960250</v>
       </c>
       <c r="E16" t="n">
-        <v>99508270</v>
+        <v>99513964</v>
       </c>
       <c r="F16" t="n">
-        <v>9037.342794507606</v>
+        <v>9775.809921100103</v>
       </c>
       <c r="G16" t="n">
-        <v>29947.8647089163</v>
+        <v>31777.04565110978</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I16" t="n">
-        <v>12156435</v>
+        <v>11938532</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>341307475</v>
+        <v>340636798</v>
       </c>
       <c r="E17" t="n">
-        <v>3070613679</v>
+        <v>3064579860</v>
       </c>
       <c r="F17" t="n">
-        <v>1071587.947842904</v>
+        <v>1051155.380877815</v>
       </c>
       <c r="G17" t="n">
-        <v>1080693.898788264</v>
+        <v>1068551.605787114</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>37324208</v>
+        <v>37413209</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15694228</v>
+        <v>15674853</v>
       </c>
       <c r="E18" t="n">
-        <v>96195087</v>
+        <v>96076326</v>
       </c>
       <c r="F18" t="n">
-        <v>37164.07165094768</v>
+        <v>35194.41165053227</v>
       </c>
       <c r="G18" t="n">
-        <v>28423.08599853082</v>
+        <v>32701.77237572178</v>
       </c>
       <c r="H18" t="n">
         <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>11485631</v>
+        <v>11494439</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47415839</v>
+        <v>47454750</v>
       </c>
       <c r="E19" t="n">
-        <v>204262248</v>
+        <v>204429873</v>
       </c>
       <c r="F19" t="n">
-        <v>63629.91642739223</v>
+        <v>57836.96376363013</v>
       </c>
       <c r="G19" t="n">
-        <v>72543.12745370867</v>
+        <v>64073.54059782312</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I19" t="n">
-        <v>8898158</v>
+        <v>8799807</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>310843514</v>
+        <v>310633317</v>
       </c>
       <c r="E20" t="n">
-        <v>310843514</v>
+        <v>310633317</v>
       </c>
       <c r="F20" t="n">
-        <v>89952.20058068345</v>
+        <v>92312.95053641264</v>
       </c>
       <c r="G20" t="n">
-        <v>125077.8511944519</v>
+        <v>124234.9928418853</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>51301664</v>
+        <v>51169539</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30527131</v>
+        <v>30541935</v>
       </c>
       <c r="E21" t="n">
-        <v>136682488</v>
+        <v>136748772</v>
       </c>
       <c r="F21" t="n">
-        <v>47691.14118895077</v>
+        <v>51013.40499358184</v>
       </c>
       <c r="G21" t="n">
-        <v>56963.90338292631</v>
+        <v>59317.51118239007</v>
       </c>
       <c r="H21" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>8685572</v>
+        <v>8645924</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>49046138</v>
+        <v>48967670</v>
       </c>
       <c r="E22" t="n">
-        <v>318051150</v>
+        <v>317542310</v>
       </c>
       <c r="F22" t="n">
-        <v>6936.212299526832</v>
+        <v>10834.83354258193</v>
       </c>
       <c r="G22" t="n">
-        <v>38396.28037345601</v>
+        <v>37249.12658022727</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I22" t="n">
-        <v>16948161</v>
+        <v>16903887</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125836728</v>
+        <v>125811225</v>
       </c>
       <c r="E23" t="n">
-        <v>2083959272</v>
+        <v>2083536928</v>
       </c>
       <c r="F23" t="n">
-        <v>336149.1440380203</v>
+        <v>336383.5668679236</v>
       </c>
       <c r="G23" t="n">
-        <v>335258.2452454653</v>
+        <v>335780.3853819477</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>4896013</v>
+        <v>4867802</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6940157</v>
+        <v>6953727</v>
       </c>
       <c r="E24" t="n">
-        <v>35704997</v>
+        <v>35774811</v>
       </c>
       <c r="F24" t="n">
-        <v>1923.827525474556</v>
+        <v>1815.835136471948</v>
       </c>
       <c r="G24" t="n">
-        <v>1218.497747643418</v>
+        <v>1351.807209839407</v>
       </c>
       <c r="H24" t="n">
         <v>0.17</v>
       </c>
       <c r="I24" t="n">
-        <v>865654</v>
+        <v>923498</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23677746</v>
+        <v>23773716</v>
       </c>
       <c r="E25" t="n">
-        <v>23677746</v>
+        <v>23774088</v>
       </c>
       <c r="F25" t="n">
-        <v>4570.210825134204</v>
+        <v>7605.448187549481</v>
       </c>
       <c r="G25" t="n">
-        <v>11282.3227109862</v>
+        <v>12115.70234339681</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="I25" t="n">
-        <v>1980783</v>
+        <v>1986291</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>317148217</v>
+        <v>316712797</v>
       </c>
       <c r="E27" t="n">
-        <v>586796526</v>
+        <v>585990899</v>
       </c>
       <c r="F27" t="n">
-        <v>95847.38642402098</v>
+        <v>97064.74165510833</v>
       </c>
       <c r="G27" t="n">
-        <v>70673.39065080398</v>
+        <v>104226.5773965113</v>
       </c>
       <c r="H27" t="n">
         <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>12938674</v>
+        <v>13054525</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44926331</v>
+        <v>45127494</v>
       </c>
       <c r="E28" t="n">
-        <v>44926331</v>
+        <v>45127494</v>
       </c>
       <c r="F28" t="n">
-        <v>28975.18324254861</v>
+        <v>29588.72348010091</v>
       </c>
       <c r="G28" t="n">
-        <v>44837.79798783507</v>
+        <v>43664.24888668449</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>9022410</v>
+        <v>8029139</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>608335794</v>
+        <v>607746787</v>
       </c>
       <c r="E29" t="n">
-        <v>2355994777</v>
+        <v>2353713639</v>
       </c>
       <c r="F29" t="n">
-        <v>59362.5058151643</v>
+        <v>70292.26069174656</v>
       </c>
       <c r="G29" t="n">
-        <v>231456.525935581</v>
+        <v>230718.3492909187</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>33612114</v>
+        <v>33566869</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>120614071</v>
+        <v>120468276</v>
       </c>
       <c r="E30" t="n">
-        <v>462694988</v>
+        <v>462135698</v>
       </c>
       <c r="F30" t="n">
-        <v>142120.0006219207</v>
+        <v>143872.0138634469</v>
       </c>
       <c r="G30" t="n">
-        <v>174191.2066075803</v>
+        <v>171090.2466534616</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>30915391</v>
+        <v>31237689</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32284688</v>
+        <v>32165650</v>
       </c>
       <c r="F31" t="n">
-        <v>24365.27444192905</v>
+        <v>25984.64444068223</v>
       </c>
       <c r="G31" t="n">
-        <v>18280.20467806594</v>
+        <v>19060.70316377382</v>
       </c>
       <c r="H31" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>5617306</v>
+        <v>5613213</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>87143555</v>
+        <v>87101436</v>
       </c>
       <c r="E32" t="n">
-        <v>322140159</v>
+        <v>321984855</v>
       </c>
       <c r="F32" t="n">
-        <v>13373.39713002569</v>
+        <v>13475.73855904993</v>
       </c>
       <c r="G32" t="n">
-        <v>1465.956003663402</v>
+        <v>1400.095884395195</v>
       </c>
       <c r="H32" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="I32" t="n">
-        <v>330430</v>
+        <v>328275</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>494994589</v>
+        <v>496337105</v>
       </c>
       <c r="E33" t="n">
-        <v>1723909129</v>
+        <v>1728584689</v>
       </c>
       <c r="F33" t="n">
-        <v>240053.6980832396</v>
+        <v>113682.2144680824</v>
       </c>
       <c r="G33" t="n">
-        <v>270953.5161606462</v>
+        <v>154749.1738160449</v>
       </c>
       <c r="H33" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>31092274</v>
+        <v>31139555</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>102865777</v>
+        <v>102441681</v>
       </c>
       <c r="E34" t="n">
-        <v>155853537</v>
+        <v>155210983</v>
       </c>
       <c r="F34" t="n">
-        <v>49977.37220924191</v>
+        <v>46245.33867527374</v>
       </c>
       <c r="G34" t="n">
-        <v>56026.55551940236</v>
+        <v>137863.9644524439</v>
       </c>
       <c r="H34" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I34" t="n">
-        <v>7465490</v>
+        <v>7435506</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2661095</v>
+        <v>2648991</v>
       </c>
       <c r="E35" t="n">
-        <v>10644379</v>
+        <v>10595962</v>
       </c>
       <c r="F35" t="n">
-        <v>84230.97788766524</v>
+        <v>69582.30531532943</v>
       </c>
       <c r="G35" t="n">
-        <v>65730.46295884217</v>
+        <v>79746.87192362564</v>
       </c>
       <c r="H35" t="n">
         <v>0.09</v>
       </c>
       <c r="I35" t="n">
-        <v>6281318</v>
+        <v>6318845</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>217240528</v>
+        <v>217113165</v>
       </c>
       <c r="E36" t="n">
-        <v>667932870</v>
+        <v>667541277</v>
       </c>
       <c r="F36" t="n">
-        <v>154257.6786588505</v>
+        <v>165878.1086200907</v>
       </c>
       <c r="G36" t="n">
-        <v>235683.5280866916</v>
+        <v>238201.5515132723</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>11686307</v>
+        <v>11686384</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>150862441</v>
+        <v>152113912</v>
       </c>
       <c r="E37" t="n">
-        <v>394123942</v>
+        <v>397393377</v>
       </c>
       <c r="F37" t="n">
-        <v>36955.60206274904</v>
+        <v>44658.20599527765</v>
       </c>
       <c r="G37" t="n">
-        <v>56514.33325722496</v>
+        <v>52416.23410898208</v>
       </c>
       <c r="H37" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="I37" t="n">
-        <v>7817436</v>
+        <v>7814434</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>406031435</v>
+        <v>406141411</v>
       </c>
       <c r="E38" t="n">
-        <v>2320179631</v>
+        <v>2320808064</v>
       </c>
       <c r="F38" t="n">
-        <v>33013.7297554926</v>
+        <v>40297.86783282109</v>
       </c>
       <c r="G38" t="n">
-        <v>87748.45243777483</v>
+        <v>84219.85801185553</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>37123423</v>
+        <v>37138319</v>
       </c>
     </row>
   </sheetData>
